--- a/Excel_files_for_MISSAR/Prospective_scenarios/2014_q4_start/Historical_graphs_ages_16_69/Economic_scenarios_representation_v3.xlsx
+++ b/Excel_files_for_MISSAR/Prospective_scenarios/2014_q4_start/Historical_graphs_ages_16_69/Economic_scenarios_representation_v3.xlsx
@@ -813,7 +813,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart343.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -824,10 +824,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0525029549883398"/>
-          <c:y val="0.0202774813233725"/>
-          <c:w val="0.91749992013545"/>
-          <c:h val="0.625633671291355"/>
+          <c:x val="0.0524988830024893"/>
+          <c:y val="0.0202781576226528"/>
+          <c:w val="0.917485798174507"/>
+          <c:h val="0.625621185338358"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2872,238 +2872,238 @@
                   <c:v>0.379066696445714</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.378334989128641</c:v>
+                  <c:v>0.378456940348153</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.377603281811568</c:v>
+                  <c:v>0.377847184250592</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.376871574494495</c:v>
+                  <c:v>0.377237428153031</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.376139867177422</c:v>
+                  <c:v>0.37662767205547</c:v>
                 </c:pt>
                 <c:pt idx="187">
+                  <c:v>0.376017915957909</c:v>
+                </c:pt>
+                <c:pt idx="188">
                   <c:v>0.375408159860348</c:v>
                 </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.374676452543275</c:v>
-                </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.373944745226202</c:v>
+                  <c:v>0.374798403762787</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.373213037909129</c:v>
+                  <c:v>0.374188647665226</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.372481330592056</c:v>
+                  <c:v>0.373578891567665</c:v>
                 </c:pt>
                 <c:pt idx="192">
+                  <c:v>0.372969135470104</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.372359379372543</c:v>
+                </c:pt>
+                <c:pt idx="194">
                   <c:v>0.371749623274982</c:v>
                 </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.371017915957909</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.370286208640836</c:v>
-                </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.369554501323763</c:v>
+                  <c:v>0.371139867177421</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.36882279400669</c:v>
+                  <c:v>0.37053011107986</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.368091086689617</c:v>
+                  <c:v>0.369920354982299</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.367359379372543</c:v>
+                  <c:v>0.369310598884738</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.36662767205547</c:v>
+                  <c:v>0.368700842787177</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.365895964738397</c:v>
+                  <c:v>0.368091086689616</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.365164257421324</c:v>
+                  <c:v>0.367481330592055</c:v>
                 </c:pt>
                 <c:pt idx="202">
+                  <c:v>0.366871574494494</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.366261818396933</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.365652062299372</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.365042306201812</c:v>
+                </c:pt>
+                <c:pt idx="206">
                   <c:v>0.364432550104251</c:v>
                 </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.363700842787178</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.362969135470104</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.362237428153031</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0.361505720835958</c:v>
-                </c:pt>
                 <c:pt idx="207">
+                  <c:v>0.36382279400669</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.363213037909129</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.362603281811568</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.361993525714007</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.361383769616446</c:v>
+                </c:pt>
+                <c:pt idx="212">
                   <c:v>0.360774013518885</c:v>
                 </c:pt>
-                <c:pt idx="208">
-                  <c:v>0.360042306201812</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.359310598884739</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0.358578891567665</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.357847184250592</c:v>
-                </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="213">
+                  <c:v>0.360164257421324</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.359554501323763</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.358944745226202</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.358334989128641</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.35772523303108</c:v>
+                </c:pt>
+                <c:pt idx="218">
                   <c:v>0.357115476933519</c:v>
                 </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.356383769616446</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.355652062299373</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.3549203549823</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.354188647665226</c:v>
-                </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="219">
+                  <c:v>0.356505720835958</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.355895964738397</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.355286208640836</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.354676452543275</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.354066696445714</c:v>
+                </c:pt>
+                <c:pt idx="224">
                   <c:v>0.353456940348153</c:v>
                 </c:pt>
-                <c:pt idx="218">
-                  <c:v>0.35272523303108</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.351993525714007</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.351261818396934</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.350530111079861</c:v>
-                </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="225">
+                  <c:v>0.352847184250592</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.352237428153031</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.35162767205547</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.351017915957909</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.350408159860348</c:v>
+                </c:pt>
+                <c:pt idx="230">
                   <c:v>0.349798403762787</c:v>
                 </c:pt>
-                <c:pt idx="223">
-                  <c:v>0.349066696445714</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0.348334989128641</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0.347603281811568</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0.346871574494495</c:v>
-                </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="231">
+                  <c:v>0.349188647665226</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.348578891567665</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.347969135470104</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.347359379372543</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.346749623274982</c:v>
+                </c:pt>
+                <c:pt idx="236">
                   <c:v>0.346139867177421</c:v>
                 </c:pt>
-                <c:pt idx="228">
-                  <c:v>0.345408159860348</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0.344676452543275</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0.343944745226202</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.343213037909129</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.342481330592056</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.341749623274982</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.341017915957909</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0.340286208640836</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0.339554501323763</c:v>
-                </c:pt>
                 <c:pt idx="237">
+                  <c:v>0.34553011107986</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.344920354982299</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.344310598884738</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.343700842787177</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.343091086689616</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.342481330592055</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.341871574494494</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.341261818396933</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.340652062299372</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.340042306201811</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.339432550104251</c:v>
+                </c:pt>
+                <c:pt idx="248">
                   <c:v>0.33882279400669</c:v>
                 </c:pt>
-                <c:pt idx="238">
-                  <c:v>0.338091086689617</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0.337359379372543</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0.33662767205547</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0.335895964738397</c:v>
-                </c:pt>
-                <c:pt idx="242">
+                <c:pt idx="249">
+                  <c:v>0.338213037909129</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.337603281811568</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.336993525714007</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.336383769616446</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.335774013518885</c:v>
+                </c:pt>
+                <c:pt idx="254">
                   <c:v>0.335164257421324</c:v>
                 </c:pt>
-                <c:pt idx="243">
-                  <c:v>0.334432550104251</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0.333700842787178</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0.332969135470104</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0.332237428153031</c:v>
-                </c:pt>
-                <c:pt idx="247">
+                <c:pt idx="255">
+                  <c:v>0.334554501323763</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.333944745226202</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.333334989128641</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.33272523303108</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.332115476933519</c:v>
+                </c:pt>
+                <c:pt idx="260">
                   <c:v>0.331505720835958</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0.330774013518885</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0.330042306201812</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0.329310598884739</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0.328578891567665</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0.327847184250592</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0.327115476933519</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0.326383769616446</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0.325652062299373</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0.3249203549823</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0.324188647665226</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0.323456940348153</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0.32272523303108</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>0.321993525714007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3985,238 +3985,238 @@
                   <c:v>0.379066696445714</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.379188647665226</c:v>
+                  <c:v>0.379310598884738</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.379310598884739</c:v>
+                  <c:v>0.379554501323763</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.379432550104251</c:v>
+                  <c:v>0.379798403762787</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.379554501323763</c:v>
+                  <c:v>0.380042306201812</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.379676452543275</c:v>
+                  <c:v>0.380286208640836</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.379798403762787</c:v>
+                  <c:v>0.38053011107986</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.3799203549823</c:v>
+                  <c:v>0.380774013518885</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.380042306201812</c:v>
+                  <c:v>0.381017915957909</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.380164257421324</c:v>
+                  <c:v>0.381261818396933</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.380286208640836</c:v>
+                  <c:v>0.381505720835958</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.380408159860348</c:v>
+                  <c:v>0.381749623274982</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.380530111079861</c:v>
+                  <c:v>0.381993525714007</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.380652062299373</c:v>
+                  <c:v>0.382237428153031</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.380774013518885</c:v>
+                  <c:v>0.382481330592055</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.380895964738397</c:v>
+                  <c:v>0.38272523303108</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.381017915957909</c:v>
+                  <c:v>0.382969135470104</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.381139867177422</c:v>
+                  <c:v>0.383213037909129</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.381261818396934</c:v>
+                  <c:v>0.383456940348153</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.381383769616446</c:v>
+                  <c:v>0.383700842787177</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.381505720835958</c:v>
+                  <c:v>0.383944745226202</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.38162767205547</c:v>
+                  <c:v>0.384188647665226</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.381749623274982</c:v>
+                  <c:v>0.384432550104251</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.381871574494495</c:v>
+                  <c:v>0.384676452543275</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.381993525714007</c:v>
+                  <c:v>0.384920354982299</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.382115476933519</c:v>
+                  <c:v>0.385164257421324</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.382237428153031</c:v>
+                  <c:v>0.385408159860348</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.382359379372543</c:v>
+                  <c:v>0.385652062299373</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.382481330592056</c:v>
+                  <c:v>0.385895964738397</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.382603281811568</c:v>
+                  <c:v>0.386139867177421</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.38272523303108</c:v>
+                  <c:v>0.386383769616446</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.382847184250592</c:v>
+                  <c:v>0.38662767205547</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.382969135470104</c:v>
+                  <c:v>0.386871574494494</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.383091086689617</c:v>
+                  <c:v>0.387115476933519</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.383213037909129</c:v>
+                  <c:v>0.387359379372543</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.383334989128641</c:v>
+                  <c:v>0.387603281811568</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.383456940348153</c:v>
+                  <c:v>0.387847184250592</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.383578891567665</c:v>
+                  <c:v>0.388091086689616</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.383700842787178</c:v>
+                  <c:v>0.388334989128641</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.38382279400669</c:v>
+                  <c:v>0.388578891567665</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.383944745226202</c:v>
+                  <c:v>0.38882279400669</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.384066696445714</c:v>
+                  <c:v>0.389066696445714</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.384188647665226</c:v>
+                  <c:v>0.389310598884738</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.384310598884739</c:v>
+                  <c:v>0.389554501323763</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.384432550104251</c:v>
+                  <c:v>0.389798403762787</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.384554501323763</c:v>
+                  <c:v>0.390042306201812</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.384676452543275</c:v>
+                  <c:v>0.390286208640836</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.384798403762787</c:v>
+                  <c:v>0.39053011107986</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.3849203549823</c:v>
+                  <c:v>0.390774013518885</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.385042306201812</c:v>
+                  <c:v>0.391017915957909</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.385164257421324</c:v>
+                  <c:v>0.391261818396933</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.385286208640836</c:v>
+                  <c:v>0.391505720835958</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.385408159860348</c:v>
+                  <c:v>0.391749623274982</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.385530111079861</c:v>
+                  <c:v>0.391993525714007</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.385652062299373</c:v>
+                  <c:v>0.392237428153031</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.385774013518885</c:v>
+                  <c:v>0.392481330592055</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.385895964738397</c:v>
+                  <c:v>0.39272523303108</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.386017915957909</c:v>
+                  <c:v>0.392969135470104</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.386139867177422</c:v>
+                  <c:v>0.393213037909129</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.386261818396934</c:v>
+                  <c:v>0.393456940348153</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.386383769616446</c:v>
+                  <c:v>0.393700842787177</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.386505720835958</c:v>
+                  <c:v>0.393944745226202</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.38662767205547</c:v>
+                  <c:v>0.394188647665226</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.386749623274983</c:v>
+                  <c:v>0.394432550104251</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.386871574494495</c:v>
+                  <c:v>0.394676452543275</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.386993525714007</c:v>
+                  <c:v>0.394920354982299</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.387115476933519</c:v>
+                  <c:v>0.395164257421324</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.387237428153031</c:v>
+                  <c:v>0.395408159860348</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.387359379372543</c:v>
+                  <c:v>0.395652062299373</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.387481330592056</c:v>
+                  <c:v>0.395895964738397</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.387603281811568</c:v>
+                  <c:v>0.396139867177421</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.38772523303108</c:v>
+                  <c:v>0.396383769616446</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.387847184250592</c:v>
+                  <c:v>0.39662767205547</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.387969135470104</c:v>
+                  <c:v>0.396871574494494</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.388091086689617</c:v>
+                  <c:v>0.397115476933519</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.388213037909129</c:v>
+                  <c:v>0.397359379372543</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.388334989128641</c:v>
+                  <c:v>0.397603281811568</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.388456940348153</c:v>
+                  <c:v>0.397847184250592</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.388578891567665</c:v>
+                  <c:v>0.398091086689616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5089,238 +5089,238 @@
                   <c:v>0.379066696445714</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.380042306201812</c:v>
+                  <c:v>0.380164257421324</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.381017915957909</c:v>
+                  <c:v>0.381261818396933</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.381993525714007</c:v>
+                  <c:v>0.382359379372543</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.382969135470104</c:v>
+                  <c:v>0.383456940348153</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.383944745226202</c:v>
+                  <c:v>0.384554501323763</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.3849203549823</c:v>
+                  <c:v>0.385652062299373</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.385895964738397</c:v>
+                  <c:v>0.386749623274982</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.386871574494495</c:v>
+                  <c:v>0.387847184250592</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.387847184250592</c:v>
+                  <c:v>0.388944745226202</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.38882279400669</c:v>
+                  <c:v>0.390042306201812</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.389798403762787</c:v>
+                  <c:v>0.391139867177421</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.390774013518885</c:v>
+                  <c:v>0.392237428153031</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.391749623274982</c:v>
+                  <c:v>0.393334989128641</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.39272523303108</c:v>
+                  <c:v>0.394432550104251</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.393700842787178</c:v>
+                  <c:v>0.39553011107986</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.394676452543275</c:v>
+                  <c:v>0.39662767205547</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.395652062299373</c:v>
+                  <c:v>0.39772523303108</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.39662767205547</c:v>
+                  <c:v>0.39882279400669</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.397603281811568</c:v>
+                  <c:v>0.399920354982299</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.398578891567665</c:v>
+                  <c:v>0.401017915957909</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.399554501323763</c:v>
+                  <c:v>0.402115476933519</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.400530111079861</c:v>
+                  <c:v>0.403213037909129</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.401505720835958</c:v>
+                  <c:v>0.404310598884738</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.402481330592056</c:v>
+                  <c:v>0.405408159860348</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.403456940348153</c:v>
+                  <c:v>0.406505720835958</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.404432550104251</c:v>
+                  <c:v>0.407603281811568</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.405408159860348</c:v>
+                  <c:v>0.408700842787177</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.406383769616446</c:v>
+                  <c:v>0.409798403762787</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.407359379372543</c:v>
+                  <c:v>0.410895964738397</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.408334989128641</c:v>
+                  <c:v>0.411993525714007</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.409310598884739</c:v>
+                  <c:v>0.413091086689617</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.410286208640836</c:v>
+                  <c:v>0.414188647665226</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.411261818396934</c:v>
+                  <c:v>0.415286208640836</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.412237428153031</c:v>
+                  <c:v>0.416383769616446</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.413213037909129</c:v>
+                  <c:v>0.417481330592056</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.414188647665226</c:v>
+                  <c:v>0.418578891567665</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.415164257421324</c:v>
+                  <c:v>0.419676452543275</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.416139867177422</c:v>
+                  <c:v>0.420774013518885</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.417115476933519</c:v>
+                  <c:v>0.421871574494495</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.418091086689617</c:v>
+                  <c:v>0.422969135470104</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.419066696445714</c:v>
+                  <c:v>0.424066696445714</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.420042306201812</c:v>
+                  <c:v>0.425164257421324</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.421017915957909</c:v>
+                  <c:v>0.426261818396934</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.421993525714007</c:v>
+                  <c:v>0.427359379372543</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.422969135470104</c:v>
+                  <c:v>0.428456940348153</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.423944745226202</c:v>
+                  <c:v>0.429554501323763</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.4249203549823</c:v>
+                  <c:v>0.430652062299373</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.425895964738397</c:v>
+                  <c:v>0.431749623274982</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.426871574494495</c:v>
+                  <c:v>0.432847184250592</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.427847184250592</c:v>
+                  <c:v>0.433944745226202</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.42882279400669</c:v>
+                  <c:v>0.435042306201812</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.429798403762787</c:v>
+                  <c:v>0.436139867177421</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.430774013518885</c:v>
+                  <c:v>0.437237428153031</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.431749623274983</c:v>
+                  <c:v>0.438334989128641</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.43272523303108</c:v>
+                  <c:v>0.439432550104251</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.433700842787178</c:v>
+                  <c:v>0.44053011107986</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.434676452543275</c:v>
+                  <c:v>0.44162767205547</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.435652062299373</c:v>
+                  <c:v>0.44272523303108</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.43662767205547</c:v>
+                  <c:v>0.44382279400669</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.437603281811568</c:v>
+                  <c:v>0.444920354982299</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.438578891567665</c:v>
+                  <c:v>0.446017915957909</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.439554501323763</c:v>
+                  <c:v>0.447115476933519</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.440530111079861</c:v>
+                  <c:v>0.448213037909129</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.441505720835958</c:v>
+                  <c:v>0.449310598884738</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.442481330592056</c:v>
+                  <c:v>0.450408159860348</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.443456940348153</c:v>
+                  <c:v>0.451505720835958</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.444432550104251</c:v>
+                  <c:v>0.452603281811568</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.445408159860348</c:v>
+                  <c:v>0.453700842787177</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.446383769616446</c:v>
+                  <c:v>0.454798403762787</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.447359379372544</c:v>
+                  <c:v>0.455895964738397</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.448334989128641</c:v>
+                  <c:v>0.456993525714007</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.449310598884739</c:v>
+                  <c:v>0.458091086689617</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.450286208640836</c:v>
+                  <c:v>0.459188647665226</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.451261818396934</c:v>
+                  <c:v>0.460286208640836</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.452237428153031</c:v>
+                  <c:v>0.461383769616446</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.453213037909129</c:v>
+                  <c:v>0.462481330592056</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.454188647665226</c:v>
+                  <c:v>0.463578891567665</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.455164257421324</c:v>
+                  <c:v>0.464676452543275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18651,238 +18651,238 @@
                   <c:v>0.203312291034286</c:v>
                 </c:pt>
                 <c:pt idx="183">
+                  <c:v>0.203373266644042</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.203434242253798</c:v>
+                </c:pt>
+                <c:pt idx="185">
                   <c:v>0.203495217863554</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="186">
+                  <c:v>0.20355619347331</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.203617169083066</c:v>
+                </c:pt>
+                <c:pt idx="188">
                   <c:v>0.203678144692823</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="189">
+                  <c:v>0.203739120302579</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.203800095912335</c:v>
+                </c:pt>
+                <c:pt idx="191">
                   <c:v>0.203861071522091</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="192">
+                  <c:v>0.203922047131847</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.203983022741603</c:v>
+                </c:pt>
+                <c:pt idx="194">
                   <c:v>0.204043998351359</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="195">
+                  <c:v>0.204104973961115</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.204165949570871</c:v>
+                </c:pt>
+                <c:pt idx="197">
                   <c:v>0.204226925180627</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="198">
+                  <c:v>0.204287900790384</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.20434887640014</c:v>
+                </c:pt>
+                <c:pt idx="200">
                   <c:v>0.204409852009896</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="201">
+                  <c:v>0.204470827619652</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.204531803229408</c:v>
+                </c:pt>
+                <c:pt idx="203">
                   <c:v>0.204592778839164</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="204">
+                  <c:v>0.20465375444892</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.204714730058676</c:v>
+                </c:pt>
+                <c:pt idx="206">
                   <c:v>0.204775705668432</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="207">
+                  <c:v>0.204836681278188</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.204897656887945</c:v>
+                </c:pt>
+                <c:pt idx="209">
                   <c:v>0.204958632497701</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="210">
+                  <c:v>0.205019608107457</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.205080583717213</c:v>
+                </c:pt>
+                <c:pt idx="212">
                   <c:v>0.205141559326969</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="213">
+                  <c:v>0.205202534936725</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.205263510546481</c:v>
+                </c:pt>
+                <c:pt idx="215">
                   <c:v>0.205324486156237</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="216">
+                  <c:v>0.205385461765993</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.205446437375749</c:v>
+                </c:pt>
+                <c:pt idx="218">
                   <c:v>0.205507412985506</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="219">
+                  <c:v>0.205568388595262</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.205629364205018</c:v>
+                </c:pt>
+                <c:pt idx="221">
                   <c:v>0.205690339814774</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="222">
+                  <c:v>0.20575131542453</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.205812291034286</c:v>
+                </c:pt>
+                <c:pt idx="224">
                   <c:v>0.205873266644042</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="225">
+                  <c:v>0.205934242253798</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.205995217863554</c:v>
+                </c:pt>
+                <c:pt idx="227">
                   <c:v>0.20605619347331</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="228">
+                  <c:v>0.206117169083066</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.206178144692823</c:v>
+                </c:pt>
+                <c:pt idx="230">
                   <c:v>0.206239120302579</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="231">
+                  <c:v>0.206300095912335</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.206361071522091</c:v>
+                </c:pt>
+                <c:pt idx="233">
                   <c:v>0.206422047131847</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="234">
+                  <c:v>0.206483022741603</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.206543998351359</c:v>
+                </c:pt>
+                <c:pt idx="236">
                   <c:v>0.206604973961115</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="237">
+                  <c:v>0.206665949570871</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.206726925180627</c:v>
+                </c:pt>
+                <c:pt idx="239">
                   <c:v>0.206787900790384</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="240">
+                  <c:v>0.20684887640014</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.206909852009896</c:v>
+                </c:pt>
+                <c:pt idx="242">
                   <c:v>0.206970827619652</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="243">
+                  <c:v>0.207031803229408</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.207092778839164</c:v>
+                </c:pt>
+                <c:pt idx="245">
                   <c:v>0.20715375444892</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="246">
+                  <c:v>0.207214730058676</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.207275705668432</c:v>
+                </c:pt>
+                <c:pt idx="248">
                   <c:v>0.207336681278188</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="249">
+                  <c:v>0.207397656887945</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.207458632497701</c:v>
+                </c:pt>
+                <c:pt idx="251">
                   <c:v>0.207519608107457</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="252">
+                  <c:v>0.207580583717213</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.207641559326969</c:v>
+                </c:pt>
+                <c:pt idx="254">
                   <c:v>0.207702534936725</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="255">
+                  <c:v>0.207763510546481</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.207824486156237</c:v>
+                </c:pt>
+                <c:pt idx="257">
                   <c:v>0.207885461765993</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="258">
+                  <c:v>0.207946437375749</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.208007412985506</c:v>
+                </c:pt>
+                <c:pt idx="260">
                   <c:v>0.208068388595262</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.20825131542453</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0.208434242253798</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.208617169083066</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.208800095912335</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.208983022741603</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.209165949570871</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.20934887640014</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.209531803229408</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0.209714730058676</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0.209897656887945</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.210080583717213</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.210263510546481</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.210446437375749</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.210629364205018</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0.210812291034286</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0.210995217863554</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0.211178144692823</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0.211361071522091</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0.211543998351359</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0.211726925180627</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0.211909852009896</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0.212092778839164</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.212275705668432</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.212458632497701</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.212641559326969</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.212824486156237</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0.213007412985506</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0.213190339814774</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0.213373266644042</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0.21355619347331</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0.213739120302579</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0.213922047131847</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0.214104973961115</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0.214287900790384</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0.214470827619652</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0.21465375444892</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0.214836681278188</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0.215019608107457</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0.215202534936725</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0.215385461765993</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0.215568388595262</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0.21575131542453</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0.215934242253798</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0.216117169083066</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0.216300095912335</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0.216483022741603</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0.216665949570871</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0.21684887640014</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0.217031803229408</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0.217214730058676</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0.217397656887945</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>0.217580583717213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19764,238 +19764,238 @@
                   <c:v>0.203312291034286</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.203190339814774</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.203068388595262</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.202946437375749</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.202824486156237</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.202702534936725</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.202580583717213</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.202458632497701</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.202336681278188</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.202214730058676</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.202092778839164</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.201970827619652</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.20184887640014</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.201726925180627</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.201604973961115</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.201483022741603</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.201361071522091</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.201239120302579</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.201117169083067</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.200995217863554</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.200873266644042</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.20075131542453</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.200629364205018</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.200507412985506</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.200385461765993</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.200263510546481</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.200141559326969</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.200019608107457</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.199897656887945</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.199775705668432</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.19965375444892</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.199531803229408</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.199409852009896</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.199287900790384</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.199165949570871</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.199043998351359</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.198922047131847</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.198800095912335</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.198678144692823</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.19855619347331</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.198434242253798</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.198312291034286</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.198190339814774</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.198068388595262</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.197946437375749</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.197824486156237</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.197702534936725</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.197580583717213</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.197458632497701</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.197336681278188</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.197214730058676</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.197092778839164</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.196970827619652</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.19684887640014</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.196726925180627</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.196604973961115</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.196483022741603</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.196361071522091</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.196239120302579</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.196117169083067</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.195995217863554</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.195873266644042</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.19575131542453</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.195629364205018</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.195507412985506</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.195385461765993</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.195263510546481</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.195141559326969</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.195019608107457</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.194897656887945</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.194775705668432</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.19465375444892</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.194531803229408</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.194409852009896</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.194287900790384</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.194165949570871</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.194043998351359</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.193922047131847</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.203312291034286</c:v>
+                  <c:v>0.193800095912335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20868,238 +20868,238 @@
                   <c:v>0.203312291034286</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.203129364205018</c:v>
+                  <c:v>0.203007412985505</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.202946437375749</c:v>
+                  <c:v>0.202702534936725</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.202763510546481</c:v>
+                  <c:v>0.202397656887945</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.202580583717213</c:v>
+                  <c:v>0.202092778839164</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.202397656887945</c:v>
+                  <c:v>0.201787900790384</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.202214730058676</c:v>
+                  <c:v>0.201483022741603</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.202031803229408</c:v>
+                  <c:v>0.201178144692823</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.20184887640014</c:v>
+                  <c:v>0.200873266644042</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.201665949570871</c:v>
+                  <c:v>0.200568388595262</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.201483022741603</c:v>
+                  <c:v>0.200263510546481</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.201300095912335</c:v>
+                  <c:v>0.199958632497701</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.201117169083067</c:v>
+                  <c:v>0.19965375444892</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.200934242253798</c:v>
+                  <c:v>0.19934887640014</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.20075131542453</c:v>
+                  <c:v>0.199043998351359</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.200568388595262</c:v>
+                  <c:v>0.198739120302579</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.200385461765993</c:v>
+                  <c:v>0.198434242253798</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.200202534936725</c:v>
+                  <c:v>0.198129364205018</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.200019608107457</c:v>
+                  <c:v>0.197824486156237</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.199836681278188</c:v>
+                  <c:v>0.197519608107457</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.19965375444892</c:v>
+                  <c:v>0.197214730058676</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.199470827619652</c:v>
+                  <c:v>0.196909852009896</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.199287900790384</c:v>
+                  <c:v>0.196604973961115</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.199104973961115</c:v>
+                  <c:v>0.196300095912335</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.198922047131847</c:v>
+                  <c:v>0.195995217863554</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.198739120302579</c:v>
+                  <c:v>0.195690339814774</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.19855619347331</c:v>
+                  <c:v>0.195385461765993</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.198373266644042</c:v>
+                  <c:v>0.195080583717213</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.198190339814774</c:v>
+                  <c:v>0.194775705668432</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.198007412985506</c:v>
+                  <c:v>0.194470827619652</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.197824486156237</c:v>
+                  <c:v>0.194165949570871</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.197641559326969</c:v>
+                  <c:v>0.193861071522091</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.197458632497701</c:v>
+                  <c:v>0.19355619347331</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.197275705668432</c:v>
+                  <c:v>0.19325131542453</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.197092778839164</c:v>
+                  <c:v>0.192946437375749</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.196909852009896</c:v>
+                  <c:v>0.192641559326969</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.196726925180627</c:v>
+                  <c:v>0.192336681278188</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.196543998351359</c:v>
+                  <c:v>0.192031803229408</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.196361071522091</c:v>
+                  <c:v>0.191726925180627</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.196178144692823</c:v>
+                  <c:v>0.191422047131847</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.195995217863554</c:v>
+                  <c:v>0.191117169083067</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.195812291034286</c:v>
+                  <c:v>0.190812291034286</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.195629364205018</c:v>
+                  <c:v>0.190507412985506</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.195446437375749</c:v>
+                  <c:v>0.190202534936725</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.195263510546481</c:v>
+                  <c:v>0.189897656887945</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.195080583717213</c:v>
+                  <c:v>0.189592778839164</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.194897656887945</c:v>
+                  <c:v>0.189287900790384</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.194714730058676</c:v>
+                  <c:v>0.188983022741603</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.194531803229408</c:v>
+                  <c:v>0.188678144692823</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.19434887640014</c:v>
+                  <c:v>0.188373266644042</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.194165949570871</c:v>
+                  <c:v>0.188068388595262</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.193983022741603</c:v>
+                  <c:v>0.187763510546481</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.193800095912335</c:v>
+                  <c:v>0.187458632497701</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.193617169083067</c:v>
+                  <c:v>0.18715375444892</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.193434242253798</c:v>
+                  <c:v>0.18684887640014</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.19325131542453</c:v>
+                  <c:v>0.186543998351359</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.193068388595262</c:v>
+                  <c:v>0.186239120302579</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.192885461765993</c:v>
+                  <c:v>0.185934242253798</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.192702534936725</c:v>
+                  <c:v>0.185629364205018</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.192519608107457</c:v>
+                  <c:v>0.185324486156237</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.192336681278188</c:v>
+                  <c:v>0.185019608107457</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.19215375444892</c:v>
+                  <c:v>0.184714730058676</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.191970827619652</c:v>
+                  <c:v>0.184409852009896</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.191787900790384</c:v>
+                  <c:v>0.184104973961115</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.191604973961115</c:v>
+                  <c:v>0.183800095912335</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.191422047131847</c:v>
+                  <c:v>0.183495217863554</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.191239120302579</c:v>
+                  <c:v>0.183190339814774</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.19105619347331</c:v>
+                  <c:v>0.182885461765993</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.190873266644042</c:v>
+                  <c:v>0.182580583717213</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.190690339814774</c:v>
+                  <c:v>0.182275705668432</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.190507412985506</c:v>
+                  <c:v>0.181970827619652</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.190324486156237</c:v>
+                  <c:v>0.181665949570871</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.190141559326969</c:v>
+                  <c:v>0.181361071522091</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.189958632497701</c:v>
+                  <c:v>0.18105619347331</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.189775705668432</c:v>
+                  <c:v>0.18075131542453</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.189592778839164</c:v>
+                  <c:v>0.180446437375749</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.189409852009896</c:v>
+                  <c:v>0.180141559326969</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.189226925180627</c:v>
+                  <c:v>0.179836681278188</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.189043998351359</c:v>
+                  <c:v>0.179531803229408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21114,11 +21114,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="87887611"/>
-        <c:axId val="7491949"/>
+        <c:axId val="40849339"/>
+        <c:axId val="90634262"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87887611"/>
+        <c:axId val="40849339"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21150,14 +21150,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7491949"/>
+        <c:crossAx val="90634262"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7491949"/>
+        <c:axId val="90634262"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21199,7 +21199,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87887611"/>
+        <c:crossAx val="40849339"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21263,7 +21263,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart344.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -21274,10 +21274,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0464900344192748"/>
-          <c:y val="0.0268145631391359"/>
-          <c:w val="0.940974945969743"/>
-          <c:h val="0.591086239632257"/>
+          <c:x val="0.0464919154925072"/>
+          <c:y val="0.026815456362425"/>
+          <c:w val="0.940953508084507"/>
+          <c:h val="0.591072618254497"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -39129,7 +39129,7 @@
                   <c:v>0.417924920522369</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.418046871741882</c:v>
+                  <c:v>0.418046871741881</c:v>
                 </c:pt>
                 <c:pt idx="185">
                   <c:v>0.418168822961394</c:v>
@@ -39144,7 +39144,7 @@
                   <c:v>0.41853467661993</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.418656627839443</c:v>
+                  <c:v>0.418656627839442</c:v>
                 </c:pt>
                 <c:pt idx="190">
                   <c:v>0.418778579058955</c:v>
@@ -39159,7 +39159,7 @@
                   <c:v>0.419144432717491</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.419266383937004</c:v>
+                  <c:v>0.419266383937003</c:v>
                 </c:pt>
                 <c:pt idx="195">
                   <c:v>0.419388335156516</c:v>
@@ -39174,7 +39174,7 @@
                   <c:v>0.419754188815052</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.419876140034565</c:v>
+                  <c:v>0.419876140034564</c:v>
                 </c:pt>
                 <c:pt idx="200">
                   <c:v>0.419998091254077</c:v>
@@ -39204,7 +39204,7 @@
                   <c:v>0.420973701010174</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.421095652229687</c:v>
+                  <c:v>0.421095652229686</c:v>
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>0.421217603449199</c:v>
@@ -39222,7 +39222,7 @@
                   <c:v>0.421705408327247</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.42182735954676</c:v>
+                  <c:v>0.421827359546759</c:v>
                 </c:pt>
                 <c:pt idx="216">
                   <c:v>0.421949310766272</c:v>
@@ -39252,7 +39252,7 @@
                   <c:v>0.422924920522369</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.423046871741882</c:v>
+                  <c:v>0.423046871741881</c:v>
                 </c:pt>
                 <c:pt idx="226">
                   <c:v>0.423168822961394</c:v>
@@ -39267,7 +39267,7 @@
                   <c:v>0.42353467661993</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.423656627839443</c:v>
+                  <c:v>0.423656627839442</c:v>
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>0.423778579058955</c:v>
@@ -39282,7 +39282,7 @@
                   <c:v>0.424144432717491</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.424266383937004</c:v>
+                  <c:v>0.424266383937003</c:v>
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>0.424388335156516</c:v>
@@ -39312,7 +39312,7 @@
                   <c:v>0.425363944912613</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.425485896132126</c:v>
+                  <c:v>0.425485896132125</c:v>
                 </c:pt>
                 <c:pt idx="246">
                   <c:v>0.425607847351638</c:v>
@@ -39330,7 +39330,7 @@
                   <c:v>0.426095652229686</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.426217603449199</c:v>
+                  <c:v>0.426217603449198</c:v>
                 </c:pt>
                 <c:pt idx="252">
                   <c:v>0.426339554668711</c:v>
@@ -39360,7 +39360,7 @@
                   <c:v>0.427315164424808</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0.427437115644321</c:v>
+                  <c:v>0.42743711564432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -40251,7 +40251,7 @@
                   <c:v>0.417071261985784</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.41682735954676</c:v>
+                  <c:v>0.416827359546759</c:v>
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>0.416583457107735</c:v>
@@ -40275,7 +40275,7 @@
                   <c:v>0.415120042473589</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.414876140034565</c:v>
+                  <c:v>0.414876140034564</c:v>
                 </c:pt>
                 <c:pt idx="195">
                   <c:v>0.41463223759554</c:v>
@@ -40290,7 +40290,7 @@
                   <c:v>0.413900530278467</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.413656627839443</c:v>
+                  <c:v>0.413656627839442</c:v>
                 </c:pt>
                 <c:pt idx="200">
                   <c:v>0.413412725400418</c:v>
@@ -40305,7 +40305,7 @@
                   <c:v>0.412681018083345</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.412437115644321</c:v>
+                  <c:v>0.41243711564432</c:v>
                 </c:pt>
                 <c:pt idx="205">
                   <c:v>0.412193213205296</c:v>
@@ -40329,7 +40329,7 @@
                   <c:v>0.41072979857115</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.410485896132126</c:v>
+                  <c:v>0.410485896132125</c:v>
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>0.410241993693101</c:v>
@@ -40344,7 +40344,7 @@
                   <c:v>0.409510286376028</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.409266383937004</c:v>
+                  <c:v>0.409266383937003</c:v>
                 </c:pt>
                 <c:pt idx="218">
                   <c:v>0.409022481497979</c:v>
@@ -40359,7 +40359,7 @@
                   <c:v>0.408290774180906</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.408046871741882</c:v>
+                  <c:v>0.408046871741881</c:v>
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>0.407802969302857</c:v>
@@ -40413,7 +40413,7 @@
                   <c:v>0.403900530278467</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.403656627839443</c:v>
+                  <c:v>0.403656627839442</c:v>
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>0.403412725400418</c:v>
@@ -40428,7 +40428,7 @@
                   <c:v>0.402681018083345</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.402437115644321</c:v>
+                  <c:v>0.40243711564432</c:v>
                 </c:pt>
                 <c:pt idx="246">
                   <c:v>0.402193213205296</c:v>
@@ -40443,7 +40443,7 @@
                   <c:v>0.401461505888223</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.401217603449199</c:v>
+                  <c:v>0.401217603449198</c:v>
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>0.400973701010174</c:v>
@@ -40458,7 +40458,7 @@
                   <c:v>0.400241993693101</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.399998091254077</c:v>
+                  <c:v>0.399998091254076</c:v>
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>0.399754188815052</c:v>
@@ -40467,7 +40467,7 @@
                   <c:v>0.399510286376028</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.399266383937004</c:v>
+                  <c:v>0.399266383937003</c:v>
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>0.399022481497979</c:v>
@@ -41382,28 +41382,28 @@
                   <c:v>0.411095652229686</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.410485896132126</c:v>
+                  <c:v>0.410485896132125</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.409876140034565</c:v>
+                  <c:v>0.409876140034564</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.409266383937004</c:v>
+                  <c:v>0.409266383937003</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.408656627839443</c:v>
+                  <c:v>0.408656627839442</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.408046871741882</c:v>
+                  <c:v>0.408046871741881</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.407437115644321</c:v>
+                  <c:v>0.40743711564432</c:v>
                 </c:pt>
                 <c:pt idx="200">
                   <c:v>0.40682735954676</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.406217603449199</c:v>
+                  <c:v>0.406217603449198</c:v>
                 </c:pt>
                 <c:pt idx="202">
                   <c:v>0.405607847351638</c:v>
@@ -41511,28 +41511,28 @@
                   <c:v>0.384876140034564</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.384266383937004</c:v>
+                  <c:v>0.384266383937003</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.383656627839443</c:v>
+                  <c:v>0.383656627839442</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.383046871741882</c:v>
+                  <c:v>0.383046871741881</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.382437115644321</c:v>
+                  <c:v>0.38243711564432</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.38182735954676</c:v>
+                  <c:v>0.381827359546759</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.381217603449199</c:v>
+                  <c:v>0.381217603449198</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.380607847351638</c:v>
+                  <c:v>0.380607847351637</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.379998091254077</c:v>
+                  <c:v>0.379998091254076</c:v>
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>0.379388335156516</c:v>
@@ -41598,11 +41598,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="36990345"/>
-        <c:axId val="68588577"/>
+        <c:axId val="72968247"/>
+        <c:axId val="74874369"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36990345"/>
+        <c:axId val="72968247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41634,14 +41634,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68588577"/>
+        <c:crossAx val="74874369"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68588577"/>
+        <c:axId val="74874369"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -41684,7 +41684,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36990345"/>
+        <c:crossAx val="72968247"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -41759,9 +41759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>83</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>100800</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -41769,8 +41769,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="29271960" y="2223000"/>
-        <a:ext cx="22537800" cy="10793880"/>
+        <a:off x="29301120" y="2223000"/>
+        <a:ext cx="22560120" cy="10793520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -41789,9 +41789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>83</xdr:col>
-      <xdr:colOff>63000</xdr:colOff>
+      <xdr:colOff>62640</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -41799,8 +41799,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="29284560" y="12992040"/>
-        <a:ext cx="22487040" cy="10807200"/>
+        <a:off x="29313720" y="12992040"/>
+        <a:ext cx="22509360" cy="10806840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -41819,9 +41819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -41832,8 +41832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14918040" y="27645840"/>
-          <a:ext cx="304200" cy="304200"/>
+          <a:off x="14932440" y="27645840"/>
+          <a:ext cx="303840" cy="303840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41861,9 +41861,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>621720</xdr:colOff>
+      <xdr:colOff>621360</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -41874,8 +41874,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15235560" y="27645840"/>
-          <a:ext cx="304200" cy="304200"/>
+          <a:off x="15249960" y="27645840"/>
+          <a:ext cx="303840" cy="303840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41903,9 +41903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>266040</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -41916,8 +41916,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15554160" y="27645840"/>
-          <a:ext cx="253800" cy="304200"/>
+          <a:off x="15569280" y="27645840"/>
+          <a:ext cx="253440" cy="303840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41946,11 +41946,11 @@
   </sheetPr>
   <dimension ref="A1:BL274"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO154" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AX182" activeCellId="1" sqref="AU186 AX182"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC238" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP267" activeCellId="0" sqref="AP267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.16"/>
   </cols>
@@ -55650,7 +55650,7 @@
       <c r="W182" s="1"/>
       <c r="Z182" s="4" t="n">
         <f aca="false">K190+$Z$175</f>
-        <v>0.381052153576655</v>
+        <v>0.381174104796167</v>
       </c>
       <c r="AA182" s="4" t="n">
         <f aca="false">L190+$AA$175</f>
@@ -55666,7 +55666,7 @@
       </c>
       <c r="AD182" s="1" t="n">
         <f aca="false">O190+$AD$175</f>
-        <v>0.202226022717858</v>
+        <v>0.202104071498345</v>
       </c>
       <c r="AJ182" s="0" t="n">
         <f aca="false">AJ178+1</f>
@@ -55758,7 +55758,7 @@
       <c r="Y183" s="5"/>
       <c r="Z183" s="4" t="n">
         <f aca="false">K191+$Z$175</f>
-        <v>0.381174104796167</v>
+        <v>0.381418007235191</v>
       </c>
       <c r="AA183" s="4" t="n">
         <f aca="false">L191+$AA$175</f>
@@ -55774,7 +55774,7 @@
       </c>
       <c r="AD183" s="1" t="n">
         <f aca="false">O191+$AD$175</f>
-        <v>0.202226022717858</v>
+        <v>0.201982120278833</v>
       </c>
       <c r="AJ183" s="0" t="n">
         <f aca="false">AJ179+1</f>
@@ -55865,7 +55865,7 @@
       <c r="W184" s="1"/>
       <c r="Z184" s="4" t="n">
         <f aca="false">K192+$Z$175</f>
-        <v>0.381296056015679</v>
+        <v>0.381661909674216</v>
       </c>
       <c r="AA184" s="4" t="n">
         <f aca="false">L192+$AA$175</f>
@@ -55881,7 +55881,7 @@
       </c>
       <c r="AD184" s="1" t="n">
         <f aca="false">O192+$AD$175</f>
-        <v>0.202226022717858</v>
+        <v>0.201860169059321</v>
       </c>
       <c r="AJ184" s="0" t="n">
         <f aca="false">AJ180+1</f>
@@ -55972,7 +55972,7 @@
       <c r="Y185" s="6"/>
       <c r="Z185" s="1" t="n">
         <f aca="false">(K271-K189)/(ROW(K271)-ROW(K189))</f>
-        <v>0.000121951219512195</v>
+        <v>0.00024390243902439</v>
       </c>
       <c r="AA185" s="1" t="n">
         <f aca="false">(L271-L189)/(ROW(L271)-ROW(L189))</f>
@@ -55988,7 +55988,7 @@
       </c>
       <c r="AD185" s="1" t="n">
         <f aca="false">(O271-O189)/(ROW(O271)-ROW(O189))</f>
-        <v>0</v>
+        <v>-0.000121951219512195</v>
       </c>
       <c r="AJ185" s="0" t="n">
         <f aca="false">AJ181+1</f>
@@ -56074,7 +56074,7 @@
       </c>
       <c r="Z186" s="4" t="n">
         <f aca="false">(P271-P189)/(ROW(P271)-ROW(P189))</f>
-        <v>-0.000731707317073171</v>
+        <v>-0.000609756097560975</v>
       </c>
       <c r="AA186" s="4" t="n">
         <f aca="false">(Q271-Q189)/(ROW(Q271)-ROW(Q189))</f>
@@ -56086,11 +56086,11 @@
       </c>
       <c r="AC186" s="4" t="n">
         <f aca="false">(S271-S189)/(ROW(S271)-ROW(S189))</f>
-        <v>0.000182926829268293</v>
+        <v>6.09756097560976E-005</v>
       </c>
       <c r="AD186" s="4" t="n">
         <f aca="false">(T271-T189)/(ROW(T271)-ROW(T189))</f>
-        <v>0.000975609756097561</v>
+        <v>0.00109756097560976</v>
       </c>
       <c r="AE186" s="4" t="n">
         <f aca="false">(U271-U189)/(ROW(U271)-ROW(U189))</f>
@@ -56102,7 +56102,7 @@
       </c>
       <c r="AG186" s="4" t="n">
         <f aca="false">(W271-W189)/(ROW(W271)-ROW(W189))</f>
-        <v>-0.000182926829268293</v>
+        <v>-0.000304878048780488</v>
       </c>
       <c r="AH186" s="4"/>
       <c r="AJ186" s="0" t="n">
@@ -56420,7 +56420,7 @@
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="1" t="n">
         <f aca="false">K190-AP189</f>
-        <v>0.101445687145226</v>
+        <v>0.101567638364738</v>
       </c>
       <c r="E190" s="0" t="n">
         <f aca="false">E186+1</f>
@@ -56428,7 +56428,7 @@
       </c>
       <c r="K190" s="4" t="n">
         <f aca="false">K189+$Z$185</f>
-        <v>0.379188647665226</v>
+        <v>0.379310598884738</v>
       </c>
       <c r="L190" s="4" t="n">
         <f aca="false">L189+$AA$185</f>
@@ -56444,11 +56444,11 @@
       </c>
       <c r="O190" s="4" t="n">
         <f aca="false">O189+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.203190339814774</v>
       </c>
       <c r="P190" s="4" t="n">
         <f aca="false">P189+$Z$186</f>
-        <v>0.378334989128641</v>
+        <v>0.378456940348153</v>
       </c>
       <c r="Q190" s="4" t="n">
         <f aca="false">Q189+$AA$186</f>
@@ -56460,11 +56460,11 @@
       </c>
       <c r="S190" s="4" t="n">
         <f aca="false">S189+$AC$186</f>
-        <v>0.203495217863554</v>
+        <v>0.203373266644042</v>
       </c>
       <c r="T190" s="4" t="n">
         <f aca="false">T189+$AD$186</f>
-        <v>0.380042306201812</v>
+        <v>0.380164257421324</v>
       </c>
       <c r="U190" s="4" t="n">
         <f aca="false">U189+$AE$186</f>
@@ -56476,7 +56476,7 @@
       </c>
       <c r="W190" s="4" t="n">
         <f aca="false">W189+$AG$186</f>
-        <v>0.203129364205018</v>
+        <v>0.203007412985505</v>
       </c>
       <c r="X190" s="4"/>
       <c r="Y190" s="4"/>
@@ -56548,7 +56548,7 @@
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="1" t="n">
         <f aca="false">K191-AP190</f>
-        <v>0.101201784706202</v>
+        <v>0.101445687145226</v>
       </c>
       <c r="E191" s="0" t="n">
         <f aca="false">E187+1</f>
@@ -56556,7 +56556,7 @@
       </c>
       <c r="K191" s="4" t="n">
         <f aca="false">K190+$Z$185</f>
-        <v>0.379310598884739</v>
+        <v>0.379554501323763</v>
       </c>
       <c r="L191" s="4" t="n">
         <f aca="false">L190+$AA$185</f>
@@ -56572,11 +56572,11 @@
       </c>
       <c r="O191" s="4" t="n">
         <f aca="false">O190+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.203068388595262</v>
       </c>
       <c r="P191" s="4" t="n">
         <f aca="false">P190+$Z$186</f>
-        <v>0.377603281811568</v>
+        <v>0.377847184250592</v>
       </c>
       <c r="Q191" s="4" t="n">
         <f aca="false">Q190+$AA$186</f>
@@ -56588,11 +56588,11 @@
       </c>
       <c r="S191" s="4" t="n">
         <f aca="false">S190+$AC$186</f>
-        <v>0.203678144692823</v>
+        <v>0.203434242253798</v>
       </c>
       <c r="T191" s="4" t="n">
         <f aca="false">T190+$AD$186</f>
-        <v>0.381017915957909</v>
+        <v>0.381261818396933</v>
       </c>
       <c r="U191" s="4" t="n">
         <f aca="false">U190+$AE$186</f>
@@ -56604,7 +56604,7 @@
       </c>
       <c r="W191" s="4" t="n">
         <f aca="false">W190+$AG$186</f>
-        <v>0.202946437375749</v>
+        <v>0.202702534936725</v>
       </c>
       <c r="X191" s="4"/>
       <c r="Y191" s="4"/>
@@ -56649,7 +56649,7 @@
       </c>
       <c r="AX191" s="4" t="n">
         <f aca="false">AX190+$BH$186</f>
-        <v>0.418046871741882</v>
+        <v>0.418046871741881</v>
       </c>
       <c r="AY191" s="4" t="n">
         <f aca="false">AY190+$BI$186</f>
@@ -56676,7 +56676,7 @@
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="1" t="n">
         <f aca="false">K192-AP191</f>
-        <v>0.100957882267178</v>
+        <v>0.101323735925714</v>
       </c>
       <c r="E192" s="0" t="n">
         <f aca="false">E188+1</f>
@@ -56684,7 +56684,7 @@
       </c>
       <c r="K192" s="4" t="n">
         <f aca="false">K191+$Z$185</f>
-        <v>0.379432550104251</v>
+        <v>0.379798403762787</v>
       </c>
       <c r="L192" s="4" t="n">
         <f aca="false">L191+$AA$185</f>
@@ -56700,11 +56700,11 @@
       </c>
       <c r="O192" s="4" t="n">
         <f aca="false">O191+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.202946437375749</v>
       </c>
       <c r="P192" s="4" t="n">
         <f aca="false">P191+$Z$186</f>
-        <v>0.376871574494495</v>
+        <v>0.377237428153031</v>
       </c>
       <c r="Q192" s="4" t="n">
         <f aca="false">Q191+$AA$186</f>
@@ -56716,11 +56716,11 @@
       </c>
       <c r="S192" s="4" t="n">
         <f aca="false">S191+$AC$186</f>
-        <v>0.203861071522091</v>
+        <v>0.203495217863554</v>
       </c>
       <c r="T192" s="4" t="n">
         <f aca="false">T191+$AD$186</f>
-        <v>0.381993525714007</v>
+        <v>0.382359379372543</v>
       </c>
       <c r="U192" s="4" t="n">
         <f aca="false">U191+$AE$186</f>
@@ -56732,7 +56732,7 @@
       </c>
       <c r="W192" s="4" t="n">
         <f aca="false">W191+$AG$186</f>
-        <v>0.202763510546481</v>
+        <v>0.202397656887945</v>
       </c>
       <c r="X192" s="4"/>
       <c r="Y192" s="4"/>
@@ -56804,7 +56804,7 @@
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="1" t="n">
         <f aca="false">K193-AP189</f>
-        <v>0.101811540803763</v>
+        <v>0.102299345681812</v>
       </c>
       <c r="E193" s="0" t="n">
         <f aca="false">E189+1</f>
@@ -56812,7 +56812,7 @@
       </c>
       <c r="K193" s="4" t="n">
         <f aca="false">K192+$Z$185</f>
-        <v>0.379554501323763</v>
+        <v>0.380042306201812</v>
       </c>
       <c r="L193" s="4" t="n">
         <f aca="false">L192+$AA$185</f>
@@ -56828,11 +56828,11 @@
       </c>
       <c r="O193" s="4" t="n">
         <f aca="false">O192+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.202824486156237</v>
       </c>
       <c r="P193" s="4" t="n">
         <f aca="false">P192+$Z$186</f>
-        <v>0.376139867177422</v>
+        <v>0.37662767205547</v>
       </c>
       <c r="Q193" s="4" t="n">
         <f aca="false">Q192+$AA$186</f>
@@ -56844,11 +56844,11 @@
       </c>
       <c r="S193" s="4" t="n">
         <f aca="false">S192+$AC$186</f>
-        <v>0.204043998351359</v>
+        <v>0.20355619347331</v>
       </c>
       <c r="T193" s="4" t="n">
         <f aca="false">T192+$AD$186</f>
-        <v>0.382969135470104</v>
+        <v>0.383456940348153</v>
       </c>
       <c r="U193" s="4" t="n">
         <f aca="false">U192+$AE$186</f>
@@ -56860,7 +56860,7 @@
       </c>
       <c r="W193" s="4" t="n">
         <f aca="false">W192+$AG$186</f>
-        <v>0.202580583717213</v>
+        <v>0.202092778839164</v>
       </c>
       <c r="X193" s="4"/>
       <c r="Y193" s="4"/>
@@ -56889,7 +56889,7 @@
       </c>
       <c r="AT193" s="4" t="n">
         <f aca="false">AT192+$BI$185</f>
-        <v>0.41682735954676</v>
+        <v>0.416827359546759</v>
       </c>
       <c r="AU193" s="4" t="n">
         <f aca="false">AU192+$BE$186</f>
@@ -56932,7 +56932,7 @@
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="1" t="n">
         <f aca="false">K194-AP190</f>
-        <v>0.101567638364739</v>
+        <v>0.102177394462299</v>
       </c>
       <c r="E194" s="0" t="n">
         <f aca="false">E190+1</f>
@@ -56940,7 +56940,7 @@
       </c>
       <c r="K194" s="4" t="n">
         <f aca="false">K193+$Z$185</f>
-        <v>0.379676452543275</v>
+        <v>0.380286208640836</v>
       </c>
       <c r="L194" s="4" t="n">
         <f aca="false">L193+$AA$185</f>
@@ -56956,11 +56956,11 @@
       </c>
       <c r="O194" s="4" t="n">
         <f aca="false">O193+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.202702534936725</v>
       </c>
       <c r="P194" s="4" t="n">
         <f aca="false">P193+$Z$186</f>
-        <v>0.375408159860348</v>
+        <v>0.376017915957909</v>
       </c>
       <c r="Q194" s="4" t="n">
         <f aca="false">Q193+$AA$186</f>
@@ -56972,11 +56972,11 @@
       </c>
       <c r="S194" s="4" t="n">
         <f aca="false">S193+$AC$186</f>
-        <v>0.204226925180627</v>
+        <v>0.203617169083066</v>
       </c>
       <c r="T194" s="4" t="n">
         <f aca="false">T193+$AD$186</f>
-        <v>0.383944745226202</v>
+        <v>0.384554501323763</v>
       </c>
       <c r="U194" s="4" t="n">
         <f aca="false">U193+$AE$186</f>
@@ -56988,7 +56988,7 @@
       </c>
       <c r="W194" s="4" t="n">
         <f aca="false">W193+$AG$186</f>
-        <v>0.202397656887945</v>
+        <v>0.201787900790384</v>
       </c>
       <c r="X194" s="4"/>
       <c r="Y194" s="4"/>
@@ -57060,7 +57060,7 @@
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="1" t="n">
         <f aca="false">K191-AP191</f>
-        <v>0.100835931047665</v>
+        <v>0.10107983348669</v>
       </c>
       <c r="E195" s="0" t="n">
         <f aca="false">E191+1</f>
@@ -57068,7 +57068,7 @@
       </c>
       <c r="K195" s="4" t="n">
         <f aca="false">K194+$Z$185</f>
-        <v>0.379798403762787</v>
+        <v>0.38053011107986</v>
       </c>
       <c r="L195" s="4" t="n">
         <f aca="false">L194+$AA$185</f>
@@ -57084,11 +57084,11 @@
       </c>
       <c r="O195" s="4" t="n">
         <f aca="false">O194+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.202580583717213</v>
       </c>
       <c r="P195" s="4" t="n">
         <f aca="false">P194+$Z$186</f>
-        <v>0.374676452543275</v>
+        <v>0.375408159860348</v>
       </c>
       <c r="Q195" s="4" t="n">
         <f aca="false">Q194+$AA$186</f>
@@ -57100,11 +57100,11 @@
       </c>
       <c r="S195" s="4" t="n">
         <f aca="false">S194+$AC$186</f>
-        <v>0.204409852009896</v>
+        <v>0.203678144692823</v>
       </c>
       <c r="T195" s="4" t="n">
         <f aca="false">T194+$AD$186</f>
-        <v>0.3849203549823</v>
+        <v>0.385652062299373</v>
       </c>
       <c r="U195" s="4" t="n">
         <f aca="false">U194+$AE$186</f>
@@ -57116,7 +57116,7 @@
       </c>
       <c r="W195" s="4" t="n">
         <f aca="false">W194+$AG$186</f>
-        <v>0.202214730058676</v>
+        <v>0.201483022741603</v>
       </c>
       <c r="X195" s="4"/>
       <c r="Y195" s="4"/>
@@ -57188,7 +57188,7 @@
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="1" t="n">
         <f aca="false">K192-AP192</f>
-        <v>0.100592028608641</v>
+        <v>0.100957882267177</v>
       </c>
       <c r="E196" s="0" t="n">
         <f aca="false">E192+1</f>
@@ -57196,7 +57196,7 @@
       </c>
       <c r="K196" s="4" t="n">
         <f aca="false">K195+$Z$185</f>
-        <v>0.3799203549823</v>
+        <v>0.380774013518885</v>
       </c>
       <c r="L196" s="4" t="n">
         <f aca="false">L195+$AA$185</f>
@@ -57212,11 +57212,11 @@
       </c>
       <c r="O196" s="4" t="n">
         <f aca="false">O195+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.202458632497701</v>
       </c>
       <c r="P196" s="4" t="n">
         <f aca="false">P195+$Z$186</f>
-        <v>0.373944745226202</v>
+        <v>0.374798403762787</v>
       </c>
       <c r="Q196" s="4" t="n">
         <f aca="false">Q195+$AA$186</f>
@@ -57228,11 +57228,11 @@
       </c>
       <c r="S196" s="4" t="n">
         <f aca="false">S195+$AC$186</f>
-        <v>0.204592778839164</v>
+        <v>0.203739120302579</v>
       </c>
       <c r="T196" s="4" t="n">
         <f aca="false">T195+$AD$186</f>
-        <v>0.385895964738397</v>
+        <v>0.386749623274982</v>
       </c>
       <c r="U196" s="4" t="n">
         <f aca="false">U195+$AE$186</f>
@@ -57244,7 +57244,7 @@
       </c>
       <c r="W196" s="4" t="n">
         <f aca="false">W195+$AG$186</f>
-        <v>0.202031803229408</v>
+        <v>0.201178144692823</v>
       </c>
       <c r="X196" s="4"/>
       <c r="Y196" s="4"/>
@@ -57289,7 +57289,7 @@
       </c>
       <c r="AX196" s="4" t="n">
         <f aca="false">AX195+$BH$186</f>
-        <v>0.418656627839443</v>
+        <v>0.418656627839442</v>
       </c>
       <c r="AY196" s="4" t="n">
         <f aca="false">AY195+$BI$186</f>
@@ -57316,7 +57316,7 @@
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="1" t="n">
         <f aca="false">K193-AP193</f>
-        <v>0.100348126169617</v>
+        <v>0.100835931047666</v>
       </c>
       <c r="E197" s="0" t="n">
         <f aca="false">E193+1</f>
@@ -57324,7 +57324,7 @@
       </c>
       <c r="K197" s="4" t="n">
         <f aca="false">K196+$Z$185</f>
-        <v>0.380042306201812</v>
+        <v>0.381017915957909</v>
       </c>
       <c r="L197" s="4" t="n">
         <f aca="false">L196+$AA$185</f>
@@ -57340,11 +57340,11 @@
       </c>
       <c r="O197" s="4" t="n">
         <f aca="false">O196+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.202336681278188</v>
       </c>
       <c r="P197" s="4" t="n">
         <f aca="false">P196+$Z$186</f>
-        <v>0.373213037909129</v>
+        <v>0.374188647665226</v>
       </c>
       <c r="Q197" s="4" t="n">
         <f aca="false">Q196+$AA$186</f>
@@ -57356,11 +57356,11 @@
       </c>
       <c r="S197" s="4" t="n">
         <f aca="false">S196+$AC$186</f>
-        <v>0.204775705668432</v>
+        <v>0.203800095912335</v>
       </c>
       <c r="T197" s="4" t="n">
         <f aca="false">T196+$AD$186</f>
-        <v>0.386871574494495</v>
+        <v>0.387847184250592</v>
       </c>
       <c r="U197" s="4" t="n">
         <f aca="false">U196+$AE$186</f>
@@ -57372,7 +57372,7 @@
       </c>
       <c r="W197" s="4" t="n">
         <f aca="false">W196+$AG$186</f>
-        <v>0.20184887640014</v>
+        <v>0.200873266644042</v>
       </c>
       <c r="X197" s="4"/>
       <c r="Y197" s="4"/>
@@ -57444,7 +57444,7 @@
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="1" t="n">
         <f aca="false">K194-AP194</f>
-        <v>0.100104223730592</v>
+        <v>0.100713979828153</v>
       </c>
       <c r="E198" s="0" t="n">
         <f aca="false">E194+1</f>
@@ -57452,7 +57452,7 @@
       </c>
       <c r="K198" s="4" t="n">
         <f aca="false">K197+$Z$185</f>
-        <v>0.380164257421324</v>
+        <v>0.381261818396933</v>
       </c>
       <c r="L198" s="4" t="n">
         <f aca="false">L197+$AA$185</f>
@@ -57468,11 +57468,11 @@
       </c>
       <c r="O198" s="4" t="n">
         <f aca="false">O197+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.202214730058676</v>
       </c>
       <c r="P198" s="4" t="n">
         <f aca="false">P197+$Z$186</f>
-        <v>0.372481330592056</v>
+        <v>0.373578891567665</v>
       </c>
       <c r="Q198" s="4" t="n">
         <f aca="false">Q197+$AA$186</f>
@@ -57484,11 +57484,11 @@
       </c>
       <c r="S198" s="4" t="n">
         <f aca="false">S197+$AC$186</f>
-        <v>0.204958632497701</v>
+        <v>0.203861071522091</v>
       </c>
       <c r="T198" s="4" t="n">
         <f aca="false">T197+$AD$186</f>
-        <v>0.387847184250592</v>
+        <v>0.388944745226202</v>
       </c>
       <c r="U198" s="4" t="n">
         <f aca="false">U197+$AE$186</f>
@@ -57500,7 +57500,7 @@
       </c>
       <c r="W198" s="4" t="n">
         <f aca="false">W197+$AG$186</f>
-        <v>0.201665949570871</v>
+        <v>0.200568388595262</v>
       </c>
       <c r="X198" s="4"/>
       <c r="Y198" s="4"/>
@@ -57572,7 +57572,7 @@
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="1" t="n">
         <f aca="false">K195-AP195</f>
-        <v>0.0998603212915679</v>
+        <v>0.100592028608641</v>
       </c>
       <c r="E199" s="0" t="n">
         <f aca="false">E195+1</f>
@@ -57580,7 +57580,7 @@
       </c>
       <c r="K199" s="4" t="n">
         <f aca="false">K198+$Z$185</f>
-        <v>0.380286208640836</v>
+        <v>0.381505720835958</v>
       </c>
       <c r="L199" s="4" t="n">
         <f aca="false">L198+$AA$185</f>
@@ -57596,11 +57596,11 @@
       </c>
       <c r="O199" s="4" t="n">
         <f aca="false">O198+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.202092778839164</v>
       </c>
       <c r="P199" s="4" t="n">
         <f aca="false">P198+$Z$186</f>
-        <v>0.371749623274982</v>
+        <v>0.372969135470104</v>
       </c>
       <c r="Q199" s="4" t="n">
         <f aca="false">Q198+$AA$186</f>
@@ -57612,11 +57612,11 @@
       </c>
       <c r="S199" s="4" t="n">
         <f aca="false">S198+$AC$186</f>
-        <v>0.205141559326969</v>
+        <v>0.203922047131847</v>
       </c>
       <c r="T199" s="4" t="n">
         <f aca="false">T198+$AD$186</f>
-        <v>0.38882279400669</v>
+        <v>0.390042306201812</v>
       </c>
       <c r="U199" s="4" t="n">
         <f aca="false">U198+$AE$186</f>
@@ -57628,7 +57628,7 @@
       </c>
       <c r="W199" s="4" t="n">
         <f aca="false">W198+$AG$186</f>
-        <v>0.201483022741603</v>
+        <v>0.200263510546481</v>
       </c>
       <c r="X199" s="4"/>
       <c r="Y199" s="4"/>
@@ -57700,7 +57700,7 @@
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="1" t="n">
         <f aca="false">K196-AP196</f>
-        <v>0.0996164188525435</v>
+        <v>0.100470077389129</v>
       </c>
       <c r="E200" s="0" t="n">
         <f aca="false">E196+1</f>
@@ -57708,7 +57708,7 @@
       </c>
       <c r="K200" s="4" t="n">
         <f aca="false">K199+$Z$185</f>
-        <v>0.380408159860348</v>
+        <v>0.381749623274982</v>
       </c>
       <c r="L200" s="4" t="n">
         <f aca="false">L199+$AA$185</f>
@@ -57724,11 +57724,11 @@
       </c>
       <c r="O200" s="4" t="n">
         <f aca="false">O199+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.201970827619652</v>
       </c>
       <c r="P200" s="4" t="n">
         <f aca="false">P199+$Z$186</f>
-        <v>0.371017915957909</v>
+        <v>0.372359379372543</v>
       </c>
       <c r="Q200" s="4" t="n">
         <f aca="false">Q199+$AA$186</f>
@@ -57740,11 +57740,11 @@
       </c>
       <c r="S200" s="4" t="n">
         <f aca="false">S199+$AC$186</f>
-        <v>0.205324486156237</v>
+        <v>0.203983022741603</v>
       </c>
       <c r="T200" s="4" t="n">
         <f aca="false">T199+$AD$186</f>
-        <v>0.389798403762787</v>
+        <v>0.391139867177421</v>
       </c>
       <c r="U200" s="4" t="n">
         <f aca="false">U199+$AE$186</f>
@@ -57756,7 +57756,7 @@
       </c>
       <c r="W200" s="4" t="n">
         <f aca="false">W199+$AG$186</f>
-        <v>0.201300095912335</v>
+        <v>0.199958632497701</v>
       </c>
       <c r="X200" s="4"/>
       <c r="Y200" s="4"/>
@@ -57828,7 +57828,7 @@
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="1" t="n">
         <f aca="false">K197-AP197</f>
-        <v>0.0993725164135191</v>
+        <v>0.100348126169616</v>
       </c>
       <c r="E201" s="0" t="n">
         <f aca="false">E197+1</f>
@@ -57836,7 +57836,7 @@
       </c>
       <c r="K201" s="4" t="n">
         <f aca="false">K200+$Z$185</f>
-        <v>0.380530111079861</v>
+        <v>0.381993525714007</v>
       </c>
       <c r="L201" s="4" t="n">
         <f aca="false">L200+$AA$185</f>
@@ -57852,11 +57852,11 @@
       </c>
       <c r="O201" s="4" t="n">
         <f aca="false">O200+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.20184887640014</v>
       </c>
       <c r="P201" s="4" t="n">
         <f aca="false">P200+$Z$186</f>
-        <v>0.370286208640836</v>
+        <v>0.371749623274982</v>
       </c>
       <c r="Q201" s="4" t="n">
         <f aca="false">Q200+$AA$186</f>
@@ -57868,11 +57868,11 @@
       </c>
       <c r="S201" s="4" t="n">
         <f aca="false">S200+$AC$186</f>
-        <v>0.205507412985506</v>
+        <v>0.204043998351359</v>
       </c>
       <c r="T201" s="4" t="n">
         <f aca="false">T200+$AD$186</f>
-        <v>0.390774013518885</v>
+        <v>0.392237428153031</v>
       </c>
       <c r="U201" s="4" t="n">
         <f aca="false">U200+$AE$186</f>
@@ -57884,7 +57884,7 @@
       </c>
       <c r="W201" s="4" t="n">
         <f aca="false">W200+$AG$186</f>
-        <v>0.201117169083067</v>
+        <v>0.19965375444892</v>
       </c>
       <c r="X201" s="4"/>
       <c r="Y201" s="4"/>
@@ -57913,7 +57913,7 @@
       </c>
       <c r="AT201" s="4" t="n">
         <f aca="false">AT200+$BI$185</f>
-        <v>0.414876140034565</v>
+        <v>0.414876140034564</v>
       </c>
       <c r="AU201" s="4" t="n">
         <f aca="false">AU200+$BE$186</f>
@@ -57929,7 +57929,7 @@
       </c>
       <c r="AX201" s="4" t="n">
         <f aca="false">AX200+$BH$186</f>
-        <v>0.419266383937004</v>
+        <v>0.419266383937003</v>
       </c>
       <c r="AY201" s="4" t="n">
         <f aca="false">AY200+$BI$186</f>
@@ -57945,7 +57945,7 @@
       </c>
       <c r="BB201" s="4" t="n">
         <f aca="false">BB200+$BL$186</f>
-        <v>0.410485896132126</v>
+        <v>0.410485896132125</v>
       </c>
       <c r="BC201" s="4"/>
       <c r="BD201" s="4"/>
@@ -57956,7 +57956,7 @@
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="1" t="n">
         <f aca="false">K198-AP198</f>
-        <v>0.0991286139744947</v>
+        <v>0.100226174950104</v>
       </c>
       <c r="E202" s="0" t="n">
         <f aca="false">E198+1</f>
@@ -57964,7 +57964,7 @@
       </c>
       <c r="K202" s="4" t="n">
         <f aca="false">K201+$Z$185</f>
-        <v>0.380652062299373</v>
+        <v>0.382237428153031</v>
       </c>
       <c r="L202" s="4" t="n">
         <f aca="false">L201+$AA$185</f>
@@ -57980,11 +57980,11 @@
       </c>
       <c r="O202" s="4" t="n">
         <f aca="false">O201+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.201726925180627</v>
       </c>
       <c r="P202" s="4" t="n">
         <f aca="false">P201+$Z$186</f>
-        <v>0.369554501323763</v>
+        <v>0.371139867177421</v>
       </c>
       <c r="Q202" s="4" t="n">
         <f aca="false">Q201+$AA$186</f>
@@ -57996,11 +57996,11 @@
       </c>
       <c r="S202" s="4" t="n">
         <f aca="false">S201+$AC$186</f>
-        <v>0.205690339814774</v>
+        <v>0.204104973961115</v>
       </c>
       <c r="T202" s="4" t="n">
         <f aca="false">T201+$AD$186</f>
-        <v>0.391749623274982</v>
+        <v>0.393334989128641</v>
       </c>
       <c r="U202" s="4" t="n">
         <f aca="false">U201+$AE$186</f>
@@ -58012,7 +58012,7 @@
       </c>
       <c r="W202" s="4" t="n">
         <f aca="false">W201+$AG$186</f>
-        <v>0.200934242253798</v>
+        <v>0.19934887640014</v>
       </c>
       <c r="X202" s="4"/>
       <c r="Y202" s="4"/>
@@ -58073,7 +58073,7 @@
       </c>
       <c r="BB202" s="4" t="n">
         <f aca="false">BB201+$BL$186</f>
-        <v>0.409876140034565</v>
+        <v>0.409876140034564</v>
       </c>
       <c r="BC202" s="4"/>
       <c r="BD202" s="4"/>
@@ -58084,7 +58084,7 @@
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="1" t="n">
         <f aca="false">K199-AP199</f>
-        <v>0.0988847115354704</v>
+        <v>0.100104223730592</v>
       </c>
       <c r="E203" s="0" t="n">
         <f aca="false">E199+1</f>
@@ -58092,7 +58092,7 @@
       </c>
       <c r="K203" s="4" t="n">
         <f aca="false">K202+$Z$185</f>
-        <v>0.380774013518885</v>
+        <v>0.382481330592055</v>
       </c>
       <c r="L203" s="4" t="n">
         <f aca="false">L202+$AA$185</f>
@@ -58108,11 +58108,11 @@
       </c>
       <c r="O203" s="4" t="n">
         <f aca="false">O202+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.201604973961115</v>
       </c>
       <c r="P203" s="4" t="n">
         <f aca="false">P202+$Z$186</f>
-        <v>0.36882279400669</v>
+        <v>0.37053011107986</v>
       </c>
       <c r="Q203" s="4" t="n">
         <f aca="false">Q202+$AA$186</f>
@@ -58124,11 +58124,11 @@
       </c>
       <c r="S203" s="4" t="n">
         <f aca="false">S202+$AC$186</f>
-        <v>0.205873266644042</v>
+        <v>0.204165949570871</v>
       </c>
       <c r="T203" s="4" t="n">
         <f aca="false">T202+$AD$186</f>
-        <v>0.39272523303108</v>
+        <v>0.394432550104251</v>
       </c>
       <c r="U203" s="4" t="n">
         <f aca="false">U202+$AE$186</f>
@@ -58140,7 +58140,7 @@
       </c>
       <c r="W203" s="4" t="n">
         <f aca="false">W202+$AG$186</f>
-        <v>0.20075131542453</v>
+        <v>0.199043998351359</v>
       </c>
       <c r="X203" s="4"/>
       <c r="Y203" s="4"/>
@@ -58201,7 +58201,7 @@
       </c>
       <c r="BB203" s="4" t="n">
         <f aca="false">BB202+$BL$186</f>
-        <v>0.409266383937004</v>
+        <v>0.409266383937003</v>
       </c>
       <c r="BC203" s="4"/>
       <c r="BD203" s="4"/>
@@ -58212,7 +58212,7 @@
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="1" t="n">
         <f aca="false">K200-AP200</f>
-        <v>0.098640809096446</v>
+        <v>0.0999822725110803</v>
       </c>
       <c r="E204" s="0" t="n">
         <f aca="false">E200+1</f>
@@ -58220,7 +58220,7 @@
       </c>
       <c r="K204" s="4" t="n">
         <f aca="false">K203+$Z$185</f>
-        <v>0.380895964738397</v>
+        <v>0.38272523303108</v>
       </c>
       <c r="L204" s="4" t="n">
         <f aca="false">L203+$AA$185</f>
@@ -58236,11 +58236,11 @@
       </c>
       <c r="O204" s="4" t="n">
         <f aca="false">O203+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.201483022741603</v>
       </c>
       <c r="P204" s="4" t="n">
         <f aca="false">P203+$Z$186</f>
-        <v>0.368091086689617</v>
+        <v>0.369920354982299</v>
       </c>
       <c r="Q204" s="4" t="n">
         <f aca="false">Q203+$AA$186</f>
@@ -58252,11 +58252,11 @@
       </c>
       <c r="S204" s="4" t="n">
         <f aca="false">S203+$AC$186</f>
-        <v>0.20605619347331</v>
+        <v>0.204226925180627</v>
       </c>
       <c r="T204" s="4" t="n">
         <f aca="false">T203+$AD$186</f>
-        <v>0.393700842787178</v>
+        <v>0.39553011107986</v>
       </c>
       <c r="U204" s="4" t="n">
         <f aca="false">U203+$AE$186</f>
@@ -58268,7 +58268,7 @@
       </c>
       <c r="W204" s="4" t="n">
         <f aca="false">W203+$AG$186</f>
-        <v>0.200568388595262</v>
+        <v>0.198739120302579</v>
       </c>
       <c r="X204" s="4"/>
       <c r="Y204" s="4"/>
@@ -58329,7 +58329,7 @@
       </c>
       <c r="BB204" s="4" t="n">
         <f aca="false">BB203+$BL$186</f>
-        <v>0.408656627839443</v>
+        <v>0.408656627839442</v>
       </c>
       <c r="BC204" s="4"/>
       <c r="BD204" s="4"/>
@@ -58340,7 +58340,7 @@
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="1" t="n">
         <f aca="false">K201-AP201</f>
-        <v>0.0983969066574216</v>
+        <v>0.0998603212915677</v>
       </c>
       <c r="E205" s="0" t="n">
         <f aca="false">E201+1</f>
@@ -58348,7 +58348,7 @@
       </c>
       <c r="K205" s="4" t="n">
         <f aca="false">K204+$Z$185</f>
-        <v>0.381017915957909</v>
+        <v>0.382969135470104</v>
       </c>
       <c r="L205" s="4" t="n">
         <f aca="false">L204+$AA$185</f>
@@ -58364,11 +58364,11 @@
       </c>
       <c r="O205" s="4" t="n">
         <f aca="false">O204+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.201361071522091</v>
       </c>
       <c r="P205" s="4" t="n">
         <f aca="false">P204+$Z$186</f>
-        <v>0.367359379372543</v>
+        <v>0.369310598884738</v>
       </c>
       <c r="Q205" s="4" t="n">
         <f aca="false">Q204+$AA$186</f>
@@ -58380,11 +58380,11 @@
       </c>
       <c r="S205" s="4" t="n">
         <f aca="false">S204+$AC$186</f>
-        <v>0.206239120302579</v>
+        <v>0.204287900790384</v>
       </c>
       <c r="T205" s="4" t="n">
         <f aca="false">T204+$AD$186</f>
-        <v>0.394676452543275</v>
+        <v>0.39662767205547</v>
       </c>
       <c r="U205" s="4" t="n">
         <f aca="false">U204+$AE$186</f>
@@ -58396,7 +58396,7 @@
       </c>
       <c r="W205" s="4" t="n">
         <f aca="false">W204+$AG$186</f>
-        <v>0.200385461765993</v>
+        <v>0.198434242253798</v>
       </c>
       <c r="X205" s="4"/>
       <c r="Y205" s="4"/>
@@ -58457,7 +58457,7 @@
       </c>
       <c r="BB205" s="4" t="n">
         <f aca="false">BB204+$BL$186</f>
-        <v>0.408046871741882</v>
+        <v>0.408046871741881</v>
       </c>
       <c r="BC205" s="4"/>
       <c r="BD205" s="4"/>
@@ -58468,7 +58468,7 @@
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="1" t="n">
         <f aca="false">K202-AP202</f>
-        <v>0.0981530042183972</v>
+        <v>0.0997383700720551</v>
       </c>
       <c r="E206" s="0" t="n">
         <f aca="false">E202+1</f>
@@ -58476,7 +58476,7 @@
       </c>
       <c r="K206" s="4" t="n">
         <f aca="false">K205+$Z$185</f>
-        <v>0.381139867177422</v>
+        <v>0.383213037909129</v>
       </c>
       <c r="L206" s="4" t="n">
         <f aca="false">L205+$AA$185</f>
@@ -58492,11 +58492,11 @@
       </c>
       <c r="O206" s="4" t="n">
         <f aca="false">O205+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.201239120302579</v>
       </c>
       <c r="P206" s="4" t="n">
         <f aca="false">P205+$Z$186</f>
-        <v>0.36662767205547</v>
+        <v>0.368700842787177</v>
       </c>
       <c r="Q206" s="4" t="n">
         <f aca="false">Q205+$AA$186</f>
@@ -58508,11 +58508,11 @@
       </c>
       <c r="S206" s="4" t="n">
         <f aca="false">S205+$AC$186</f>
-        <v>0.206422047131847</v>
+        <v>0.20434887640014</v>
       </c>
       <c r="T206" s="4" t="n">
         <f aca="false">T205+$AD$186</f>
-        <v>0.395652062299373</v>
+        <v>0.39772523303108</v>
       </c>
       <c r="U206" s="4" t="n">
         <f aca="false">U205+$AE$186</f>
@@ -58524,7 +58524,7 @@
       </c>
       <c r="W206" s="4" t="n">
         <f aca="false">W205+$AG$186</f>
-        <v>0.200202534936725</v>
+        <v>0.198129364205018</v>
       </c>
       <c r="X206" s="4"/>
       <c r="Y206" s="4"/>
@@ -58553,7 +58553,7 @@
       </c>
       <c r="AT206" s="4" t="n">
         <f aca="false">AT205+$BI$185</f>
-        <v>0.413656627839443</v>
+        <v>0.413656627839442</v>
       </c>
       <c r="AU206" s="4" t="n">
         <f aca="false">AU205+$BE$186</f>
@@ -58569,7 +58569,7 @@
       </c>
       <c r="AX206" s="4" t="n">
         <f aca="false">AX205+$BH$186</f>
-        <v>0.419876140034565</v>
+        <v>0.419876140034564</v>
       </c>
       <c r="AY206" s="4" t="n">
         <f aca="false">AY205+$BI$186</f>
@@ -58585,7 +58585,7 @@
       </c>
       <c r="BB206" s="4" t="n">
         <f aca="false">BB205+$BL$186</f>
-        <v>0.407437115644321</v>
+        <v>0.40743711564432</v>
       </c>
       <c r="BC206" s="4"/>
       <c r="BD206" s="4"/>
@@ -58596,7 +58596,7 @@
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="1" t="n">
         <f aca="false">K203-AP203</f>
-        <v>0.0979091017793728</v>
+        <v>0.0996164188525435</v>
       </c>
       <c r="E207" s="0" t="n">
         <f aca="false">E203+1</f>
@@ -58604,7 +58604,7 @@
       </c>
       <c r="K207" s="4" t="n">
         <f aca="false">K206+$Z$185</f>
-        <v>0.381261818396934</v>
+        <v>0.383456940348153</v>
       </c>
       <c r="L207" s="4" t="n">
         <f aca="false">L206+$AA$185</f>
@@ -58620,11 +58620,11 @@
       </c>
       <c r="O207" s="4" t="n">
         <f aca="false">O206+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.201117169083067</v>
       </c>
       <c r="P207" s="4" t="n">
         <f aca="false">P206+$Z$186</f>
-        <v>0.365895964738397</v>
+        <v>0.368091086689616</v>
       </c>
       <c r="Q207" s="4" t="n">
         <f aca="false">Q206+$AA$186</f>
@@ -58636,11 +58636,11 @@
       </c>
       <c r="S207" s="4" t="n">
         <f aca="false">S206+$AC$186</f>
-        <v>0.206604973961115</v>
+        <v>0.204409852009896</v>
       </c>
       <c r="T207" s="4" t="n">
         <f aca="false">T206+$AD$186</f>
-        <v>0.39662767205547</v>
+        <v>0.39882279400669</v>
       </c>
       <c r="U207" s="4" t="n">
         <f aca="false">U206+$AE$186</f>
@@ -58652,7 +58652,7 @@
       </c>
       <c r="W207" s="4" t="n">
         <f aca="false">W206+$AG$186</f>
-        <v>0.200019608107457</v>
+        <v>0.197824486156237</v>
       </c>
       <c r="X207" s="4"/>
       <c r="Y207" s="4"/>
@@ -58724,7 +58724,7 @@
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="1" t="n">
         <f aca="false">K204-AP204</f>
-        <v>0.0976651993403484</v>
+        <v>0.0994944676330308</v>
       </c>
       <c r="E208" s="0" t="n">
         <f aca="false">E204+1</f>
@@ -58732,7 +58732,7 @@
       </c>
       <c r="K208" s="4" t="n">
         <f aca="false">K207+$Z$185</f>
-        <v>0.381383769616446</v>
+        <v>0.383700842787177</v>
       </c>
       <c r="L208" s="4" t="n">
         <f aca="false">L207+$AA$185</f>
@@ -58748,11 +58748,11 @@
       </c>
       <c r="O208" s="4" t="n">
         <f aca="false">O207+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.200995217863554</v>
       </c>
       <c r="P208" s="4" t="n">
         <f aca="false">P207+$Z$186</f>
-        <v>0.365164257421324</v>
+        <v>0.367481330592055</v>
       </c>
       <c r="Q208" s="4" t="n">
         <f aca="false">Q207+$AA$186</f>
@@ -58764,11 +58764,11 @@
       </c>
       <c r="S208" s="4" t="n">
         <f aca="false">S207+$AC$186</f>
-        <v>0.206787900790384</v>
+        <v>0.204470827619652</v>
       </c>
       <c r="T208" s="4" t="n">
         <f aca="false">T207+$AD$186</f>
-        <v>0.397603281811568</v>
+        <v>0.399920354982299</v>
       </c>
       <c r="U208" s="4" t="n">
         <f aca="false">U207+$AE$186</f>
@@ -58780,7 +58780,7 @@
       </c>
       <c r="W208" s="4" t="n">
         <f aca="false">W207+$AG$186</f>
-        <v>0.199836681278188</v>
+        <v>0.197519608107457</v>
       </c>
       <c r="X208" s="4"/>
       <c r="Y208" s="4"/>
@@ -58841,7 +58841,7 @@
       </c>
       <c r="BB208" s="4" t="n">
         <f aca="false">BB207+$BL$186</f>
-        <v>0.406217603449199</v>
+        <v>0.406217603449198</v>
       </c>
       <c r="BC208" s="4"/>
       <c r="BD208" s="4"/>
@@ -58852,7 +58852,7 @@
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="1" t="n">
         <f aca="false">K205-AP205</f>
-        <v>0.097421296901324</v>
+        <v>0.0993725164135192</v>
       </c>
       <c r="E209" s="0" t="n">
         <f aca="false">E205+1</f>
@@ -58860,7 +58860,7 @@
       </c>
       <c r="K209" s="4" t="n">
         <f aca="false">K208+$Z$185</f>
-        <v>0.381505720835958</v>
+        <v>0.383944745226202</v>
       </c>
       <c r="L209" s="4" t="n">
         <f aca="false">L208+$AA$185</f>
@@ -58876,11 +58876,11 @@
       </c>
       <c r="O209" s="4" t="n">
         <f aca="false">O208+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.200873266644042</v>
       </c>
       <c r="P209" s="4" t="n">
         <f aca="false">P208+$Z$186</f>
-        <v>0.364432550104251</v>
+        <v>0.366871574494494</v>
       </c>
       <c r="Q209" s="4" t="n">
         <f aca="false">Q208+$AA$186</f>
@@ -58892,11 +58892,11 @@
       </c>
       <c r="S209" s="4" t="n">
         <f aca="false">S208+$AC$186</f>
-        <v>0.206970827619652</v>
+        <v>0.204531803229408</v>
       </c>
       <c r="T209" s="4" t="n">
         <f aca="false">T208+$AD$186</f>
-        <v>0.398578891567665</v>
+        <v>0.401017915957909</v>
       </c>
       <c r="U209" s="4" t="n">
         <f aca="false">U208+$AE$186</f>
@@ -58908,7 +58908,7 @@
       </c>
       <c r="W209" s="4" t="n">
         <f aca="false">W208+$AG$186</f>
-        <v>0.19965375444892</v>
+        <v>0.197214730058676</v>
       </c>
       <c r="X209" s="4"/>
       <c r="Y209" s="4"/>
@@ -58980,7 +58980,7 @@
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="1" t="n">
         <f aca="false">K206-AP206</f>
-        <v>0.0971773944622996</v>
+        <v>0.0992505651940066</v>
       </c>
       <c r="E210" s="0" t="n">
         <f aca="false">E206+1</f>
@@ -58988,7 +58988,7 @@
       </c>
       <c r="K210" s="4" t="n">
         <f aca="false">K209+$Z$185</f>
-        <v>0.38162767205547</v>
+        <v>0.384188647665226</v>
       </c>
       <c r="L210" s="4" t="n">
         <f aca="false">L209+$AA$185</f>
@@ -59004,11 +59004,11 @@
       </c>
       <c r="O210" s="4" t="n">
         <f aca="false">O209+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.20075131542453</v>
       </c>
       <c r="P210" s="4" t="n">
         <f aca="false">P209+$Z$186</f>
-        <v>0.363700842787178</v>
+        <v>0.366261818396933</v>
       </c>
       <c r="Q210" s="4" t="n">
         <f aca="false">Q209+$AA$186</f>
@@ -59020,11 +59020,11 @@
       </c>
       <c r="S210" s="4" t="n">
         <f aca="false">S209+$AC$186</f>
-        <v>0.20715375444892</v>
+        <v>0.204592778839164</v>
       </c>
       <c r="T210" s="4" t="n">
         <f aca="false">T209+$AD$186</f>
-        <v>0.399554501323763</v>
+        <v>0.402115476933519</v>
       </c>
       <c r="U210" s="4" t="n">
         <f aca="false">U209+$AE$186</f>
@@ -59036,7 +59036,7 @@
       </c>
       <c r="W210" s="4" t="n">
         <f aca="false">W209+$AG$186</f>
-        <v>0.199470827619652</v>
+        <v>0.196909852009896</v>
       </c>
       <c r="X210" s="4"/>
       <c r="Y210" s="4"/>
@@ -59108,7 +59108,7 @@
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="1" t="n">
         <f aca="false">K207-AP207</f>
-        <v>0.0969334920232752</v>
+        <v>0.099128613974495</v>
       </c>
       <c r="E211" s="0" t="n">
         <f aca="false">E207+1</f>
@@ -59116,7 +59116,7 @@
       </c>
       <c r="K211" s="4" t="n">
         <f aca="false">K210+$Z$185</f>
-        <v>0.381749623274982</v>
+        <v>0.384432550104251</v>
       </c>
       <c r="L211" s="4" t="n">
         <f aca="false">L210+$AA$185</f>
@@ -59132,11 +59132,11 @@
       </c>
       <c r="O211" s="4" t="n">
         <f aca="false">O210+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.200629364205018</v>
       </c>
       <c r="P211" s="4" t="n">
         <f aca="false">P210+$Z$186</f>
-        <v>0.362969135470104</v>
+        <v>0.365652062299372</v>
       </c>
       <c r="Q211" s="4" t="n">
         <f aca="false">Q210+$AA$186</f>
@@ -59148,11 +59148,11 @@
       </c>
       <c r="S211" s="4" t="n">
         <f aca="false">S210+$AC$186</f>
-        <v>0.207336681278188</v>
+        <v>0.20465375444892</v>
       </c>
       <c r="T211" s="4" t="n">
         <f aca="false">T210+$AD$186</f>
-        <v>0.400530111079861</v>
+        <v>0.403213037909129</v>
       </c>
       <c r="U211" s="4" t="n">
         <f aca="false">U210+$AE$186</f>
@@ -59164,7 +59164,7 @@
       </c>
       <c r="W211" s="4" t="n">
         <f aca="false">W210+$AG$186</f>
-        <v>0.199287900790384</v>
+        <v>0.196604973961115</v>
       </c>
       <c r="X211" s="4"/>
       <c r="Y211" s="4"/>
@@ -59193,7 +59193,7 @@
       </c>
       <c r="AT211" s="4" t="n">
         <f aca="false">AT210+$BI$185</f>
-        <v>0.412437115644321</v>
+        <v>0.41243711564432</v>
       </c>
       <c r="AU211" s="4" t="n">
         <f aca="false">AU210+$BE$186</f>
@@ -59236,7 +59236,7 @@
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="1" t="n">
         <f aca="false">K208-AP208</f>
-        <v>0.0966895895842508</v>
+        <v>0.0990066627549824</v>
       </c>
       <c r="E212" s="0" t="n">
         <f aca="false">E208+1</f>
@@ -59244,7 +59244,7 @@
       </c>
       <c r="K212" s="4" t="n">
         <f aca="false">K211+$Z$185</f>
-        <v>0.381871574494495</v>
+        <v>0.384676452543275</v>
       </c>
       <c r="L212" s="4" t="n">
         <f aca="false">L211+$AA$185</f>
@@ -59260,11 +59260,11 @@
       </c>
       <c r="O212" s="4" t="n">
         <f aca="false">O211+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.200507412985506</v>
       </c>
       <c r="P212" s="4" t="n">
         <f aca="false">P211+$Z$186</f>
-        <v>0.362237428153031</v>
+        <v>0.365042306201812</v>
       </c>
       <c r="Q212" s="4" t="n">
         <f aca="false">Q211+$AA$186</f>
@@ -59276,11 +59276,11 @@
       </c>
       <c r="S212" s="4" t="n">
         <f aca="false">S211+$AC$186</f>
-        <v>0.207519608107457</v>
+        <v>0.204714730058676</v>
       </c>
       <c r="T212" s="4" t="n">
         <f aca="false">T211+$AD$186</f>
-        <v>0.401505720835958</v>
+        <v>0.404310598884738</v>
       </c>
       <c r="U212" s="4" t="n">
         <f aca="false">U211+$AE$186</f>
@@ -59292,7 +59292,7 @@
       </c>
       <c r="W212" s="4" t="n">
         <f aca="false">W211+$AG$186</f>
-        <v>0.199104973961115</v>
+        <v>0.196300095912335</v>
       </c>
       <c r="X212" s="4"/>
       <c r="Y212" s="4"/>
@@ -59364,7 +59364,7 @@
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="1" t="n">
         <f aca="false">K209-AP209</f>
-        <v>0.0964456871452265</v>
+        <v>0.0988847115354698</v>
       </c>
       <c r="E213" s="0" t="n">
         <f aca="false">E209+1</f>
@@ -59372,7 +59372,7 @@
       </c>
       <c r="K213" s="4" t="n">
         <f aca="false">K212+$Z$185</f>
-        <v>0.381993525714007</v>
+        <v>0.384920354982299</v>
       </c>
       <c r="L213" s="4" t="n">
         <f aca="false">L212+$AA$185</f>
@@ -59388,11 +59388,11 @@
       </c>
       <c r="O213" s="4" t="n">
         <f aca="false">O212+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.200385461765993</v>
       </c>
       <c r="P213" s="4" t="n">
         <f aca="false">P212+$Z$186</f>
-        <v>0.361505720835958</v>
+        <v>0.364432550104251</v>
       </c>
       <c r="Q213" s="4" t="n">
         <f aca="false">Q212+$AA$186</f>
@@ -59404,11 +59404,11 @@
       </c>
       <c r="S213" s="4" t="n">
         <f aca="false">S212+$AC$186</f>
-        <v>0.207702534936725</v>
+        <v>0.204775705668432</v>
       </c>
       <c r="T213" s="4" t="n">
         <f aca="false">T212+$AD$186</f>
-        <v>0.402481330592056</v>
+        <v>0.405408159860348</v>
       </c>
       <c r="U213" s="4" t="n">
         <f aca="false">U212+$AE$186</f>
@@ -59420,7 +59420,7 @@
       </c>
       <c r="W213" s="4" t="n">
         <f aca="false">W212+$AG$186</f>
-        <v>0.198922047131847</v>
+        <v>0.195995217863554</v>
       </c>
       <c r="X213" s="4"/>
       <c r="Y213" s="4"/>
@@ -59492,7 +59492,7 @@
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="1" t="n">
         <f aca="false">K210-AP210</f>
-        <v>0.0962017847062021</v>
+        <v>0.0987627603159582</v>
       </c>
       <c r="E214" s="0" t="n">
         <f aca="false">E210+1</f>
@@ -59500,7 +59500,7 @@
       </c>
       <c r="K214" s="4" t="n">
         <f aca="false">K213+$Z$185</f>
-        <v>0.382115476933519</v>
+        <v>0.385164257421324</v>
       </c>
       <c r="L214" s="4" t="n">
         <f aca="false">L213+$AA$185</f>
@@ -59516,11 +59516,11 @@
       </c>
       <c r="O214" s="4" t="n">
         <f aca="false">O213+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.200263510546481</v>
       </c>
       <c r="P214" s="4" t="n">
         <f aca="false">P213+$Z$186</f>
-        <v>0.360774013518885</v>
+        <v>0.36382279400669</v>
       </c>
       <c r="Q214" s="4" t="n">
         <f aca="false">Q213+$AA$186</f>
@@ -59532,11 +59532,11 @@
       </c>
       <c r="S214" s="4" t="n">
         <f aca="false">S213+$AC$186</f>
-        <v>0.207885461765993</v>
+        <v>0.204836681278188</v>
       </c>
       <c r="T214" s="4" t="n">
         <f aca="false">T213+$AD$186</f>
-        <v>0.403456940348153</v>
+        <v>0.406505720835958</v>
       </c>
       <c r="U214" s="4" t="n">
         <f aca="false">U213+$AE$186</f>
@@ -59548,7 +59548,7 @@
       </c>
       <c r="W214" s="4" t="n">
         <f aca="false">W213+$AG$186</f>
-        <v>0.198739120302579</v>
+        <v>0.195690339814774</v>
       </c>
       <c r="X214" s="4"/>
       <c r="Y214" s="4"/>
@@ -59620,7 +59620,7 @@
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="1" t="n">
         <f aca="false">K211-AP211</f>
-        <v>0.0959578822671777</v>
+        <v>0.0986408090964456</v>
       </c>
       <c r="E215" s="0" t="n">
         <f aca="false">E211+1</f>
@@ -59628,7 +59628,7 @@
       </c>
       <c r="K215" s="4" t="n">
         <f aca="false">K214+$Z$185</f>
-        <v>0.382237428153031</v>
+        <v>0.385408159860348</v>
       </c>
       <c r="L215" s="4" t="n">
         <f aca="false">L214+$AA$185</f>
@@ -59644,11 +59644,11 @@
       </c>
       <c r="O215" s="4" t="n">
         <f aca="false">O214+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.200141559326969</v>
       </c>
       <c r="P215" s="4" t="n">
         <f aca="false">P214+$Z$186</f>
-        <v>0.360042306201812</v>
+        <v>0.363213037909129</v>
       </c>
       <c r="Q215" s="4" t="n">
         <f aca="false">Q214+$AA$186</f>
@@ -59660,11 +59660,11 @@
       </c>
       <c r="S215" s="4" t="n">
         <f aca="false">S214+$AC$186</f>
-        <v>0.208068388595262</v>
+        <v>0.204897656887945</v>
       </c>
       <c r="T215" s="4" t="n">
         <f aca="false">T214+$AD$186</f>
-        <v>0.404432550104251</v>
+        <v>0.407603281811568</v>
       </c>
       <c r="U215" s="4" t="n">
         <f aca="false">U214+$AE$186</f>
@@ -59676,7 +59676,7 @@
       </c>
       <c r="W215" s="4" t="n">
         <f aca="false">W214+$AG$186</f>
-        <v>0.19855619347331</v>
+        <v>0.195385461765993</v>
       </c>
       <c r="X215" s="4"/>
       <c r="Y215" s="4"/>
@@ -59748,7 +59748,7 @@
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="1" t="n">
         <f aca="false">K212-AP212</f>
-        <v>0.0957139798281533</v>
+        <v>0.098518857876934</v>
       </c>
       <c r="E216" s="0" t="n">
         <f aca="false">E212+1</f>
@@ -59756,7 +59756,7 @@
       </c>
       <c r="K216" s="4" t="n">
         <f aca="false">K215+$Z$185</f>
-        <v>0.382359379372543</v>
+        <v>0.385652062299373</v>
       </c>
       <c r="L216" s="4" t="n">
         <f aca="false">L215+$AA$185</f>
@@ -59772,11 +59772,11 @@
       </c>
       <c r="O216" s="4" t="n">
         <f aca="false">O215+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.200019608107457</v>
       </c>
       <c r="P216" s="4" t="n">
         <f aca="false">P215+$Z$186</f>
-        <v>0.359310598884739</v>
+        <v>0.362603281811568</v>
       </c>
       <c r="Q216" s="4" t="n">
         <f aca="false">Q215+$AA$186</f>
@@ -59788,11 +59788,11 @@
       </c>
       <c r="S216" s="4" t="n">
         <f aca="false">S215+$AC$186</f>
-        <v>0.20825131542453</v>
+        <v>0.204958632497701</v>
       </c>
       <c r="T216" s="4" t="n">
         <f aca="false">T215+$AD$186</f>
-        <v>0.405408159860348</v>
+        <v>0.408700842787177</v>
       </c>
       <c r="U216" s="4" t="n">
         <f aca="false">U215+$AE$186</f>
@@ -59804,7 +59804,7 @@
       </c>
       <c r="W216" s="4" t="n">
         <f aca="false">W215+$AG$186</f>
-        <v>0.198373266644042</v>
+        <v>0.195080583717213</v>
       </c>
       <c r="X216" s="4"/>
       <c r="Y216" s="4"/>
@@ -59849,7 +59849,7 @@
       </c>
       <c r="AX216" s="4" t="n">
         <f aca="false">AX215+$BH$186</f>
-        <v>0.421095652229687</v>
+        <v>0.421095652229686</v>
       </c>
       <c r="AY216" s="4" t="n">
         <f aca="false">AY215+$BI$186</f>
@@ -59876,7 +59876,7 @@
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="1" t="n">
         <f aca="false">K213-AP213</f>
-        <v>0.0954700773891289</v>
+        <v>0.0983969066574213</v>
       </c>
       <c r="E217" s="0" t="n">
         <f aca="false">E213+1</f>
@@ -59884,7 +59884,7 @@
       </c>
       <c r="K217" s="4" t="n">
         <f aca="false">K216+$Z$185</f>
-        <v>0.382481330592056</v>
+        <v>0.385895964738397</v>
       </c>
       <c r="L217" s="4" t="n">
         <f aca="false">L216+$AA$185</f>
@@ -59900,11 +59900,11 @@
       </c>
       <c r="O217" s="4" t="n">
         <f aca="false">O216+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.199897656887945</v>
       </c>
       <c r="P217" s="4" t="n">
         <f aca="false">P216+$Z$186</f>
-        <v>0.358578891567665</v>
+        <v>0.361993525714007</v>
       </c>
       <c r="Q217" s="4" t="n">
         <f aca="false">Q216+$AA$186</f>
@@ -59916,11 +59916,11 @@
       </c>
       <c r="S217" s="4" t="n">
         <f aca="false">S216+$AC$186</f>
-        <v>0.208434242253798</v>
+        <v>0.205019608107457</v>
       </c>
       <c r="T217" s="4" t="n">
         <f aca="false">T216+$AD$186</f>
-        <v>0.406383769616446</v>
+        <v>0.409798403762787</v>
       </c>
       <c r="U217" s="4" t="n">
         <f aca="false">U216+$AE$186</f>
@@ -59932,7 +59932,7 @@
       </c>
       <c r="W217" s="4" t="n">
         <f aca="false">W216+$AG$186</f>
-        <v>0.198190339814774</v>
+        <v>0.194775705668432</v>
       </c>
       <c r="X217" s="4"/>
       <c r="Y217" s="4"/>
@@ -60004,7 +60004,7 @@
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="1" t="n">
         <f aca="false">K214-AP214</f>
-        <v>0.0952261749501045</v>
+        <v>0.0982749554379088</v>
       </c>
       <c r="E218" s="0" t="n">
         <f aca="false">E214+1</f>
@@ -60012,7 +60012,7 @@
       </c>
       <c r="K218" s="4" t="n">
         <f aca="false">K217+$Z$185</f>
-        <v>0.382603281811568</v>
+        <v>0.386139867177421</v>
       </c>
       <c r="L218" s="4" t="n">
         <f aca="false">L217+$AA$185</f>
@@ -60028,11 +60028,11 @@
       </c>
       <c r="O218" s="4" t="n">
         <f aca="false">O217+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.199775705668432</v>
       </c>
       <c r="P218" s="4" t="n">
         <f aca="false">P217+$Z$186</f>
-        <v>0.357847184250592</v>
+        <v>0.361383769616446</v>
       </c>
       <c r="Q218" s="4" t="n">
         <f aca="false">Q217+$AA$186</f>
@@ -60044,11 +60044,11 @@
       </c>
       <c r="S218" s="4" t="n">
         <f aca="false">S217+$AC$186</f>
-        <v>0.208617169083066</v>
+        <v>0.205080583717213</v>
       </c>
       <c r="T218" s="4" t="n">
         <f aca="false">T217+$AD$186</f>
-        <v>0.407359379372543</v>
+        <v>0.410895964738397</v>
       </c>
       <c r="U218" s="4" t="n">
         <f aca="false">U217+$AE$186</f>
@@ -60060,7 +60060,7 @@
       </c>
       <c r="W218" s="4" t="n">
         <f aca="false">W217+$AG$186</f>
-        <v>0.198007412985506</v>
+        <v>0.194470827619652</v>
       </c>
       <c r="X218" s="4"/>
       <c r="Y218" s="4"/>
@@ -60132,7 +60132,7 @@
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="1" t="n">
         <f aca="false">K215-AP215</f>
-        <v>0.0949822725110801</v>
+        <v>0.0981530042183971</v>
       </c>
       <c r="E219" s="0" t="n">
         <f aca="false">E215+1</f>
@@ -60140,7 +60140,7 @@
       </c>
       <c r="K219" s="4" t="n">
         <f aca="false">K218+$Z$185</f>
-        <v>0.38272523303108</v>
+        <v>0.386383769616446</v>
       </c>
       <c r="L219" s="4" t="n">
         <f aca="false">L218+$AA$185</f>
@@ -60156,11 +60156,11 @@
       </c>
       <c r="O219" s="4" t="n">
         <f aca="false">O218+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.19965375444892</v>
       </c>
       <c r="P219" s="4" t="n">
         <f aca="false">P218+$Z$186</f>
-        <v>0.357115476933519</v>
+        <v>0.360774013518885</v>
       </c>
       <c r="Q219" s="4" t="n">
         <f aca="false">Q218+$AA$186</f>
@@ -60172,11 +60172,11 @@
       </c>
       <c r="S219" s="4" t="n">
         <f aca="false">S218+$AC$186</f>
-        <v>0.208800095912335</v>
+        <v>0.205141559326969</v>
       </c>
       <c r="T219" s="4" t="n">
         <f aca="false">T218+$AD$186</f>
-        <v>0.408334989128641</v>
+        <v>0.411993525714007</v>
       </c>
       <c r="U219" s="4" t="n">
         <f aca="false">U218+$AE$186</f>
@@ -60188,7 +60188,7 @@
       </c>
       <c r="W219" s="4" t="n">
         <f aca="false">W218+$AG$186</f>
-        <v>0.197824486156237</v>
+        <v>0.194165949570871</v>
       </c>
       <c r="X219" s="4"/>
       <c r="Y219" s="4"/>
@@ -60217,7 +60217,7 @@
       </c>
       <c r="AT219" s="4" t="n">
         <f aca="false">AT218+$BI$185</f>
-        <v>0.410485896132126</v>
+        <v>0.410485896132125</v>
       </c>
       <c r="AU219" s="4" t="n">
         <f aca="false">AU218+$BE$186</f>
@@ -60260,7 +60260,7 @@
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="1" t="n">
         <f aca="false">K216-AP216</f>
-        <v>0.0947383700720557</v>
+        <v>0.0980310529988845</v>
       </c>
       <c r="E220" s="0" t="n">
         <f aca="false">E216+1</f>
@@ -60268,7 +60268,7 @@
       </c>
       <c r="K220" s="4" t="n">
         <f aca="false">K219+$Z$185</f>
-        <v>0.382847184250592</v>
+        <v>0.38662767205547</v>
       </c>
       <c r="L220" s="4" t="n">
         <f aca="false">L219+$AA$185</f>
@@ -60284,11 +60284,11 @@
       </c>
       <c r="O220" s="4" t="n">
         <f aca="false">O219+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.199531803229408</v>
       </c>
       <c r="P220" s="4" t="n">
         <f aca="false">P219+$Z$186</f>
-        <v>0.356383769616446</v>
+        <v>0.360164257421324</v>
       </c>
       <c r="Q220" s="4" t="n">
         <f aca="false">Q219+$AA$186</f>
@@ -60300,11 +60300,11 @@
       </c>
       <c r="S220" s="4" t="n">
         <f aca="false">S219+$AC$186</f>
-        <v>0.208983022741603</v>
+        <v>0.205202534936725</v>
       </c>
       <c r="T220" s="4" t="n">
         <f aca="false">T219+$AD$186</f>
-        <v>0.409310598884739</v>
+        <v>0.413091086689617</v>
       </c>
       <c r="U220" s="4" t="n">
         <f aca="false">U219+$AE$186</f>
@@ -60316,7 +60316,7 @@
       </c>
       <c r="W220" s="4" t="n">
         <f aca="false">W219+$AG$186</f>
-        <v>0.197641559326969</v>
+        <v>0.193861071522091</v>
       </c>
       <c r="X220" s="4"/>
       <c r="Y220" s="4"/>
@@ -60388,7 +60388,7 @@
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="1" t="n">
         <f aca="false">K217-AP217</f>
-        <v>0.0944944676330313</v>
+        <v>0.0979091017793729</v>
       </c>
       <c r="E221" s="0" t="n">
         <f aca="false">E217+1</f>
@@ -60396,7 +60396,7 @@
       </c>
       <c r="K221" s="4" t="n">
         <f aca="false">K220+$Z$185</f>
-        <v>0.382969135470104</v>
+        <v>0.386871574494494</v>
       </c>
       <c r="L221" s="4" t="n">
         <f aca="false">L220+$AA$185</f>
@@ -60412,11 +60412,11 @@
       </c>
       <c r="O221" s="4" t="n">
         <f aca="false">O220+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.199409852009896</v>
       </c>
       <c r="P221" s="4" t="n">
         <f aca="false">P220+$Z$186</f>
-        <v>0.355652062299373</v>
+        <v>0.359554501323763</v>
       </c>
       <c r="Q221" s="4" t="n">
         <f aca="false">Q220+$AA$186</f>
@@ -60428,11 +60428,11 @@
       </c>
       <c r="S221" s="4" t="n">
         <f aca="false">S220+$AC$186</f>
-        <v>0.209165949570871</v>
+        <v>0.205263510546481</v>
       </c>
       <c r="T221" s="4" t="n">
         <f aca="false">T220+$AD$186</f>
-        <v>0.410286208640836</v>
+        <v>0.414188647665226</v>
       </c>
       <c r="U221" s="4" t="n">
         <f aca="false">U220+$AE$186</f>
@@ -60444,7 +60444,7 @@
       </c>
       <c r="W221" s="4" t="n">
         <f aca="false">W220+$AG$186</f>
-        <v>0.197458632497701</v>
+        <v>0.19355619347331</v>
       </c>
       <c r="X221" s="4"/>
       <c r="Y221" s="4"/>
@@ -60516,7 +60516,7 @@
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="1" t="n">
         <f aca="false">K218-AP218</f>
-        <v>0.0942505651940069</v>
+        <v>0.0977871505598603</v>
       </c>
       <c r="E222" s="0" t="n">
         <f aca="false">E218+1</f>
@@ -60524,7 +60524,7 @@
       </c>
       <c r="K222" s="4" t="n">
         <f aca="false">K221+$Z$185</f>
-        <v>0.383091086689617</v>
+        <v>0.387115476933519</v>
       </c>
       <c r="L222" s="4" t="n">
         <f aca="false">L221+$AA$185</f>
@@ -60540,11 +60540,11 @@
       </c>
       <c r="O222" s="4" t="n">
         <f aca="false">O221+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.199287900790384</v>
       </c>
       <c r="P222" s="4" t="n">
         <f aca="false">P221+$Z$186</f>
-        <v>0.3549203549823</v>
+        <v>0.358944745226202</v>
       </c>
       <c r="Q222" s="4" t="n">
         <f aca="false">Q221+$AA$186</f>
@@ -60556,11 +60556,11 @@
       </c>
       <c r="S222" s="4" t="n">
         <f aca="false">S221+$AC$186</f>
-        <v>0.20934887640014</v>
+        <v>0.205324486156237</v>
       </c>
       <c r="T222" s="4" t="n">
         <f aca="false">T221+$AD$186</f>
-        <v>0.411261818396934</v>
+        <v>0.415286208640836</v>
       </c>
       <c r="U222" s="4" t="n">
         <f aca="false">U221+$AE$186</f>
@@ -60572,7 +60572,7 @@
       </c>
       <c r="W222" s="4" t="n">
         <f aca="false">W221+$AG$186</f>
-        <v>0.197275705668432</v>
+        <v>0.19325131542453</v>
       </c>
       <c r="X222" s="4"/>
       <c r="Y222" s="4"/>
@@ -60617,7 +60617,7 @@
       </c>
       <c r="AX222" s="4" t="n">
         <f aca="false">AX221+$BH$186</f>
-        <v>0.42182735954676</v>
+        <v>0.421827359546759</v>
       </c>
       <c r="AY222" s="4" t="n">
         <f aca="false">AY221+$BI$186</f>
@@ -60644,7 +60644,7 @@
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="1" t="n">
         <f aca="false">K219-AP219</f>
-        <v>0.0940066627549825</v>
+        <v>0.0976651993403477</v>
       </c>
       <c r="E223" s="0" t="n">
         <f aca="false">E219+1</f>
@@ -60652,7 +60652,7 @@
       </c>
       <c r="K223" s="4" t="n">
         <f aca="false">K222+$Z$185</f>
-        <v>0.383213037909129</v>
+        <v>0.387359379372543</v>
       </c>
       <c r="L223" s="4" t="n">
         <f aca="false">L222+$AA$185</f>
@@ -60668,11 +60668,11 @@
       </c>
       <c r="O223" s="4" t="n">
         <f aca="false">O222+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.199165949570871</v>
       </c>
       <c r="P223" s="4" t="n">
         <f aca="false">P222+$Z$186</f>
-        <v>0.354188647665226</v>
+        <v>0.358334989128641</v>
       </c>
       <c r="Q223" s="4" t="n">
         <f aca="false">Q222+$AA$186</f>
@@ -60684,11 +60684,11 @@
       </c>
       <c r="S223" s="4" t="n">
         <f aca="false">S222+$AC$186</f>
-        <v>0.209531803229408</v>
+        <v>0.205385461765993</v>
       </c>
       <c r="T223" s="4" t="n">
         <f aca="false">T222+$AD$186</f>
-        <v>0.412237428153031</v>
+        <v>0.416383769616446</v>
       </c>
       <c r="U223" s="4" t="n">
         <f aca="false">U222+$AE$186</f>
@@ -60700,7 +60700,7 @@
       </c>
       <c r="W223" s="4" t="n">
         <f aca="false">W222+$AG$186</f>
-        <v>0.197092778839164</v>
+        <v>0.192946437375749</v>
       </c>
       <c r="X223" s="4"/>
       <c r="Y223" s="4"/>
@@ -60772,7 +60772,7 @@
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="1" t="n">
         <f aca="false">K220-AP220</f>
-        <v>0.0937627603159582</v>
+        <v>0.0975432481208361</v>
       </c>
       <c r="E224" s="0" t="n">
         <f aca="false">E220+1</f>
@@ -60780,7 +60780,7 @@
       </c>
       <c r="K224" s="4" t="n">
         <f aca="false">K223+$Z$185</f>
-        <v>0.383334989128641</v>
+        <v>0.387603281811568</v>
       </c>
       <c r="L224" s="4" t="n">
         <f aca="false">L223+$AA$185</f>
@@ -60796,11 +60796,11 @@
       </c>
       <c r="O224" s="4" t="n">
         <f aca="false">O223+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.199043998351359</v>
       </c>
       <c r="P224" s="4" t="n">
         <f aca="false">P223+$Z$186</f>
-        <v>0.353456940348153</v>
+        <v>0.35772523303108</v>
       </c>
       <c r="Q224" s="4" t="n">
         <f aca="false">Q223+$AA$186</f>
@@ -60812,11 +60812,11 @@
       </c>
       <c r="S224" s="4" t="n">
         <f aca="false">S223+$AC$186</f>
-        <v>0.209714730058676</v>
+        <v>0.205446437375749</v>
       </c>
       <c r="T224" s="4" t="n">
         <f aca="false">T223+$AD$186</f>
-        <v>0.413213037909129</v>
+        <v>0.417481330592056</v>
       </c>
       <c r="U224" s="4" t="n">
         <f aca="false">U223+$AE$186</f>
@@ -60828,7 +60828,7 @@
       </c>
       <c r="W224" s="4" t="n">
         <f aca="false">W223+$AG$186</f>
-        <v>0.196909852009896</v>
+        <v>0.192641559326969</v>
       </c>
       <c r="X224" s="4"/>
       <c r="Y224" s="4"/>
@@ -60857,7 +60857,7 @@
       </c>
       <c r="AT224" s="4" t="n">
         <f aca="false">AT223+$BI$185</f>
-        <v>0.409266383937004</v>
+        <v>0.409266383937003</v>
       </c>
       <c r="AU224" s="4" t="n">
         <f aca="false">AU223+$BE$186</f>
@@ -60900,7 +60900,7 @@
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="1" t="n">
         <f aca="false">K221-AP221</f>
-        <v>0.0935188578769338</v>
+        <v>0.0974212969013234</v>
       </c>
       <c r="E225" s="0" t="n">
         <f aca="false">E221+1</f>
@@ -60908,7 +60908,7 @@
       </c>
       <c r="K225" s="4" t="n">
         <f aca="false">K224+$Z$185</f>
-        <v>0.383456940348153</v>
+        <v>0.387847184250592</v>
       </c>
       <c r="L225" s="4" t="n">
         <f aca="false">L224+$AA$185</f>
@@ -60924,11 +60924,11 @@
       </c>
       <c r="O225" s="4" t="n">
         <f aca="false">O224+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.198922047131847</v>
       </c>
       <c r="P225" s="4" t="n">
         <f aca="false">P224+$Z$186</f>
-        <v>0.35272523303108</v>
+        <v>0.357115476933519</v>
       </c>
       <c r="Q225" s="4" t="n">
         <f aca="false">Q224+$AA$186</f>
@@ -60940,11 +60940,11 @@
       </c>
       <c r="S225" s="4" t="n">
         <f aca="false">S224+$AC$186</f>
-        <v>0.209897656887945</v>
+        <v>0.205507412985506</v>
       </c>
       <c r="T225" s="4" t="n">
         <f aca="false">T224+$AD$186</f>
-        <v>0.414188647665226</v>
+        <v>0.418578891567665</v>
       </c>
       <c r="U225" s="4" t="n">
         <f aca="false">U224+$AE$186</f>
@@ -60956,7 +60956,7 @@
       </c>
       <c r="W225" s="4" t="n">
         <f aca="false">W224+$AG$186</f>
-        <v>0.196726925180627</v>
+        <v>0.192336681278188</v>
       </c>
       <c r="X225" s="4"/>
       <c r="Y225" s="4"/>
@@ -61028,7 +61028,7 @@
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="1" t="n">
         <f aca="false">K222-AP222</f>
-        <v>0.0932749554379094</v>
+        <v>0.0972993456818119</v>
       </c>
       <c r="E226" s="0" t="n">
         <f aca="false">E222+1</f>
@@ -61036,7 +61036,7 @@
       </c>
       <c r="K226" s="4" t="n">
         <f aca="false">K225+$Z$185</f>
-        <v>0.383578891567665</v>
+        <v>0.388091086689616</v>
       </c>
       <c r="L226" s="4" t="n">
         <f aca="false">L225+$AA$185</f>
@@ -61052,11 +61052,11 @@
       </c>
       <c r="O226" s="4" t="n">
         <f aca="false">O225+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.198800095912335</v>
       </c>
       <c r="P226" s="4" t="n">
         <f aca="false">P225+$Z$186</f>
-        <v>0.351993525714007</v>
+        <v>0.356505720835958</v>
       </c>
       <c r="Q226" s="4" t="n">
         <f aca="false">Q225+$AA$186</f>
@@ -61068,11 +61068,11 @@
       </c>
       <c r="S226" s="4" t="n">
         <f aca="false">S225+$AC$186</f>
-        <v>0.210080583717213</v>
+        <v>0.205568388595262</v>
       </c>
       <c r="T226" s="4" t="n">
         <f aca="false">T225+$AD$186</f>
-        <v>0.415164257421324</v>
+        <v>0.419676452543275</v>
       </c>
       <c r="U226" s="4" t="n">
         <f aca="false">U225+$AE$186</f>
@@ -61084,7 +61084,7 @@
       </c>
       <c r="W226" s="4" t="n">
         <f aca="false">W225+$AG$186</f>
-        <v>0.196543998351359</v>
+        <v>0.192031803229408</v>
       </c>
       <c r="X226" s="4"/>
       <c r="Y226" s="4"/>
@@ -61156,7 +61156,7 @@
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="1" t="n">
         <f aca="false">K223-AP223</f>
-        <v>0.093031052998885</v>
+        <v>0.0971773944622993</v>
       </c>
       <c r="E227" s="0" t="n">
         <f aca="false">E223+1</f>
@@ -61164,7 +61164,7 @@
       </c>
       <c r="K227" s="4" t="n">
         <f aca="false">K226+$Z$185</f>
-        <v>0.383700842787178</v>
+        <v>0.388334989128641</v>
       </c>
       <c r="L227" s="4" t="n">
         <f aca="false">L226+$AA$185</f>
@@ -61180,11 +61180,11 @@
       </c>
       <c r="O227" s="4" t="n">
         <f aca="false">O226+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.198678144692823</v>
       </c>
       <c r="P227" s="4" t="n">
         <f aca="false">P226+$Z$186</f>
-        <v>0.351261818396934</v>
+        <v>0.355895964738397</v>
       </c>
       <c r="Q227" s="4" t="n">
         <f aca="false">Q226+$AA$186</f>
@@ -61196,11 +61196,11 @@
       </c>
       <c r="S227" s="4" t="n">
         <f aca="false">S226+$AC$186</f>
-        <v>0.210263510546481</v>
+        <v>0.205629364205018</v>
       </c>
       <c r="T227" s="4" t="n">
         <f aca="false">T226+$AD$186</f>
-        <v>0.416139867177422</v>
+        <v>0.420774013518885</v>
       </c>
       <c r="U227" s="4" t="n">
         <f aca="false">U226+$AE$186</f>
@@ -61212,7 +61212,7 @@
       </c>
       <c r="W227" s="4" t="n">
         <f aca="false">W226+$AG$186</f>
-        <v>0.196361071522091</v>
+        <v>0.191726925180627</v>
       </c>
       <c r="X227" s="4"/>
       <c r="Y227" s="4"/>
@@ -61284,7 +61284,7 @@
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="1" t="n">
         <f aca="false">K224-AP224</f>
-        <v>0.0927871505598606</v>
+        <v>0.0970554432427876</v>
       </c>
       <c r="E228" s="0" t="n">
         <f aca="false">E224+1</f>
@@ -61292,7 +61292,7 @@
       </c>
       <c r="K228" s="4" t="n">
         <f aca="false">K227+$Z$185</f>
-        <v>0.38382279400669</v>
+        <v>0.388578891567665</v>
       </c>
       <c r="L228" s="4" t="n">
         <f aca="false">L227+$AA$185</f>
@@ -61308,11 +61308,11 @@
       </c>
       <c r="O228" s="4" t="n">
         <f aca="false">O227+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.19855619347331</v>
       </c>
       <c r="P228" s="4" t="n">
         <f aca="false">P227+$Z$186</f>
-        <v>0.350530111079861</v>
+        <v>0.355286208640836</v>
       </c>
       <c r="Q228" s="4" t="n">
         <f aca="false">Q227+$AA$186</f>
@@ -61324,11 +61324,11 @@
       </c>
       <c r="S228" s="4" t="n">
         <f aca="false">S227+$AC$186</f>
-        <v>0.210446437375749</v>
+        <v>0.205690339814774</v>
       </c>
       <c r="T228" s="4" t="n">
         <f aca="false">T227+$AD$186</f>
-        <v>0.417115476933519</v>
+        <v>0.421871574494495</v>
       </c>
       <c r="U228" s="4" t="n">
         <f aca="false">U227+$AE$186</f>
@@ -61340,7 +61340,7 @@
       </c>
       <c r="W228" s="4" t="n">
         <f aca="false">W227+$AG$186</f>
-        <v>0.196178144692823</v>
+        <v>0.191422047131847</v>
       </c>
       <c r="X228" s="4"/>
       <c r="Y228" s="4"/>
@@ -61412,7 +61412,7 @@
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="1" t="n">
         <f aca="false">K225-AP225</f>
-        <v>0.0925432481208362</v>
+        <v>0.0969334920232751</v>
       </c>
       <c r="E229" s="0" t="n">
         <f aca="false">E225+1</f>
@@ -61420,7 +61420,7 @@
       </c>
       <c r="K229" s="4" t="n">
         <f aca="false">K228+$Z$185</f>
-        <v>0.383944745226202</v>
+        <v>0.38882279400669</v>
       </c>
       <c r="L229" s="4" t="n">
         <f aca="false">L228+$AA$185</f>
@@ -61436,11 +61436,11 @@
       </c>
       <c r="O229" s="4" t="n">
         <f aca="false">O228+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.198434242253798</v>
       </c>
       <c r="P229" s="4" t="n">
         <f aca="false">P228+$Z$186</f>
-        <v>0.349798403762787</v>
+        <v>0.354676452543275</v>
       </c>
       <c r="Q229" s="4" t="n">
         <f aca="false">Q228+$AA$186</f>
@@ -61452,11 +61452,11 @@
       </c>
       <c r="S229" s="4" t="n">
         <f aca="false">S228+$AC$186</f>
-        <v>0.210629364205018</v>
+        <v>0.20575131542453</v>
       </c>
       <c r="T229" s="4" t="n">
         <f aca="false">T228+$AD$186</f>
-        <v>0.418091086689617</v>
+        <v>0.422969135470104</v>
       </c>
       <c r="U229" s="4" t="n">
         <f aca="false">U228+$AE$186</f>
@@ -61468,7 +61468,7 @@
       </c>
       <c r="W229" s="4" t="n">
         <f aca="false">W228+$AG$186</f>
-        <v>0.195995217863554</v>
+        <v>0.191117169083067</v>
       </c>
       <c r="X229" s="4"/>
       <c r="Y229" s="4"/>
@@ -61497,7 +61497,7 @@
       </c>
       <c r="AT229" s="4" t="n">
         <f aca="false">AT228+$BI$185</f>
-        <v>0.408046871741882</v>
+        <v>0.408046871741881</v>
       </c>
       <c r="AU229" s="4" t="n">
         <f aca="false">AU228+$BE$186</f>
@@ -61540,7 +61540,7 @@
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="1" t="n">
         <f aca="false">K226-AP226</f>
-        <v>0.0922993456818118</v>
+        <v>0.0968115408037624</v>
       </c>
       <c r="E230" s="0" t="n">
         <f aca="false">E226+1</f>
@@ -61548,7 +61548,7 @@
       </c>
       <c r="K230" s="4" t="n">
         <f aca="false">K229+$Z$185</f>
-        <v>0.384066696445714</v>
+        <v>0.389066696445714</v>
       </c>
       <c r="L230" s="4" t="n">
         <f aca="false">L229+$AA$185</f>
@@ -61564,11 +61564,11 @@
       </c>
       <c r="O230" s="4" t="n">
         <f aca="false">O229+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.198312291034286</v>
       </c>
       <c r="P230" s="4" t="n">
         <f aca="false">P229+$Z$186</f>
-        <v>0.349066696445714</v>
+        <v>0.354066696445714</v>
       </c>
       <c r="Q230" s="4" t="n">
         <f aca="false">Q229+$AA$186</f>
@@ -61580,11 +61580,11 @@
       </c>
       <c r="S230" s="4" t="n">
         <f aca="false">S229+$AC$186</f>
-        <v>0.210812291034286</v>
+        <v>0.205812291034286</v>
       </c>
       <c r="T230" s="4" t="n">
         <f aca="false">T229+$AD$186</f>
-        <v>0.419066696445714</v>
+        <v>0.424066696445714</v>
       </c>
       <c r="U230" s="4" t="n">
         <f aca="false">U229+$AE$186</f>
@@ -61596,7 +61596,7 @@
       </c>
       <c r="W230" s="4" t="n">
         <f aca="false">W229+$AG$186</f>
-        <v>0.195812291034286</v>
+        <v>0.190812291034286</v>
       </c>
       <c r="X230" s="4"/>
       <c r="Y230" s="4"/>
@@ -61668,7 +61668,7 @@
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="1" t="n">
         <f aca="false">K227-AP227</f>
-        <v>0.0920554432427874</v>
+        <v>0.0966895895842508</v>
       </c>
       <c r="E231" s="0" t="n">
         <f aca="false">E227+1</f>
@@ -61676,7 +61676,7 @@
       </c>
       <c r="K231" s="4" t="n">
         <f aca="false">K230+$Z$185</f>
-        <v>0.384188647665226</v>
+        <v>0.389310598884738</v>
       </c>
       <c r="L231" s="4" t="n">
         <f aca="false">L230+$AA$185</f>
@@ -61692,11 +61692,11 @@
       </c>
       <c r="O231" s="4" t="n">
         <f aca="false">O230+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.198190339814774</v>
       </c>
       <c r="P231" s="4" t="n">
         <f aca="false">P230+$Z$186</f>
-        <v>0.348334989128641</v>
+        <v>0.353456940348153</v>
       </c>
       <c r="Q231" s="4" t="n">
         <f aca="false">Q230+$AA$186</f>
@@ -61708,11 +61708,11 @@
       </c>
       <c r="S231" s="4" t="n">
         <f aca="false">S230+$AC$186</f>
-        <v>0.210995217863554</v>
+        <v>0.205873266644042</v>
       </c>
       <c r="T231" s="4" t="n">
         <f aca="false">T230+$AD$186</f>
-        <v>0.420042306201812</v>
+        <v>0.425164257421324</v>
       </c>
       <c r="U231" s="4" t="n">
         <f aca="false">U230+$AE$186</f>
@@ -61724,7 +61724,7 @@
       </c>
       <c r="W231" s="4" t="n">
         <f aca="false">W230+$AG$186</f>
-        <v>0.195629364205018</v>
+        <v>0.190507412985506</v>
       </c>
       <c r="X231" s="4"/>
       <c r="Y231" s="4"/>
@@ -61796,7 +61796,7 @@
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="1" t="n">
         <f aca="false">K228-AP228</f>
-        <v>0.091811540803763</v>
+        <v>0.0965676383647382</v>
       </c>
       <c r="E232" s="0" t="n">
         <f aca="false">E228+1</f>
@@ -61804,7 +61804,7 @@
       </c>
       <c r="K232" s="4" t="n">
         <f aca="false">K231+$Z$185</f>
-        <v>0.384310598884739</v>
+        <v>0.389554501323763</v>
       </c>
       <c r="L232" s="4" t="n">
         <f aca="false">L231+$AA$185</f>
@@ -61820,11 +61820,11 @@
       </c>
       <c r="O232" s="4" t="n">
         <f aca="false">O231+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.198068388595262</v>
       </c>
       <c r="P232" s="4" t="n">
         <f aca="false">P231+$Z$186</f>
-        <v>0.347603281811568</v>
+        <v>0.352847184250592</v>
       </c>
       <c r="Q232" s="4" t="n">
         <f aca="false">Q231+$AA$186</f>
@@ -61836,11 +61836,11 @@
       </c>
       <c r="S232" s="4" t="n">
         <f aca="false">S231+$AC$186</f>
-        <v>0.211178144692823</v>
+        <v>0.205934242253798</v>
       </c>
       <c r="T232" s="4" t="n">
         <f aca="false">T231+$AD$186</f>
-        <v>0.421017915957909</v>
+        <v>0.426261818396934</v>
       </c>
       <c r="U232" s="4" t="n">
         <f aca="false">U231+$AE$186</f>
@@ -61852,7 +61852,7 @@
       </c>
       <c r="W232" s="4" t="n">
         <f aca="false">W231+$AG$186</f>
-        <v>0.195446437375749</v>
+        <v>0.190202534936725</v>
       </c>
       <c r="X232" s="4"/>
       <c r="Y232" s="4"/>
@@ -61897,7 +61897,7 @@
       </c>
       <c r="AX232" s="4" t="n">
         <f aca="false">AX231+$BH$186</f>
-        <v>0.423046871741882</v>
+        <v>0.423046871741881</v>
       </c>
       <c r="AY232" s="4" t="n">
         <f aca="false">AY231+$BI$186</f>
@@ -61924,7 +61924,7 @@
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="1" t="n">
         <f aca="false">K229-AP229</f>
-        <v>0.0915676383647386</v>
+        <v>0.0964456871452266</v>
       </c>
       <c r="E233" s="0" t="n">
         <f aca="false">E229+1</f>
@@ -61932,7 +61932,7 @@
       </c>
       <c r="K233" s="4" t="n">
         <f aca="false">K232+$Z$185</f>
-        <v>0.384432550104251</v>
+        <v>0.389798403762787</v>
       </c>
       <c r="L233" s="4" t="n">
         <f aca="false">L232+$AA$185</f>
@@ -61948,11 +61948,11 @@
       </c>
       <c r="O233" s="4" t="n">
         <f aca="false">O232+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.197946437375749</v>
       </c>
       <c r="P233" s="4" t="n">
         <f aca="false">P232+$Z$186</f>
-        <v>0.346871574494495</v>
+        <v>0.352237428153031</v>
       </c>
       <c r="Q233" s="4" t="n">
         <f aca="false">Q232+$AA$186</f>
@@ -61964,11 +61964,11 @@
       </c>
       <c r="S233" s="4" t="n">
         <f aca="false">S232+$AC$186</f>
-        <v>0.211361071522091</v>
+        <v>0.205995217863554</v>
       </c>
       <c r="T233" s="4" t="n">
         <f aca="false">T232+$AD$186</f>
-        <v>0.421993525714007</v>
+        <v>0.427359379372543</v>
       </c>
       <c r="U233" s="4" t="n">
         <f aca="false">U232+$AE$186</f>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="W233" s="4" t="n">
         <f aca="false">W232+$AG$186</f>
-        <v>0.195263510546481</v>
+        <v>0.189897656887945</v>
       </c>
       <c r="X233" s="4"/>
       <c r="Y233" s="4"/>
@@ -62052,7 +62052,7 @@
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="1" t="n">
         <f aca="false">K230-AP230</f>
-        <v>0.0913237359257142</v>
+        <v>0.096323735925714</v>
       </c>
       <c r="E234" s="0" t="n">
         <f aca="false">E230+1</f>
@@ -62060,7 +62060,7 @@
       </c>
       <c r="K234" s="4" t="n">
         <f aca="false">K233+$Z$185</f>
-        <v>0.384554501323763</v>
+        <v>0.390042306201812</v>
       </c>
       <c r="L234" s="4" t="n">
         <f aca="false">L233+$AA$185</f>
@@ -62076,11 +62076,11 @@
       </c>
       <c r="O234" s="4" t="n">
         <f aca="false">O233+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.197824486156237</v>
       </c>
       <c r="P234" s="4" t="n">
         <f aca="false">P233+$Z$186</f>
-        <v>0.346139867177421</v>
+        <v>0.35162767205547</v>
       </c>
       <c r="Q234" s="4" t="n">
         <f aca="false">Q233+$AA$186</f>
@@ -62092,11 +62092,11 @@
       </c>
       <c r="S234" s="4" t="n">
         <f aca="false">S233+$AC$186</f>
-        <v>0.211543998351359</v>
+        <v>0.20605619347331</v>
       </c>
       <c r="T234" s="4" t="n">
         <f aca="false">T233+$AD$186</f>
-        <v>0.422969135470104</v>
+        <v>0.428456940348153</v>
       </c>
       <c r="U234" s="4" t="n">
         <f aca="false">U233+$AE$186</f>
@@ -62108,7 +62108,7 @@
       </c>
       <c r="W234" s="4" t="n">
         <f aca="false">W233+$AG$186</f>
-        <v>0.195080583717213</v>
+        <v>0.189592778839164</v>
       </c>
       <c r="X234" s="4"/>
       <c r="Y234" s="4"/>
@@ -62180,7 +62180,7 @@
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="1" t="n">
         <f aca="false">K231-AP231</f>
-        <v>0.0910798334866899</v>
+        <v>0.0962017847062014</v>
       </c>
       <c r="E235" s="0" t="n">
         <f aca="false">E231+1</f>
@@ -62188,7 +62188,7 @@
       </c>
       <c r="K235" s="4" t="n">
         <f aca="false">K234+$Z$185</f>
-        <v>0.384676452543275</v>
+        <v>0.390286208640836</v>
       </c>
       <c r="L235" s="4" t="n">
         <f aca="false">L234+$AA$185</f>
@@ -62204,11 +62204,11 @@
       </c>
       <c r="O235" s="4" t="n">
         <f aca="false">O234+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.197702534936725</v>
       </c>
       <c r="P235" s="4" t="n">
         <f aca="false">P234+$Z$186</f>
-        <v>0.345408159860348</v>
+        <v>0.351017915957909</v>
       </c>
       <c r="Q235" s="4" t="n">
         <f aca="false">Q234+$AA$186</f>
@@ -62220,11 +62220,11 @@
       </c>
       <c r="S235" s="4" t="n">
         <f aca="false">S234+$AC$186</f>
-        <v>0.211726925180627</v>
+        <v>0.206117169083066</v>
       </c>
       <c r="T235" s="4" t="n">
         <f aca="false">T234+$AD$186</f>
-        <v>0.423944745226202</v>
+        <v>0.429554501323763</v>
       </c>
       <c r="U235" s="4" t="n">
         <f aca="false">U234+$AE$186</f>
@@ -62236,7 +62236,7 @@
       </c>
       <c r="W235" s="4" t="n">
         <f aca="false">W234+$AG$186</f>
-        <v>0.194897656887945</v>
+        <v>0.189287900790384</v>
       </c>
       <c r="X235" s="4"/>
       <c r="Y235" s="4"/>
@@ -62308,7 +62308,7 @@
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="1" t="n">
         <f aca="false">K232-AP232</f>
-        <v>0.0908359310476655</v>
+        <v>0.0960798334866898</v>
       </c>
       <c r="E236" s="0" t="n">
         <f aca="false">E232+1</f>
@@ -62316,7 +62316,7 @@
       </c>
       <c r="K236" s="4" t="n">
         <f aca="false">K235+$Z$185</f>
-        <v>0.384798403762787</v>
+        <v>0.39053011107986</v>
       </c>
       <c r="L236" s="4" t="n">
         <f aca="false">L235+$AA$185</f>
@@ -62332,11 +62332,11 @@
       </c>
       <c r="O236" s="4" t="n">
         <f aca="false">O235+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.197580583717213</v>
       </c>
       <c r="P236" s="4" t="n">
         <f aca="false">P235+$Z$186</f>
-        <v>0.344676452543275</v>
+        <v>0.350408159860348</v>
       </c>
       <c r="Q236" s="4" t="n">
         <f aca="false">Q235+$AA$186</f>
@@ -62348,11 +62348,11 @@
       </c>
       <c r="S236" s="4" t="n">
         <f aca="false">S235+$AC$186</f>
-        <v>0.211909852009896</v>
+        <v>0.206178144692823</v>
       </c>
       <c r="T236" s="4" t="n">
         <f aca="false">T235+$AD$186</f>
-        <v>0.4249203549823</v>
+        <v>0.430652062299373</v>
       </c>
       <c r="U236" s="4" t="n">
         <f aca="false">U235+$AE$186</f>
@@ -62364,7 +62364,7 @@
       </c>
       <c r="W236" s="4" t="n">
         <f aca="false">W235+$AG$186</f>
-        <v>0.194714730058676</v>
+        <v>0.188983022741603</v>
       </c>
       <c r="X236" s="4"/>
       <c r="Y236" s="4"/>
@@ -62436,7 +62436,7 @@
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="1" t="n">
         <f aca="false">K233-AP233</f>
-        <v>0.0905920286086411</v>
+        <v>0.0959578822671772</v>
       </c>
       <c r="E237" s="0" t="n">
         <f aca="false">E233+1</f>
@@ -62444,7 +62444,7 @@
       </c>
       <c r="K237" s="4" t="n">
         <f aca="false">K236+$Z$185</f>
-        <v>0.3849203549823</v>
+        <v>0.390774013518885</v>
       </c>
       <c r="L237" s="4" t="n">
         <f aca="false">L236+$AA$185</f>
@@ -62460,11 +62460,11 @@
       </c>
       <c r="O237" s="4" t="n">
         <f aca="false">O236+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.197458632497701</v>
       </c>
       <c r="P237" s="4" t="n">
         <f aca="false">P236+$Z$186</f>
-        <v>0.343944745226202</v>
+        <v>0.349798403762787</v>
       </c>
       <c r="Q237" s="4" t="n">
         <f aca="false">Q236+$AA$186</f>
@@ -62476,11 +62476,11 @@
       </c>
       <c r="S237" s="4" t="n">
         <f aca="false">S236+$AC$186</f>
-        <v>0.212092778839164</v>
+        <v>0.206239120302579</v>
       </c>
       <c r="T237" s="4" t="n">
         <f aca="false">T236+$AD$186</f>
-        <v>0.425895964738397</v>
+        <v>0.431749623274982</v>
       </c>
       <c r="U237" s="4" t="n">
         <f aca="false">U236+$AE$186</f>
@@ -62492,7 +62492,7 @@
       </c>
       <c r="W237" s="4" t="n">
         <f aca="false">W236+$AG$186</f>
-        <v>0.194531803229408</v>
+        <v>0.188678144692823</v>
       </c>
       <c r="X237" s="4"/>
       <c r="Y237" s="4"/>
@@ -62537,7 +62537,7 @@
       </c>
       <c r="AX237" s="4" t="n">
         <f aca="false">AX236+$BH$186</f>
-        <v>0.423656627839443</v>
+        <v>0.423656627839442</v>
       </c>
       <c r="AY237" s="4" t="n">
         <f aca="false">AY236+$BI$186</f>
@@ -62564,7 +62564,7 @@
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="1" t="n">
         <f aca="false">K234-AP234</f>
-        <v>0.0903481261696167</v>
+        <v>0.0958359310476655</v>
       </c>
       <c r="E238" s="0" t="n">
         <f aca="false">E234+1</f>
@@ -62572,7 +62572,7 @@
       </c>
       <c r="K238" s="4" t="n">
         <f aca="false">K237+$Z$185</f>
-        <v>0.385042306201812</v>
+        <v>0.391017915957909</v>
       </c>
       <c r="L238" s="4" t="n">
         <f aca="false">L237+$AA$185</f>
@@ -62588,11 +62588,11 @@
       </c>
       <c r="O238" s="4" t="n">
         <f aca="false">O237+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.197336681278188</v>
       </c>
       <c r="P238" s="4" t="n">
         <f aca="false">P237+$Z$186</f>
-        <v>0.343213037909129</v>
+        <v>0.349188647665226</v>
       </c>
       <c r="Q238" s="4" t="n">
         <f aca="false">Q237+$AA$186</f>
@@ -62604,11 +62604,11 @@
       </c>
       <c r="S238" s="4" t="n">
         <f aca="false">S237+$AC$186</f>
-        <v>0.212275705668432</v>
+        <v>0.206300095912335</v>
       </c>
       <c r="T238" s="4" t="n">
         <f aca="false">T237+$AD$186</f>
-        <v>0.426871574494495</v>
+        <v>0.432847184250592</v>
       </c>
       <c r="U238" s="4" t="n">
         <f aca="false">U237+$AE$186</f>
@@ -62620,7 +62620,7 @@
       </c>
       <c r="W238" s="4" t="n">
         <f aca="false">W237+$AG$186</f>
-        <v>0.19434887640014</v>
+        <v>0.188373266644042</v>
       </c>
       <c r="X238" s="4"/>
       <c r="Y238" s="4"/>
@@ -62692,7 +62692,7 @@
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="1" t="n">
         <f aca="false">K235-AP235</f>
-        <v>0.0901042237305923</v>
+        <v>0.0957139798281529</v>
       </c>
       <c r="E239" s="0" t="n">
         <f aca="false">E235+1</f>
@@ -62700,7 +62700,7 @@
       </c>
       <c r="K239" s="4" t="n">
         <f aca="false">K238+$Z$185</f>
-        <v>0.385164257421324</v>
+        <v>0.391261818396933</v>
       </c>
       <c r="L239" s="4" t="n">
         <f aca="false">L238+$AA$185</f>
@@ -62716,11 +62716,11 @@
       </c>
       <c r="O239" s="4" t="n">
         <f aca="false">O238+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.197214730058676</v>
       </c>
       <c r="P239" s="4" t="n">
         <f aca="false">P238+$Z$186</f>
-        <v>0.342481330592056</v>
+        <v>0.348578891567665</v>
       </c>
       <c r="Q239" s="4" t="n">
         <f aca="false">Q238+$AA$186</f>
@@ -62732,11 +62732,11 @@
       </c>
       <c r="S239" s="4" t="n">
         <f aca="false">S238+$AC$186</f>
-        <v>0.212458632497701</v>
+        <v>0.206361071522091</v>
       </c>
       <c r="T239" s="4" t="n">
         <f aca="false">T238+$AD$186</f>
-        <v>0.427847184250592</v>
+        <v>0.433944745226202</v>
       </c>
       <c r="U239" s="4" t="n">
         <f aca="false">U238+$AE$186</f>
@@ -62748,7 +62748,7 @@
       </c>
       <c r="W239" s="4" t="n">
         <f aca="false">W238+$AG$186</f>
-        <v>0.194165949570871</v>
+        <v>0.188068388595262</v>
       </c>
       <c r="X239" s="4"/>
       <c r="Y239" s="4"/>
@@ -62820,7 +62820,7 @@
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="1" t="n">
         <f aca="false">K236-AP236</f>
-        <v>0.0898603212915679</v>
+        <v>0.0955920286086413</v>
       </c>
       <c r="E240" s="0" t="n">
         <f aca="false">E236+1</f>
@@ -62828,7 +62828,7 @@
       </c>
       <c r="K240" s="4" t="n">
         <f aca="false">K239+$Z$185</f>
-        <v>0.385286208640836</v>
+        <v>0.391505720835958</v>
       </c>
       <c r="L240" s="4" t="n">
         <f aca="false">L239+$AA$185</f>
@@ -62844,11 +62844,11 @@
       </c>
       <c r="O240" s="4" t="n">
         <f aca="false">O239+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.197092778839164</v>
       </c>
       <c r="P240" s="4" t="n">
         <f aca="false">P239+$Z$186</f>
-        <v>0.341749623274982</v>
+        <v>0.347969135470104</v>
       </c>
       <c r="Q240" s="4" t="n">
         <f aca="false">Q239+$AA$186</f>
@@ -62860,11 +62860,11 @@
       </c>
       <c r="S240" s="4" t="n">
         <f aca="false">S239+$AC$186</f>
-        <v>0.212641559326969</v>
+        <v>0.206422047131847</v>
       </c>
       <c r="T240" s="4" t="n">
         <f aca="false">T239+$AD$186</f>
-        <v>0.42882279400669</v>
+        <v>0.435042306201812</v>
       </c>
       <c r="U240" s="4" t="n">
         <f aca="false">U239+$AE$186</f>
@@ -62876,7 +62876,7 @@
       </c>
       <c r="W240" s="4" t="n">
         <f aca="false">W239+$AG$186</f>
-        <v>0.193983022741603</v>
+        <v>0.187763510546481</v>
       </c>
       <c r="X240" s="4"/>
       <c r="Y240" s="4"/>
@@ -62948,7 +62948,7 @@
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="1" t="n">
         <f aca="false">K237-AP237</f>
-        <v>0.0896164188525435</v>
+        <v>0.0954700773891287</v>
       </c>
       <c r="E241" s="0" t="n">
         <f aca="false">E237+1</f>
@@ -62956,7 +62956,7 @@
       </c>
       <c r="K241" s="4" t="n">
         <f aca="false">K240+$Z$185</f>
-        <v>0.385408159860348</v>
+        <v>0.391749623274982</v>
       </c>
       <c r="L241" s="4" t="n">
         <f aca="false">L240+$AA$185</f>
@@ -62972,11 +62972,11 @@
       </c>
       <c r="O241" s="4" t="n">
         <f aca="false">O240+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.196970827619652</v>
       </c>
       <c r="P241" s="4" t="n">
         <f aca="false">P240+$Z$186</f>
-        <v>0.341017915957909</v>
+        <v>0.347359379372543</v>
       </c>
       <c r="Q241" s="4" t="n">
         <f aca="false">Q240+$AA$186</f>
@@ -62988,11 +62988,11 @@
       </c>
       <c r="S241" s="4" t="n">
         <f aca="false">S240+$AC$186</f>
-        <v>0.212824486156237</v>
+        <v>0.206483022741603</v>
       </c>
       <c r="T241" s="4" t="n">
         <f aca="false">T240+$AD$186</f>
-        <v>0.429798403762787</v>
+        <v>0.436139867177421</v>
       </c>
       <c r="U241" s="4" t="n">
         <f aca="false">U240+$AE$186</f>
@@ -63004,7 +63004,7 @@
       </c>
       <c r="W241" s="4" t="n">
         <f aca="false">W240+$AG$186</f>
-        <v>0.193800095912335</v>
+        <v>0.187458632497701</v>
       </c>
       <c r="X241" s="4"/>
       <c r="Y241" s="4"/>
@@ -63076,7 +63076,7 @@
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="1" t="n">
         <f aca="false">K238-AP238</f>
-        <v>0.0893725164135191</v>
+        <v>0.0953481261696161</v>
       </c>
       <c r="E242" s="0" t="n">
         <f aca="false">E238+1</f>
@@ -63084,7 +63084,7 @@
       </c>
       <c r="K242" s="4" t="n">
         <f aca="false">K241+$Z$185</f>
-        <v>0.385530111079861</v>
+        <v>0.391993525714007</v>
       </c>
       <c r="L242" s="4" t="n">
         <f aca="false">L241+$AA$185</f>
@@ -63100,11 +63100,11 @@
       </c>
       <c r="O242" s="4" t="n">
         <f aca="false">O241+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.19684887640014</v>
       </c>
       <c r="P242" s="4" t="n">
         <f aca="false">P241+$Z$186</f>
-        <v>0.340286208640836</v>
+        <v>0.346749623274982</v>
       </c>
       <c r="Q242" s="4" t="n">
         <f aca="false">Q241+$AA$186</f>
@@ -63116,11 +63116,11 @@
       </c>
       <c r="S242" s="4" t="n">
         <f aca="false">S241+$AC$186</f>
-        <v>0.213007412985506</v>
+        <v>0.206543998351359</v>
       </c>
       <c r="T242" s="4" t="n">
         <f aca="false">T241+$AD$186</f>
-        <v>0.430774013518885</v>
+        <v>0.437237428153031</v>
       </c>
       <c r="U242" s="4" t="n">
         <f aca="false">U241+$AE$186</f>
@@ -63132,7 +63132,7 @@
       </c>
       <c r="W242" s="4" t="n">
         <f aca="false">W241+$AG$186</f>
-        <v>0.193617169083067</v>
+        <v>0.18715375444892</v>
       </c>
       <c r="X242" s="4"/>
       <c r="Y242" s="4"/>
@@ -63177,7 +63177,7 @@
       </c>
       <c r="AX242" s="4" t="n">
         <f aca="false">AX241+$BH$186</f>
-        <v>0.424266383937004</v>
+        <v>0.424266383937003</v>
       </c>
       <c r="AY242" s="4" t="n">
         <f aca="false">AY241+$BI$186</f>
@@ -63204,7 +63204,7 @@
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="1" t="n">
         <f aca="false">K239-AP239</f>
-        <v>0.0891286139744947</v>
+        <v>0.0952261749501045</v>
       </c>
       <c r="E243" s="0" t="n">
         <f aca="false">E239+1</f>
@@ -63212,7 +63212,7 @@
       </c>
       <c r="K243" s="4" t="n">
         <f aca="false">K242+$Z$185</f>
-        <v>0.385652062299373</v>
+        <v>0.392237428153031</v>
       </c>
       <c r="L243" s="4" t="n">
         <f aca="false">L242+$AA$185</f>
@@ -63228,11 +63228,11 @@
       </c>
       <c r="O243" s="4" t="n">
         <f aca="false">O242+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.196726925180627</v>
       </c>
       <c r="P243" s="4" t="n">
         <f aca="false">P242+$Z$186</f>
-        <v>0.339554501323763</v>
+        <v>0.346139867177421</v>
       </c>
       <c r="Q243" s="4" t="n">
         <f aca="false">Q242+$AA$186</f>
@@ -63244,11 +63244,11 @@
       </c>
       <c r="S243" s="4" t="n">
         <f aca="false">S242+$AC$186</f>
-        <v>0.213190339814774</v>
+        <v>0.206604973961115</v>
       </c>
       <c r="T243" s="4" t="n">
         <f aca="false">T242+$AD$186</f>
-        <v>0.431749623274983</v>
+        <v>0.438334989128641</v>
       </c>
       <c r="U243" s="4" t="n">
         <f aca="false">U242+$AE$186</f>
@@ -63260,7 +63260,7 @@
       </c>
       <c r="W243" s="4" t="n">
         <f aca="false">W242+$AG$186</f>
-        <v>0.193434242253798</v>
+        <v>0.18684887640014</v>
       </c>
       <c r="X243" s="4"/>
       <c r="Y243" s="4"/>
@@ -63332,7 +63332,7 @@
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="1" t="n">
         <f aca="false">K240-AP240</f>
-        <v>0.0888847115354703</v>
+        <v>0.0951042237305919</v>
       </c>
       <c r="E244" s="0" t="n">
         <f aca="false">E240+1</f>
@@ -63340,7 +63340,7 @@
       </c>
       <c r="K244" s="4" t="n">
         <f aca="false">K243+$Z$185</f>
-        <v>0.385774013518885</v>
+        <v>0.392481330592055</v>
       </c>
       <c r="L244" s="4" t="n">
         <f aca="false">L243+$AA$185</f>
@@ -63356,11 +63356,11 @@
       </c>
       <c r="O244" s="4" t="n">
         <f aca="false">O243+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.196604973961115</v>
       </c>
       <c r="P244" s="4" t="n">
         <f aca="false">P243+$Z$186</f>
-        <v>0.33882279400669</v>
+        <v>0.34553011107986</v>
       </c>
       <c r="Q244" s="4" t="n">
         <f aca="false">Q243+$AA$186</f>
@@ -63372,11 +63372,11 @@
       </c>
       <c r="S244" s="4" t="n">
         <f aca="false">S243+$AC$186</f>
-        <v>0.213373266644042</v>
+        <v>0.206665949570871</v>
       </c>
       <c r="T244" s="4" t="n">
         <f aca="false">T243+$AD$186</f>
-        <v>0.43272523303108</v>
+        <v>0.439432550104251</v>
       </c>
       <c r="U244" s="4" t="n">
         <f aca="false">U243+$AE$186</f>
@@ -63388,7 +63388,7 @@
       </c>
       <c r="W244" s="4" t="n">
         <f aca="false">W243+$AG$186</f>
-        <v>0.19325131542453</v>
+        <v>0.186543998351359</v>
       </c>
       <c r="X244" s="4"/>
       <c r="Y244" s="4"/>
@@ -63449,7 +63449,7 @@
       </c>
       <c r="BB244" s="4" t="n">
         <f aca="false">BB243+$BL$186</f>
-        <v>0.384266383937004</v>
+        <v>0.384266383937003</v>
       </c>
       <c r="BC244" s="4"/>
       <c r="BD244" s="4"/>
@@ -63460,7 +63460,7 @@
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="1" t="n">
         <f aca="false">K241-AP241</f>
-        <v>0.088640809096446</v>
+        <v>0.0949822725110803</v>
       </c>
       <c r="E245" s="0" t="n">
         <f aca="false">E241+1</f>
@@ -63468,7 +63468,7 @@
       </c>
       <c r="K245" s="4" t="n">
         <f aca="false">K244+$Z$185</f>
-        <v>0.385895964738397</v>
+        <v>0.39272523303108</v>
       </c>
       <c r="L245" s="4" t="n">
         <f aca="false">L244+$AA$185</f>
@@ -63484,11 +63484,11 @@
       </c>
       <c r="O245" s="4" t="n">
         <f aca="false">O244+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.196483022741603</v>
       </c>
       <c r="P245" s="4" t="n">
         <f aca="false">P244+$Z$186</f>
-        <v>0.338091086689617</v>
+        <v>0.344920354982299</v>
       </c>
       <c r="Q245" s="4" t="n">
         <f aca="false">Q244+$AA$186</f>
@@ -63500,11 +63500,11 @@
       </c>
       <c r="S245" s="4" t="n">
         <f aca="false">S244+$AC$186</f>
-        <v>0.21355619347331</v>
+        <v>0.206726925180627</v>
       </c>
       <c r="T245" s="4" t="n">
         <f aca="false">T244+$AD$186</f>
-        <v>0.433700842787178</v>
+        <v>0.44053011107986</v>
       </c>
       <c r="U245" s="4" t="n">
         <f aca="false">U244+$AE$186</f>
@@ -63516,7 +63516,7 @@
       </c>
       <c r="W245" s="4" t="n">
         <f aca="false">W244+$AG$186</f>
-        <v>0.193068388595262</v>
+        <v>0.186239120302579</v>
       </c>
       <c r="X245" s="4"/>
       <c r="Y245" s="4"/>
@@ -63577,7 +63577,7 @@
       </c>
       <c r="BB245" s="4" t="n">
         <f aca="false">BB244+$BL$186</f>
-        <v>0.383656627839443</v>
+        <v>0.383656627839442</v>
       </c>
       <c r="BC245" s="4"/>
       <c r="BD245" s="4"/>
@@ -63588,7 +63588,7 @@
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="1" t="n">
         <f aca="false">K242-AP242</f>
-        <v>0.0883969066574216</v>
+        <v>0.0948603212915677</v>
       </c>
       <c r="E246" s="0" t="n">
         <f aca="false">E242+1</f>
@@ -63596,7 +63596,7 @@
       </c>
       <c r="K246" s="4" t="n">
         <f aca="false">K245+$Z$185</f>
-        <v>0.386017915957909</v>
+        <v>0.392969135470104</v>
       </c>
       <c r="L246" s="4" t="n">
         <f aca="false">L245+$AA$185</f>
@@ -63612,11 +63612,11 @@
       </c>
       <c r="O246" s="4" t="n">
         <f aca="false">O245+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.196361071522091</v>
       </c>
       <c r="P246" s="4" t="n">
         <f aca="false">P245+$Z$186</f>
-        <v>0.337359379372543</v>
+        <v>0.344310598884738</v>
       </c>
       <c r="Q246" s="4" t="n">
         <f aca="false">Q245+$AA$186</f>
@@ -63628,11 +63628,11 @@
       </c>
       <c r="S246" s="4" t="n">
         <f aca="false">S245+$AC$186</f>
-        <v>0.213739120302579</v>
+        <v>0.206787900790384</v>
       </c>
       <c r="T246" s="4" t="n">
         <f aca="false">T245+$AD$186</f>
-        <v>0.434676452543275</v>
+        <v>0.44162767205547</v>
       </c>
       <c r="U246" s="4" t="n">
         <f aca="false">U245+$AE$186</f>
@@ -63644,7 +63644,7 @@
       </c>
       <c r="W246" s="4" t="n">
         <f aca="false">W245+$AG$186</f>
-        <v>0.192885461765993</v>
+        <v>0.185934242253798</v>
       </c>
       <c r="X246" s="4"/>
       <c r="Y246" s="4"/>
@@ -63705,7 +63705,7 @@
       </c>
       <c r="BB246" s="4" t="n">
         <f aca="false">BB245+$BL$186</f>
-        <v>0.383046871741882</v>
+        <v>0.383046871741881</v>
       </c>
       <c r="BC246" s="4"/>
       <c r="BD246" s="4"/>
@@ -63716,7 +63716,7 @@
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="1" t="n">
         <f aca="false">K243-AP243</f>
-        <v>0.0881530042183972</v>
+        <v>0.0947383700720551</v>
       </c>
       <c r="E247" s="0" t="n">
         <f aca="false">E243+1</f>
@@ -63724,7 +63724,7 @@
       </c>
       <c r="K247" s="4" t="n">
         <f aca="false">K246+$Z$185</f>
-        <v>0.386139867177422</v>
+        <v>0.393213037909129</v>
       </c>
       <c r="L247" s="4" t="n">
         <f aca="false">L246+$AA$185</f>
@@ -63740,11 +63740,11 @@
       </c>
       <c r="O247" s="4" t="n">
         <f aca="false">O246+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.196239120302579</v>
       </c>
       <c r="P247" s="4" t="n">
         <f aca="false">P246+$Z$186</f>
-        <v>0.33662767205547</v>
+        <v>0.343700842787177</v>
       </c>
       <c r="Q247" s="4" t="n">
         <f aca="false">Q246+$AA$186</f>
@@ -63756,11 +63756,11 @@
       </c>
       <c r="S247" s="4" t="n">
         <f aca="false">S246+$AC$186</f>
-        <v>0.213922047131847</v>
+        <v>0.20684887640014</v>
       </c>
       <c r="T247" s="4" t="n">
         <f aca="false">T246+$AD$186</f>
-        <v>0.435652062299373</v>
+        <v>0.44272523303108</v>
       </c>
       <c r="U247" s="4" t="n">
         <f aca="false">U246+$AE$186</f>
@@ -63772,7 +63772,7 @@
       </c>
       <c r="W247" s="4" t="n">
         <f aca="false">W246+$AG$186</f>
-        <v>0.192702534936725</v>
+        <v>0.185629364205018</v>
       </c>
       <c r="X247" s="4"/>
       <c r="Y247" s="4"/>
@@ -63801,7 +63801,7 @@
       </c>
       <c r="AT247" s="4" t="n">
         <f aca="false">AT246+$BI$185</f>
-        <v>0.403656627839443</v>
+        <v>0.403656627839442</v>
       </c>
       <c r="AU247" s="4" t="n">
         <f aca="false">AU246+$BE$186</f>
@@ -63833,7 +63833,7 @@
       </c>
       <c r="BB247" s="4" t="n">
         <f aca="false">BB246+$BL$186</f>
-        <v>0.382437115644321</v>
+        <v>0.38243711564432</v>
       </c>
       <c r="BC247" s="4"/>
       <c r="BD247" s="4"/>
@@ -63844,7 +63844,7 @@
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="1" t="n">
         <f aca="false">K244-AP244</f>
-        <v>0.0879091017793728</v>
+        <v>0.0946164188525435</v>
       </c>
       <c r="E248" s="0" t="n">
         <f aca="false">E244+1</f>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="K248" s="4" t="n">
         <f aca="false">K247+$Z$185</f>
-        <v>0.386261818396934</v>
+        <v>0.393456940348153</v>
       </c>
       <c r="L248" s="4" t="n">
         <f aca="false">L247+$AA$185</f>
@@ -63868,11 +63868,11 @@
       </c>
       <c r="O248" s="4" t="n">
         <f aca="false">O247+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.196117169083067</v>
       </c>
       <c r="P248" s="4" t="n">
         <f aca="false">P247+$Z$186</f>
-        <v>0.335895964738397</v>
+        <v>0.343091086689616</v>
       </c>
       <c r="Q248" s="4" t="n">
         <f aca="false">Q247+$AA$186</f>
@@ -63884,11 +63884,11 @@
       </c>
       <c r="S248" s="4" t="n">
         <f aca="false">S247+$AC$186</f>
-        <v>0.214104973961115</v>
+        <v>0.206909852009896</v>
       </c>
       <c r="T248" s="4" t="n">
         <f aca="false">T247+$AD$186</f>
-        <v>0.43662767205547</v>
+        <v>0.44382279400669</v>
       </c>
       <c r="U248" s="4" t="n">
         <f aca="false">U247+$AE$186</f>
@@ -63900,7 +63900,7 @@
       </c>
       <c r="W248" s="4" t="n">
         <f aca="false">W247+$AG$186</f>
-        <v>0.192519608107457</v>
+        <v>0.185324486156237</v>
       </c>
       <c r="X248" s="4"/>
       <c r="Y248" s="4"/>
@@ -63961,7 +63961,7 @@
       </c>
       <c r="BB248" s="4" t="n">
         <f aca="false">BB247+$BL$186</f>
-        <v>0.38182735954676</v>
+        <v>0.381827359546759</v>
       </c>
       <c r="BC248" s="4"/>
       <c r="BD248" s="4"/>
@@ -63972,7 +63972,7 @@
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="1" t="n">
         <f aca="false">K245-AP245</f>
-        <v>0.0876651993403484</v>
+        <v>0.0944944676330308</v>
       </c>
       <c r="E249" s="0" t="n">
         <f aca="false">E245+1</f>
@@ -63980,7 +63980,7 @@
       </c>
       <c r="K249" s="4" t="n">
         <f aca="false">K248+$Z$185</f>
-        <v>0.386383769616446</v>
+        <v>0.393700842787177</v>
       </c>
       <c r="L249" s="4" t="n">
         <f aca="false">L248+$AA$185</f>
@@ -63996,11 +63996,11 @@
       </c>
       <c r="O249" s="4" t="n">
         <f aca="false">O248+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.195995217863554</v>
       </c>
       <c r="P249" s="4" t="n">
         <f aca="false">P248+$Z$186</f>
-        <v>0.335164257421324</v>
+        <v>0.342481330592055</v>
       </c>
       <c r="Q249" s="4" t="n">
         <f aca="false">Q248+$AA$186</f>
@@ -64012,11 +64012,11 @@
       </c>
       <c r="S249" s="4" t="n">
         <f aca="false">S248+$AC$186</f>
-        <v>0.214287900790384</v>
+        <v>0.206970827619652</v>
       </c>
       <c r="T249" s="4" t="n">
         <f aca="false">T248+$AD$186</f>
-        <v>0.437603281811568</v>
+        <v>0.444920354982299</v>
       </c>
       <c r="U249" s="4" t="n">
         <f aca="false">U248+$AE$186</f>
@@ -64028,7 +64028,7 @@
       </c>
       <c r="W249" s="4" t="n">
         <f aca="false">W248+$AG$186</f>
-        <v>0.192336681278188</v>
+        <v>0.185019608107457</v>
       </c>
       <c r="X249" s="4"/>
       <c r="Y249" s="4"/>
@@ -64089,7 +64089,7 @@
       </c>
       <c r="BB249" s="4" t="n">
         <f aca="false">BB248+$BL$186</f>
-        <v>0.381217603449199</v>
+        <v>0.381217603449198</v>
       </c>
       <c r="BC249" s="4"/>
       <c r="BD249" s="4"/>
@@ -64100,7 +64100,7 @@
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="1" t="n">
         <f aca="false">K246-AP246</f>
-        <v>0.087421296901324</v>
+        <v>0.0943725164135192</v>
       </c>
       <c r="E250" s="0" t="n">
         <f aca="false">E246+1</f>
@@ -64108,7 +64108,7 @@
       </c>
       <c r="K250" s="4" t="n">
         <f aca="false">K249+$Z$185</f>
-        <v>0.386505720835958</v>
+        <v>0.393944745226202</v>
       </c>
       <c r="L250" s="4" t="n">
         <f aca="false">L249+$AA$185</f>
@@ -64124,11 +64124,11 @@
       </c>
       <c r="O250" s="4" t="n">
         <f aca="false">O249+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.195873266644042</v>
       </c>
       <c r="P250" s="4" t="n">
         <f aca="false">P249+$Z$186</f>
-        <v>0.334432550104251</v>
+        <v>0.341871574494494</v>
       </c>
       <c r="Q250" s="4" t="n">
         <f aca="false">Q249+$AA$186</f>
@@ -64140,11 +64140,11 @@
       </c>
       <c r="S250" s="4" t="n">
         <f aca="false">S249+$AC$186</f>
-        <v>0.214470827619652</v>
+        <v>0.207031803229408</v>
       </c>
       <c r="T250" s="4" t="n">
         <f aca="false">T249+$AD$186</f>
-        <v>0.438578891567665</v>
+        <v>0.446017915957909</v>
       </c>
       <c r="U250" s="4" t="n">
         <f aca="false">U249+$AE$186</f>
@@ -64156,7 +64156,7 @@
       </c>
       <c r="W250" s="4" t="n">
         <f aca="false">W249+$AG$186</f>
-        <v>0.19215375444892</v>
+        <v>0.184714730058676</v>
       </c>
       <c r="X250" s="4"/>
       <c r="Y250" s="4"/>
@@ -64217,7 +64217,7 @@
       </c>
       <c r="BB250" s="4" t="n">
         <f aca="false">BB249+$BL$186</f>
-        <v>0.380607847351638</v>
+        <v>0.380607847351637</v>
       </c>
       <c r="BC250" s="4"/>
       <c r="BD250" s="4"/>
@@ -64228,7 +64228,7 @@
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="1" t="n">
         <f aca="false">K247-AP247</f>
-        <v>0.0871773944622996</v>
+        <v>0.0942505651940066</v>
       </c>
       <c r="E251" s="0" t="n">
         <f aca="false">E247+1</f>
@@ -64236,7 +64236,7 @@
       </c>
       <c r="K251" s="4" t="n">
         <f aca="false">K250+$Z$185</f>
-        <v>0.38662767205547</v>
+        <v>0.394188647665226</v>
       </c>
       <c r="L251" s="4" t="n">
         <f aca="false">L250+$AA$185</f>
@@ -64252,11 +64252,11 @@
       </c>
       <c r="O251" s="4" t="n">
         <f aca="false">O250+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.19575131542453</v>
       </c>
       <c r="P251" s="4" t="n">
         <f aca="false">P250+$Z$186</f>
-        <v>0.333700842787178</v>
+        <v>0.341261818396933</v>
       </c>
       <c r="Q251" s="4" t="n">
         <f aca="false">Q250+$AA$186</f>
@@ -64268,11 +64268,11 @@
       </c>
       <c r="S251" s="4" t="n">
         <f aca="false">S250+$AC$186</f>
-        <v>0.21465375444892</v>
+        <v>0.207092778839164</v>
       </c>
       <c r="T251" s="4" t="n">
         <f aca="false">T250+$AD$186</f>
-        <v>0.439554501323763</v>
+        <v>0.447115476933519</v>
       </c>
       <c r="U251" s="4" t="n">
         <f aca="false">U250+$AE$186</f>
@@ -64284,7 +64284,7 @@
       </c>
       <c r="W251" s="4" t="n">
         <f aca="false">W250+$AG$186</f>
-        <v>0.191970827619652</v>
+        <v>0.184409852009896</v>
       </c>
       <c r="X251" s="4"/>
       <c r="Y251" s="4"/>
@@ -64345,7 +64345,7 @@
       </c>
       <c r="BB251" s="4" t="n">
         <f aca="false">BB250+$BL$186</f>
-        <v>0.379998091254077</v>
+        <v>0.379998091254076</v>
       </c>
       <c r="BC251" s="4"/>
       <c r="BD251" s="4"/>
@@ -64356,7 +64356,7 @@
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="1" t="n">
         <f aca="false">K248-AP248</f>
-        <v>0.0869334920232752</v>
+        <v>0.094128613974495</v>
       </c>
       <c r="E252" s="0" t="n">
         <f aca="false">E248+1</f>
@@ -64364,7 +64364,7 @@
       </c>
       <c r="K252" s="4" t="n">
         <f aca="false">K251+$Z$185</f>
-        <v>0.386749623274983</v>
+        <v>0.394432550104251</v>
       </c>
       <c r="L252" s="4" t="n">
         <f aca="false">L251+$AA$185</f>
@@ -64380,11 +64380,11 @@
       </c>
       <c r="O252" s="4" t="n">
         <f aca="false">O251+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.195629364205018</v>
       </c>
       <c r="P252" s="4" t="n">
         <f aca="false">P251+$Z$186</f>
-        <v>0.332969135470104</v>
+        <v>0.340652062299372</v>
       </c>
       <c r="Q252" s="4" t="n">
         <f aca="false">Q251+$AA$186</f>
@@ -64396,11 +64396,11 @@
       </c>
       <c r="S252" s="4" t="n">
         <f aca="false">S251+$AC$186</f>
-        <v>0.214836681278188</v>
+        <v>0.20715375444892</v>
       </c>
       <c r="T252" s="4" t="n">
         <f aca="false">T251+$AD$186</f>
-        <v>0.440530111079861</v>
+        <v>0.448213037909129</v>
       </c>
       <c r="U252" s="4" t="n">
         <f aca="false">U251+$AE$186</f>
@@ -64412,7 +64412,7 @@
       </c>
       <c r="W252" s="4" t="n">
         <f aca="false">W251+$AG$186</f>
-        <v>0.191787900790384</v>
+        <v>0.184104973961115</v>
       </c>
       <c r="X252" s="4"/>
       <c r="Y252" s="4"/>
@@ -64441,7 +64441,7 @@
       </c>
       <c r="AT252" s="4" t="n">
         <f aca="false">AT251+$BI$185</f>
-        <v>0.402437115644321</v>
+        <v>0.40243711564432</v>
       </c>
       <c r="AU252" s="4" t="n">
         <f aca="false">AU251+$BE$186</f>
@@ -64457,7 +64457,7 @@
       </c>
       <c r="AX252" s="4" t="n">
         <f aca="false">AX251+$BH$186</f>
-        <v>0.425485896132126</v>
+        <v>0.425485896132125</v>
       </c>
       <c r="AY252" s="4" t="n">
         <f aca="false">AY251+$BI$186</f>
@@ -64484,7 +64484,7 @@
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="1" t="n">
         <f aca="false">K249-AP249</f>
-        <v>0.0866895895842508</v>
+        <v>0.0940066627549824</v>
       </c>
       <c r="E253" s="0" t="n">
         <f aca="false">E249+1</f>
@@ -64492,7 +64492,7 @@
       </c>
       <c r="K253" s="4" t="n">
         <f aca="false">K252+$Z$185</f>
-        <v>0.386871574494495</v>
+        <v>0.394676452543275</v>
       </c>
       <c r="L253" s="4" t="n">
         <f aca="false">L252+$AA$185</f>
@@ -64508,11 +64508,11 @@
       </c>
       <c r="O253" s="4" t="n">
         <f aca="false">O252+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.195507412985506</v>
       </c>
       <c r="P253" s="4" t="n">
         <f aca="false">P252+$Z$186</f>
-        <v>0.332237428153031</v>
+        <v>0.340042306201811</v>
       </c>
       <c r="Q253" s="4" t="n">
         <f aca="false">Q252+$AA$186</f>
@@ -64524,11 +64524,11 @@
       </c>
       <c r="S253" s="4" t="n">
         <f aca="false">S252+$AC$186</f>
-        <v>0.215019608107457</v>
+        <v>0.207214730058676</v>
       </c>
       <c r="T253" s="4" t="n">
         <f aca="false">T252+$AD$186</f>
-        <v>0.441505720835958</v>
+        <v>0.449310598884738</v>
       </c>
       <c r="U253" s="4" t="n">
         <f aca="false">U252+$AE$186</f>
@@ -64540,7 +64540,7 @@
       </c>
       <c r="W253" s="4" t="n">
         <f aca="false">W252+$AG$186</f>
-        <v>0.191604973961115</v>
+        <v>0.183800095912335</v>
       </c>
       <c r="X253" s="4"/>
       <c r="Y253" s="4"/>
@@ -64612,7 +64612,7 @@
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="1" t="n">
         <f aca="false">K250-AP250</f>
-        <v>0.0864456871452264</v>
+        <v>0.0938847115354698</v>
       </c>
       <c r="E254" s="0" t="n">
         <f aca="false">E250+1</f>
@@ -64620,7 +64620,7 @@
       </c>
       <c r="K254" s="4" t="n">
         <f aca="false">K253+$Z$185</f>
-        <v>0.386993525714007</v>
+        <v>0.394920354982299</v>
       </c>
       <c r="L254" s="4" t="n">
         <f aca="false">L253+$AA$185</f>
@@ -64636,11 +64636,11 @@
       </c>
       <c r="O254" s="4" t="n">
         <f aca="false">O253+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.195385461765993</v>
       </c>
       <c r="P254" s="4" t="n">
         <f aca="false">P253+$Z$186</f>
-        <v>0.331505720835958</v>
+        <v>0.339432550104251</v>
       </c>
       <c r="Q254" s="4" t="n">
         <f aca="false">Q253+$AA$186</f>
@@ -64652,11 +64652,11 @@
       </c>
       <c r="S254" s="4" t="n">
         <f aca="false">S253+$AC$186</f>
-        <v>0.215202534936725</v>
+        <v>0.207275705668432</v>
       </c>
       <c r="T254" s="4" t="n">
         <f aca="false">T253+$AD$186</f>
-        <v>0.442481330592056</v>
+        <v>0.450408159860348</v>
       </c>
       <c r="U254" s="4" t="n">
         <f aca="false">U253+$AE$186</f>
@@ -64668,7 +64668,7 @@
       </c>
       <c r="W254" s="4" t="n">
         <f aca="false">W253+$AG$186</f>
-        <v>0.191422047131847</v>
+        <v>0.183495217863554</v>
       </c>
       <c r="X254" s="4"/>
       <c r="Y254" s="4"/>
@@ -64740,7 +64740,7 @@
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="1" t="n">
         <f aca="false">K251-AP251</f>
-        <v>0.0862017847062021</v>
+        <v>0.0937627603159582</v>
       </c>
       <c r="E255" s="0" t="n">
         <f aca="false">E251+1</f>
@@ -64748,7 +64748,7 @@
       </c>
       <c r="K255" s="4" t="n">
         <f aca="false">K254+$Z$185</f>
-        <v>0.387115476933519</v>
+        <v>0.395164257421324</v>
       </c>
       <c r="L255" s="4" t="n">
         <f aca="false">L254+$AA$185</f>
@@ -64764,11 +64764,11 @@
       </c>
       <c r="O255" s="4" t="n">
         <f aca="false">O254+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.195263510546481</v>
       </c>
       <c r="P255" s="4" t="n">
         <f aca="false">P254+$Z$186</f>
-        <v>0.330774013518885</v>
+        <v>0.33882279400669</v>
       </c>
       <c r="Q255" s="4" t="n">
         <f aca="false">Q254+$AA$186</f>
@@ -64780,11 +64780,11 @@
       </c>
       <c r="S255" s="4" t="n">
         <f aca="false">S254+$AC$186</f>
-        <v>0.215385461765993</v>
+        <v>0.207336681278188</v>
       </c>
       <c r="T255" s="4" t="n">
         <f aca="false">T254+$AD$186</f>
-        <v>0.443456940348153</v>
+        <v>0.451505720835958</v>
       </c>
       <c r="U255" s="4" t="n">
         <f aca="false">U254+$AE$186</f>
@@ -64796,7 +64796,7 @@
       </c>
       <c r="W255" s="4" t="n">
         <f aca="false">W254+$AG$186</f>
-        <v>0.191239120302579</v>
+        <v>0.183190339814774</v>
       </c>
       <c r="X255" s="4"/>
       <c r="Y255" s="4"/>
@@ -64868,7 +64868,7 @@
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="1" t="n">
         <f aca="false">K252-AP252</f>
-        <v>0.0859578822671777</v>
+        <v>0.0936408090964456</v>
       </c>
       <c r="E256" s="0" t="n">
         <f aca="false">E252+1</f>
@@ -64876,7 +64876,7 @@
       </c>
       <c r="K256" s="4" t="n">
         <f aca="false">K255+$Z$185</f>
-        <v>0.387237428153031</v>
+        <v>0.395408159860348</v>
       </c>
       <c r="L256" s="4" t="n">
         <f aca="false">L255+$AA$185</f>
@@ -64892,11 +64892,11 @@
       </c>
       <c r="O256" s="4" t="n">
         <f aca="false">O255+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.195141559326969</v>
       </c>
       <c r="P256" s="4" t="n">
         <f aca="false">P255+$Z$186</f>
-        <v>0.330042306201812</v>
+        <v>0.338213037909129</v>
       </c>
       <c r="Q256" s="4" t="n">
         <f aca="false">Q255+$AA$186</f>
@@ -64908,11 +64908,11 @@
       </c>
       <c r="S256" s="4" t="n">
         <f aca="false">S255+$AC$186</f>
-        <v>0.215568388595262</v>
+        <v>0.207397656887945</v>
       </c>
       <c r="T256" s="4" t="n">
         <f aca="false">T255+$AD$186</f>
-        <v>0.444432550104251</v>
+        <v>0.452603281811568</v>
       </c>
       <c r="U256" s="4" t="n">
         <f aca="false">U255+$AE$186</f>
@@ -64924,7 +64924,7 @@
       </c>
       <c r="W256" s="4" t="n">
         <f aca="false">W255+$AG$186</f>
-        <v>0.19105619347331</v>
+        <v>0.182885461765993</v>
       </c>
       <c r="X256" s="4"/>
       <c r="Y256" s="4"/>
@@ -64996,7 +64996,7 @@
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="1" t="n">
         <f aca="false">K253-AP253</f>
-        <v>0.0857139798281533</v>
+        <v>0.093518857876934</v>
       </c>
       <c r="E257" s="0" t="n">
         <f aca="false">E253+1</f>
@@ -65004,7 +65004,7 @@
       </c>
       <c r="K257" s="4" t="n">
         <f aca="false">K256+$Z$185</f>
-        <v>0.387359379372543</v>
+        <v>0.395652062299373</v>
       </c>
       <c r="L257" s="4" t="n">
         <f aca="false">L256+$AA$185</f>
@@ -65020,11 +65020,11 @@
       </c>
       <c r="O257" s="4" t="n">
         <f aca="false">O256+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.195019608107457</v>
       </c>
       <c r="P257" s="4" t="n">
         <f aca="false">P256+$Z$186</f>
-        <v>0.329310598884739</v>
+        <v>0.337603281811568</v>
       </c>
       <c r="Q257" s="4" t="n">
         <f aca="false">Q256+$AA$186</f>
@@ -65036,11 +65036,11 @@
       </c>
       <c r="S257" s="4" t="n">
         <f aca="false">S256+$AC$186</f>
-        <v>0.21575131542453</v>
+        <v>0.207458632497701</v>
       </c>
       <c r="T257" s="4" t="n">
         <f aca="false">T256+$AD$186</f>
-        <v>0.445408159860348</v>
+        <v>0.453700842787177</v>
       </c>
       <c r="U257" s="4" t="n">
         <f aca="false">U256+$AE$186</f>
@@ -65052,7 +65052,7 @@
       </c>
       <c r="W257" s="4" t="n">
         <f aca="false">W256+$AG$186</f>
-        <v>0.190873266644042</v>
+        <v>0.182580583717213</v>
       </c>
       <c r="X257" s="4"/>
       <c r="Y257" s="4"/>
@@ -65081,7 +65081,7 @@
       </c>
       <c r="AT257" s="4" t="n">
         <f aca="false">AT256+$BI$185</f>
-        <v>0.401217603449199</v>
+        <v>0.401217603449198</v>
       </c>
       <c r="AU257" s="4" t="n">
         <f aca="false">AU256+$BE$186</f>
@@ -65124,7 +65124,7 @@
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="1" t="n">
         <f aca="false">K254-AP254</f>
-        <v>0.0854700773891289</v>
+        <v>0.0933969066574213</v>
       </c>
       <c r="E258" s="0" t="n">
         <f aca="false">E254+1</f>
@@ -65132,7 +65132,7 @@
       </c>
       <c r="K258" s="4" t="n">
         <f aca="false">K257+$Z$185</f>
-        <v>0.387481330592056</v>
+        <v>0.395895964738397</v>
       </c>
       <c r="L258" s="4" t="n">
         <f aca="false">L257+$AA$185</f>
@@ -65148,11 +65148,11 @@
       </c>
       <c r="O258" s="4" t="n">
         <f aca="false">O257+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.194897656887945</v>
       </c>
       <c r="P258" s="4" t="n">
         <f aca="false">P257+$Z$186</f>
-        <v>0.328578891567665</v>
+        <v>0.336993525714007</v>
       </c>
       <c r="Q258" s="4" t="n">
         <f aca="false">Q257+$AA$186</f>
@@ -65164,11 +65164,11 @@
       </c>
       <c r="S258" s="4" t="n">
         <f aca="false">S257+$AC$186</f>
-        <v>0.215934242253798</v>
+        <v>0.207519608107457</v>
       </c>
       <c r="T258" s="4" t="n">
         <f aca="false">T257+$AD$186</f>
-        <v>0.446383769616446</v>
+        <v>0.454798403762787</v>
       </c>
       <c r="U258" s="4" t="n">
         <f aca="false">U257+$AE$186</f>
@@ -65180,7 +65180,7 @@
       </c>
       <c r="W258" s="4" t="n">
         <f aca="false">W257+$AG$186</f>
-        <v>0.190690339814774</v>
+        <v>0.182275705668432</v>
       </c>
       <c r="X258" s="4"/>
       <c r="Y258" s="4"/>
@@ -65225,7 +65225,7 @@
       </c>
       <c r="AX258" s="4" t="n">
         <f aca="false">AX257+$BH$186</f>
-        <v>0.426217603449199</v>
+        <v>0.426217603449198</v>
       </c>
       <c r="AY258" s="4" t="n">
         <f aca="false">AY257+$BI$186</f>
@@ -65252,7 +65252,7 @@
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="1" t="n">
         <f aca="false">K255-AP255</f>
-        <v>0.0852261749501045</v>
+        <v>0.0932749554379088</v>
       </c>
       <c r="E259" s="0" t="n">
         <f aca="false">E255+1</f>
@@ -65260,7 +65260,7 @@
       </c>
       <c r="K259" s="4" t="n">
         <f aca="false">K258+$Z$185</f>
-        <v>0.387603281811568</v>
+        <v>0.396139867177421</v>
       </c>
       <c r="L259" s="4" t="n">
         <f aca="false">L258+$AA$185</f>
@@ -65276,11 +65276,11 @@
       </c>
       <c r="O259" s="4" t="n">
         <f aca="false">O258+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.194775705668432</v>
       </c>
       <c r="P259" s="4" t="n">
         <f aca="false">P258+$Z$186</f>
-        <v>0.327847184250592</v>
+        <v>0.336383769616446</v>
       </c>
       <c r="Q259" s="4" t="n">
         <f aca="false">Q258+$AA$186</f>
@@ -65292,11 +65292,11 @@
       </c>
       <c r="S259" s="4" t="n">
         <f aca="false">S258+$AC$186</f>
-        <v>0.216117169083066</v>
+        <v>0.207580583717213</v>
       </c>
       <c r="T259" s="4" t="n">
         <f aca="false">T258+$AD$186</f>
-        <v>0.447359379372544</v>
+        <v>0.455895964738397</v>
       </c>
       <c r="U259" s="4" t="n">
         <f aca="false">U258+$AE$186</f>
@@ -65308,7 +65308,7 @@
       </c>
       <c r="W259" s="4" t="n">
         <f aca="false">W258+$AG$186</f>
-        <v>0.190507412985506</v>
+        <v>0.181970827619652</v>
       </c>
       <c r="X259" s="4"/>
       <c r="Y259" s="4"/>
@@ -65380,7 +65380,7 @@
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="1" t="n">
         <f aca="false">K256-AP256</f>
-        <v>0.0849822725110801</v>
+        <v>0.0931530042183971</v>
       </c>
       <c r="E260" s="0" t="n">
         <f aca="false">E256+1</f>
@@ -65388,7 +65388,7 @@
       </c>
       <c r="K260" s="4" t="n">
         <f aca="false">K259+$Z$185</f>
-        <v>0.38772523303108</v>
+        <v>0.396383769616446</v>
       </c>
       <c r="L260" s="4" t="n">
         <f aca="false">L259+$AA$185</f>
@@ -65404,11 +65404,11 @@
       </c>
       <c r="O260" s="4" t="n">
         <f aca="false">O259+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.19465375444892</v>
       </c>
       <c r="P260" s="4" t="n">
         <f aca="false">P259+$Z$186</f>
-        <v>0.327115476933519</v>
+        <v>0.335774013518885</v>
       </c>
       <c r="Q260" s="4" t="n">
         <f aca="false">Q259+$AA$186</f>
@@ -65420,11 +65420,11 @@
       </c>
       <c r="S260" s="4" t="n">
         <f aca="false">S259+$AC$186</f>
-        <v>0.216300095912335</v>
+        <v>0.207641559326969</v>
       </c>
       <c r="T260" s="4" t="n">
         <f aca="false">T259+$AD$186</f>
-        <v>0.448334989128641</v>
+        <v>0.456993525714007</v>
       </c>
       <c r="U260" s="4" t="n">
         <f aca="false">U259+$AE$186</f>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="W260" s="4" t="n">
         <f aca="false">W259+$AG$186</f>
-        <v>0.190324486156237</v>
+        <v>0.181665949570871</v>
       </c>
       <c r="X260" s="4"/>
       <c r="Y260" s="4"/>
@@ -65508,7 +65508,7 @@
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="1" t="n">
         <f aca="false">K257-AP257</f>
-        <v>0.0847383700720557</v>
+        <v>0.0930310529988845</v>
       </c>
       <c r="E261" s="0" t="n">
         <f aca="false">E257+1</f>
@@ -65516,7 +65516,7 @@
       </c>
       <c r="K261" s="4" t="n">
         <f aca="false">K260+$Z$185</f>
-        <v>0.387847184250592</v>
+        <v>0.39662767205547</v>
       </c>
       <c r="L261" s="4" t="n">
         <f aca="false">L260+$AA$185</f>
@@ -65532,11 +65532,11 @@
       </c>
       <c r="O261" s="4" t="n">
         <f aca="false">O260+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.194531803229408</v>
       </c>
       <c r="P261" s="4" t="n">
         <f aca="false">P260+$Z$186</f>
-        <v>0.326383769616446</v>
+        <v>0.335164257421324</v>
       </c>
       <c r="Q261" s="4" t="n">
         <f aca="false">Q260+$AA$186</f>
@@ -65548,11 +65548,11 @@
       </c>
       <c r="S261" s="4" t="n">
         <f aca="false">S260+$AC$186</f>
-        <v>0.216483022741603</v>
+        <v>0.207702534936725</v>
       </c>
       <c r="T261" s="4" t="n">
         <f aca="false">T260+$AD$186</f>
-        <v>0.449310598884739</v>
+        <v>0.458091086689617</v>
       </c>
       <c r="U261" s="4" t="n">
         <f aca="false">U260+$AE$186</f>
@@ -65564,7 +65564,7 @@
       </c>
       <c r="W261" s="4" t="n">
         <f aca="false">W260+$AG$186</f>
-        <v>0.190141559326969</v>
+        <v>0.181361071522091</v>
       </c>
       <c r="X261" s="4"/>
       <c r="Y261" s="4"/>
@@ -65636,7 +65636,7 @@
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="1" t="n">
         <f aca="false">K258-AP258</f>
-        <v>0.0844944676330313</v>
+        <v>0.0929091017793729</v>
       </c>
       <c r="E262" s="0" t="n">
         <f aca="false">E258+1</f>
@@ -65644,7 +65644,7 @@
       </c>
       <c r="K262" s="4" t="n">
         <f aca="false">K261+$Z$185</f>
-        <v>0.387969135470104</v>
+        <v>0.396871574494494</v>
       </c>
       <c r="L262" s="4" t="n">
         <f aca="false">L261+$AA$185</f>
@@ -65660,11 +65660,11 @@
       </c>
       <c r="O262" s="4" t="n">
         <f aca="false">O261+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.194409852009896</v>
       </c>
       <c r="P262" s="4" t="n">
         <f aca="false">P261+$Z$186</f>
-        <v>0.325652062299373</v>
+        <v>0.334554501323763</v>
       </c>
       <c r="Q262" s="4" t="n">
         <f aca="false">Q261+$AA$186</f>
@@ -65676,11 +65676,11 @@
       </c>
       <c r="S262" s="4" t="n">
         <f aca="false">S261+$AC$186</f>
-        <v>0.216665949570871</v>
+        <v>0.207763510546481</v>
       </c>
       <c r="T262" s="4" t="n">
         <f aca="false">T261+$AD$186</f>
-        <v>0.450286208640836</v>
+        <v>0.459188647665226</v>
       </c>
       <c r="U262" s="4" t="n">
         <f aca="false">U261+$AE$186</f>
@@ -65692,7 +65692,7 @@
       </c>
       <c r="W262" s="4" t="n">
         <f aca="false">W261+$AG$186</f>
-        <v>0.189958632497701</v>
+        <v>0.18105619347331</v>
       </c>
       <c r="X262" s="4"/>
       <c r="Y262" s="4"/>
@@ -65721,7 +65721,7 @@
       </c>
       <c r="AT262" s="4" t="n">
         <f aca="false">AT261+$BI$185</f>
-        <v>0.399998091254077</v>
+        <v>0.399998091254076</v>
       </c>
       <c r="AU262" s="4" t="n">
         <f aca="false">AU261+$BE$186</f>
@@ -65764,7 +65764,7 @@
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="1" t="n">
         <f aca="false">K259-AP259</f>
-        <v>0.0842505651940069</v>
+        <v>0.0927871505598603</v>
       </c>
       <c r="E263" s="0" t="n">
         <f aca="false">E259+1</f>
@@ -65772,7 +65772,7 @@
       </c>
       <c r="K263" s="4" t="n">
         <f aca="false">K262+$Z$185</f>
-        <v>0.388091086689617</v>
+        <v>0.397115476933519</v>
       </c>
       <c r="L263" s="4" t="n">
         <f aca="false">L262+$AA$185</f>
@@ -65788,11 +65788,11 @@
       </c>
       <c r="O263" s="4" t="n">
         <f aca="false">O262+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.194287900790384</v>
       </c>
       <c r="P263" s="4" t="n">
         <f aca="false">P262+$Z$186</f>
-        <v>0.3249203549823</v>
+        <v>0.333944745226202</v>
       </c>
       <c r="Q263" s="4" t="n">
         <f aca="false">Q262+$AA$186</f>
@@ -65804,11 +65804,11 @@
       </c>
       <c r="S263" s="4" t="n">
         <f aca="false">S262+$AC$186</f>
-        <v>0.21684887640014</v>
+        <v>0.207824486156237</v>
       </c>
       <c r="T263" s="4" t="n">
         <f aca="false">T262+$AD$186</f>
-        <v>0.451261818396934</v>
+        <v>0.460286208640836</v>
       </c>
       <c r="U263" s="4" t="n">
         <f aca="false">U262+$AE$186</f>
@@ -65820,7 +65820,7 @@
       </c>
       <c r="W263" s="4" t="n">
         <f aca="false">W262+$AG$186</f>
-        <v>0.189775705668432</v>
+        <v>0.18075131542453</v>
       </c>
       <c r="X263" s="4"/>
       <c r="Y263" s="4"/>
@@ -65892,7 +65892,7 @@
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="1" t="n">
         <f aca="false">K260-AP260</f>
-        <v>0.0840066627549825</v>
+        <v>0.0926651993403477</v>
       </c>
       <c r="E264" s="0" t="n">
         <f aca="false">E260+1</f>
@@ -65900,7 +65900,7 @@
       </c>
       <c r="K264" s="4" t="n">
         <f aca="false">K263+$Z$185</f>
-        <v>0.388213037909129</v>
+        <v>0.397359379372543</v>
       </c>
       <c r="L264" s="4" t="n">
         <f aca="false">L263+$AA$185</f>
@@ -65916,11 +65916,11 @@
       </c>
       <c r="O264" s="4" t="n">
         <f aca="false">O263+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.194165949570871</v>
       </c>
       <c r="P264" s="4" t="n">
         <f aca="false">P263+$Z$186</f>
-        <v>0.324188647665226</v>
+        <v>0.333334989128641</v>
       </c>
       <c r="Q264" s="4" t="n">
         <f aca="false">Q263+$AA$186</f>
@@ -65932,11 +65932,11 @@
       </c>
       <c r="S264" s="4" t="n">
         <f aca="false">S263+$AC$186</f>
-        <v>0.217031803229408</v>
+        <v>0.207885461765993</v>
       </c>
       <c r="T264" s="4" t="n">
         <f aca="false">T263+$AD$186</f>
-        <v>0.452237428153031</v>
+        <v>0.461383769616446</v>
       </c>
       <c r="U264" s="4" t="n">
         <f aca="false">U263+$AE$186</f>
@@ -65948,7 +65948,7 @@
       </c>
       <c r="W264" s="4" t="n">
         <f aca="false">W263+$AG$186</f>
-        <v>0.189592778839164</v>
+        <v>0.180446437375749</v>
       </c>
       <c r="X264" s="4"/>
       <c r="Y264" s="4"/>
@@ -66020,7 +66020,7 @@
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="1" t="n">
         <f aca="false">K261-AP261</f>
-        <v>0.0837627603159582</v>
+        <v>0.0925432481208361</v>
       </c>
       <c r="E265" s="0" t="n">
         <f aca="false">E261+1</f>
@@ -66028,7 +66028,7 @@
       </c>
       <c r="K265" s="4" t="n">
         <f aca="false">K264+$Z$185</f>
-        <v>0.388334989128641</v>
+        <v>0.397603281811568</v>
       </c>
       <c r="L265" s="4" t="n">
         <f aca="false">L264+$AA$185</f>
@@ -66044,11 +66044,11 @@
       </c>
       <c r="O265" s="4" t="n">
         <f aca="false">O264+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.194043998351359</v>
       </c>
       <c r="P265" s="4" t="n">
         <f aca="false">P264+$Z$186</f>
-        <v>0.323456940348153</v>
+        <v>0.33272523303108</v>
       </c>
       <c r="Q265" s="4" t="n">
         <f aca="false">Q264+$AA$186</f>
@@ -66060,11 +66060,11 @@
       </c>
       <c r="S265" s="4" t="n">
         <f aca="false">S264+$AC$186</f>
-        <v>0.217214730058676</v>
+        <v>0.207946437375749</v>
       </c>
       <c r="T265" s="4" t="n">
         <f aca="false">T264+$AD$186</f>
-        <v>0.453213037909129</v>
+        <v>0.462481330592056</v>
       </c>
       <c r="U265" s="4" t="n">
         <f aca="false">U264+$AE$186</f>
@@ -66076,7 +66076,7 @@
       </c>
       <c r="W265" s="4" t="n">
         <f aca="false">W264+$AG$186</f>
-        <v>0.189409852009896</v>
+        <v>0.180141559326969</v>
       </c>
       <c r="X265" s="4"/>
       <c r="Y265" s="4"/>
@@ -66105,7 +66105,7 @@
       </c>
       <c r="AT265" s="4" t="n">
         <f aca="false">AT264+$BI$185</f>
-        <v>0.399266383937004</v>
+        <v>0.399266383937003</v>
       </c>
       <c r="AU265" s="4" t="n">
         <f aca="false">AU264+$BE$186</f>
@@ -66148,7 +66148,7 @@
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="1" t="n">
         <f aca="false">K262-AP262</f>
-        <v>0.0835188578769338</v>
+        <v>0.0924212969013235</v>
       </c>
       <c r="E266" s="0" t="n">
         <f aca="false">E262+1</f>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="K266" s="4" t="n">
         <f aca="false">K265+$Z$185</f>
-        <v>0.388456940348153</v>
+        <v>0.397847184250592</v>
       </c>
       <c r="L266" s="4" t="n">
         <f aca="false">L265+$AA$185</f>
@@ -66172,11 +66172,11 @@
       </c>
       <c r="O266" s="4" t="n">
         <f aca="false">O265+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.193922047131847</v>
       </c>
       <c r="P266" s="4" t="n">
         <f aca="false">P265+$Z$186</f>
-        <v>0.32272523303108</v>
+        <v>0.332115476933519</v>
       </c>
       <c r="Q266" s="4" t="n">
         <f aca="false">Q265+$AA$186</f>
@@ -66188,11 +66188,11 @@
       </c>
       <c r="S266" s="4" t="n">
         <f aca="false">S265+$AC$186</f>
-        <v>0.217397656887945</v>
+        <v>0.208007412985506</v>
       </c>
       <c r="T266" s="4" t="n">
         <f aca="false">T265+$AD$186</f>
-        <v>0.454188647665226</v>
+        <v>0.463578891567665</v>
       </c>
       <c r="U266" s="4" t="n">
         <f aca="false">U265+$AE$186</f>
@@ -66204,7 +66204,7 @@
       </c>
       <c r="W266" s="4" t="n">
         <f aca="false">W265+$AG$186</f>
-        <v>0.189226925180627</v>
+        <v>0.179836681278188</v>
       </c>
       <c r="X266" s="4"/>
       <c r="Y266" s="4"/>
@@ -66276,7 +66276,7 @@
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="1" t="n">
         <f aca="false">K263-AP263</f>
-        <v>0.0832749554379094</v>
+        <v>0.0922993456818119</v>
       </c>
       <c r="E267" s="0" t="n">
         <f aca="false">E263+1</f>
@@ -66284,7 +66284,7 @@
       </c>
       <c r="K267" s="4" t="n">
         <f aca="false">K266+$Z$185</f>
-        <v>0.388578891567665</v>
+        <v>0.398091086689616</v>
       </c>
       <c r="L267" s="4" t="n">
         <f aca="false">L266+$AA$185</f>
@@ -66300,11 +66300,11 @@
       </c>
       <c r="O267" s="4" t="n">
         <f aca="false">O266+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.193800095912335</v>
       </c>
       <c r="P267" s="4" t="n">
         <f aca="false">P266+$Z$186</f>
-        <v>0.321993525714007</v>
+        <v>0.331505720835958</v>
       </c>
       <c r="Q267" s="4" t="n">
         <f aca="false">Q266+$AA$186</f>
@@ -66316,11 +66316,11 @@
       </c>
       <c r="S267" s="4" t="n">
         <f aca="false">S266+$AC$186</f>
-        <v>0.217580583717213</v>
+        <v>0.208068388595262</v>
       </c>
       <c r="T267" s="4" t="n">
         <f aca="false">T266+$AD$186</f>
-        <v>0.455164257421324</v>
+        <v>0.464676452543275</v>
       </c>
       <c r="U267" s="4" t="n">
         <f aca="false">U266+$AE$186</f>
@@ -66332,7 +66332,7 @@
       </c>
       <c r="W267" s="4" t="n">
         <f aca="false">W266+$AG$186</f>
-        <v>0.189043998351359</v>
+        <v>0.179531803229408</v>
       </c>
       <c r="X267" s="4"/>
       <c r="Y267" s="4"/>
@@ -66404,7 +66404,7 @@
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="1" t="n">
         <f aca="false">K264-AP264</f>
-        <v>0.083031052998885</v>
+        <v>0.0921773944622993</v>
       </c>
       <c r="E268" s="0" t="n">
         <f aca="false">E264+1</f>
@@ -66412,7 +66412,7 @@
       </c>
       <c r="K268" s="4" t="n">
         <f aca="false">K267+$Z$185</f>
-        <v>0.388700842787178</v>
+        <v>0.398334989128641</v>
       </c>
       <c r="L268" s="4" t="n">
         <f aca="false">L267+$AA$185</f>
@@ -66428,11 +66428,11 @@
       </c>
       <c r="O268" s="4" t="n">
         <f aca="false">O267+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.193678144692823</v>
       </c>
       <c r="P268" s="4" t="n">
         <f aca="false">P267+$Z$186</f>
-        <v>0.321261818396934</v>
+        <v>0.330895964738397</v>
       </c>
       <c r="Q268" s="4" t="n">
         <f aca="false">Q267+$AA$186</f>
@@ -66444,11 +66444,11 @@
       </c>
       <c r="S268" s="4" t="n">
         <f aca="false">S267+$AC$186</f>
-        <v>0.217763510546481</v>
+        <v>0.208129364205018</v>
       </c>
       <c r="T268" s="4" t="n">
         <f aca="false">T267+$AD$186</f>
-        <v>0.456139867177422</v>
+        <v>0.465774013518885</v>
       </c>
       <c r="U268" s="4" t="n">
         <f aca="false">U267+$AE$186</f>
@@ -66460,7 +66460,7 @@
       </c>
       <c r="W268" s="4" t="n">
         <f aca="false">W267+$AG$186</f>
-        <v>0.188861071522091</v>
+        <v>0.179226925180627</v>
       </c>
       <c r="X268" s="4"/>
       <c r="Y268" s="4"/>
@@ -66505,7 +66505,7 @@
       </c>
       <c r="AX268" s="4" t="n">
         <f aca="false">AX267+$BH$186</f>
-        <v>0.427437115644321</v>
+        <v>0.42743711564432</v>
       </c>
       <c r="AY268" s="4" t="n">
         <f aca="false">AY267+$BI$186</f>
@@ -66532,7 +66532,7 @@
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="1" t="n">
         <f aca="false">K265-AP265</f>
-        <v>0.0827871505598606</v>
+        <v>0.0920554432427877</v>
       </c>
       <c r="E269" s="0" t="n">
         <f aca="false">E265+1</f>
@@ -66540,7 +66540,7 @@
       </c>
       <c r="K269" s="4" t="n">
         <f aca="false">K268+$Z$185</f>
-        <v>0.38882279400669</v>
+        <v>0.398578891567665</v>
       </c>
       <c r="L269" s="4" t="n">
         <f aca="false">L268+$AA$185</f>
@@ -66556,11 +66556,11 @@
       </c>
       <c r="O269" s="4" t="n">
         <f aca="false">O268+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.19355619347331</v>
       </c>
       <c r="P269" s="4" t="n">
         <f aca="false">P268+$Z$186</f>
-        <v>0.32053011107986</v>
+        <v>0.330286208640836</v>
       </c>
       <c r="Q269" s="4" t="n">
         <f aca="false">Q268+$AA$186</f>
@@ -66572,11 +66572,11 @@
       </c>
       <c r="S269" s="4" t="n">
         <f aca="false">S268+$AC$186</f>
-        <v>0.217946437375749</v>
+        <v>0.208190339814774</v>
       </c>
       <c r="T269" s="4" t="n">
         <f aca="false">T268+$AD$186</f>
-        <v>0.457115476933519</v>
+        <v>0.466871574494495</v>
       </c>
       <c r="U269" s="4" t="n">
         <f aca="false">U268+$AE$186</f>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="W269" s="4" t="n">
         <f aca="false">W268+$AG$186</f>
-        <v>0.188678144692823</v>
+        <v>0.178922047131847</v>
       </c>
       <c r="X269" s="4"/>
       <c r="Y269" s="4"/>
@@ -66660,7 +66660,7 @@
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="1" t="n">
         <f aca="false">K266-AP266</f>
-        <v>0.0825432481208362</v>
+        <v>0.0919334920232751</v>
       </c>
       <c r="E270" s="0" t="n">
         <f aca="false">E266+1</f>
@@ -66668,7 +66668,7 @@
       </c>
       <c r="K270" s="4" t="n">
         <f aca="false">K269+$Z$185</f>
-        <v>0.388944745226202</v>
+        <v>0.39882279400669</v>
       </c>
       <c r="L270" s="4" t="n">
         <f aca="false">L269+$AA$185</f>
@@ -66684,11 +66684,11 @@
       </c>
       <c r="O270" s="4" t="n">
         <f aca="false">O269+$AD$185</f>
-        <v>0.203312291034286</v>
+        <v>0.193434242253798</v>
       </c>
       <c r="P270" s="4" t="n">
         <f aca="false">P269+$Z$186</f>
-        <v>0.319798403762787</v>
+        <v>0.329676452543275</v>
       </c>
       <c r="Q270" s="4" t="n">
         <f aca="false">Q269+$AA$186</f>
@@ -66700,11 +66700,11 @@
       </c>
       <c r="S270" s="4" t="n">
         <f aca="false">S269+$AC$186</f>
-        <v>0.218129364205018</v>
+        <v>0.20825131542453</v>
       </c>
       <c r="T270" s="4" t="n">
         <f aca="false">T269+$AD$186</f>
-        <v>0.458091086689617</v>
+        <v>0.467969135470104</v>
       </c>
       <c r="U270" s="4" t="n">
         <f aca="false">U269+$AE$186</f>
@@ -66716,7 +66716,7 @@
       </c>
       <c r="W270" s="4" t="n">
         <f aca="false">W269+$AG$186</f>
-        <v>0.188495217863554</v>
+        <v>0.178617169083066</v>
       </c>
       <c r="X270" s="4"/>
       <c r="Y270" s="4"/>
@@ -66745,7 +66745,7 @@
       </c>
       <c r="AT270" s="4" t="n">
         <f aca="false">AT269+$BI$185</f>
-        <v>0.398046871741882</v>
+        <v>0.398046871741881</v>
       </c>
       <c r="AU270" s="4" t="n">
         <f aca="false">AU269+$BE$186</f>
@@ -66788,19 +66788,19 @@
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
         <f aca="false">(B271-B176)/B176</f>
-        <v>-0.203587565416157</v>
+        <v>-0.105656447825678</v>
       </c>
       <c r="B271" s="1" t="n">
         <f aca="false">K271-AP271</f>
-        <v>0.0813237359257143</v>
+        <v>0.091323735925714</v>
       </c>
       <c r="E271" s="0" t="n">
         <f aca="false">E267+1</f>
         <v>2040</v>
       </c>
       <c r="K271" s="7" t="n">
-        <f aca="false">K189+0.01</f>
-        <v>0.389066696445714</v>
+        <f aca="false">K189+0.02</f>
+        <v>0.399066696445714</v>
       </c>
       <c r="L271" s="7" t="n">
         <f aca="false">L189</f>
@@ -66815,12 +66815,12 @@
         <v>0.0607060966628571</v>
       </c>
       <c r="O271" s="7" t="n">
-        <f aca="false">O189</f>
-        <v>0.203312291034286</v>
+        <f aca="false">O189-0.01</f>
+        <v>0.193312291034286</v>
       </c>
       <c r="P271" s="7" t="n">
-        <f aca="false">P189-0.06</f>
-        <v>0.319066696445714</v>
+        <f aca="false">P189-0.05</f>
+        <v>0.329066696445714</v>
       </c>
       <c r="Q271" s="7" t="n">
         <f aca="false">Q189+0.03</f>
@@ -66831,12 +66831,12 @@
         <v>0.0807060966628571</v>
       </c>
       <c r="S271" s="7" t="n">
-        <f aca="false">S189+0.015</f>
-        <v>0.218312291034286</v>
+        <f aca="false">S189+0.005</f>
+        <v>0.208312291034286</v>
       </c>
       <c r="T271" s="7" t="n">
-        <f aca="false">T189+0.08</f>
-        <v>0.459066696445714</v>
+        <f aca="false">T189+0.09</f>
+        <v>0.469066696445714</v>
       </c>
       <c r="U271" s="7" t="n">
         <f aca="false">U189-0.04</f>
@@ -66847,8 +66847,8 @@
         <v>0.0407060966628571</v>
       </c>
       <c r="W271" s="7" t="n">
-        <f aca="false">W189-0.015</f>
-        <v>0.188312291034286</v>
+        <f aca="false">W189-0.025</f>
+        <v>0.178312291034286</v>
       </c>
       <c r="X271" s="4"/>
       <c r="Y271" s="4"/>
